--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7ECDB8-7682-4A4B-8352-AC864565BB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C233210-DEC9-4FCD-8EA7-C9CF409013F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-168" yWindow="0" windowWidth="12252" windowHeight="12360" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -13356,9 +13356,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -13372,26 +13369,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13401,6 +13380,27 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13709,7 +13709,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14985,7 +14985,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15083,9 +15083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAB02E-8C57-4C83-9570-2BC2F1E43F4D}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15664,7 +15664,7 @@
       <c r="A40" s="17" t="s">
         <v>930</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -15800,7 +15800,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15823,18 +15823,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="43" t="s">
         <v>1147</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="H1" s="38" t="s">
+      <c r="F1" s="43"/>
+      <c r="H1" s="36" t="s">
         <v>1149</v>
       </c>
       <c r="I1" s="11"/>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="36" t="s">
         <v>1183</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
@@ -15855,7 +15855,7 @@
       <c r="G2" s="42" t="s">
         <v>1161</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="37" t="s">
         <v>1141</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -15872,21 +15872,21 @@
       <c r="C3" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="6" t="s">
         <v>1135</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="6" t="s">
         <v>1145</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>1142</v>
       </c>
-      <c r="J3" s="37"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -15898,31 +15898,31 @@
       <c r="C4" s="6" t="s">
         <v>1129</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="6" t="s">
         <v>1136</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="6" t="s">
         <v>1146</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="J4" s="37"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="43" t="s">
         <v>1156</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="H6" s="38" t="s">
+      <c r="F6" s="43"/>
+      <c r="H6" s="36" t="s">
         <v>1150</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="36" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -16009,14 +16009,14 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="43" t="s">
         <v>1148</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="H10" s="38" t="s">
+      <c r="F10" s="43"/>
+      <c r="H10" s="36" t="s">
         <v>1151</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="36" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -16092,18 +16092,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16114,8 +16114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676A54AD-B01F-4434-83A5-2B0954CA557A}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -16152,7 +16152,7 @@
       <c r="H1" s="10" t="s">
         <v>866</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -16160,22 +16160,22 @@
       <c r="A2" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>1213</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45" t="s">
         <v>1212</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="38" t="s">
         <v>1215</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>1216</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="36" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -16184,15 +16184,15 @@
       <c r="A4" s="10" t="s">
         <v>1205</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="46" t="s">
         <v>1229</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="46" t="s">
         <v>1228</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="43"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -16202,7 +16202,7 @@
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
-      <c r="F5" s="43"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -16215,15 +16215,15 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="39"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="40" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="40" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -17102,8 +17102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17943,7 +17943,7 @@
       <c r="A1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1060</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -18012,7 +18012,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>319</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -18548,7 +18548,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18823,7 +18823,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:E18"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -19073,7 +19073,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19933,7 +19933,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:E8"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -20096,7 +20096,7 @@
       <c r="B11" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="41" t="s">
         <v>780</v>
       </c>
       <c r="D11" s="31" t="s">
@@ -20108,7 +20108,7 @@
     </row>
     <row r="12" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="31"/>
-      <c r="C12" s="32"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="31" t="s">
         <v>782</v>
       </c>
@@ -20118,7 +20118,7 @@
     </row>
     <row r="13" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="31"/>
-      <c r="C13" s="32"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="31" t="s">
         <v>975</v>
       </c>
@@ -20127,13 +20127,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>970</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="41" t="s">
         <v>779</v>
       </c>
       <c r="D14" s="31" t="s">
@@ -20145,7 +20145,7 @@
     </row>
     <row r="15" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="31" t="s">
         <v>969</v>
       </c>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93054B00-1FB9-4B35-A075-8006270390A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7C1C7E-4DCE-46E1-AA7D-F2F21179DCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1500">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -14966,6 +14966,170 @@
   </si>
   <si>
     <t>无论我怎么想，都不知道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+ほしい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>て形+ほしくない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否定形++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でほしい</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不希望做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たち</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に遅刻しないでほしいです</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>希望学生</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>都不要迟到</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬休みが早く来て欲しいですね</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望寒假早点到来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>子供に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ずっと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>私の傍にいて欲しいです</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>希望孩子</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一直</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在我的身边</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -15511,10 +15675,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -15541,6 +15705,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1374535</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>60032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B06656-89A4-9D7A-601E-D1A91B5B1773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2263140" y="2346960"/>
+          <a:ext cx="5306455" cy="5660732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15832,9 +16045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC6D2FE-18E4-41AE-8E59-2FB75F66AD5D}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="A26:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16361,10 +16574,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453DBF0C-9BFC-47CA-8E23-EDB83C5D3222}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -16636,6 +16849,48 @@
       </c>
       <c r="E16" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D19" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>1499</v>
       </c>
     </row>
   </sheetData>
@@ -18514,10 +18769,10 @@
       <c r="A1" s="11" t="s">
         <v>1227</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>1119</v>
       </c>
-      <c r="F1" s="53"/>
+      <c r="F1" s="52"/>
       <c r="I1" s="36" t="s">
         <v>1121</v>
       </c>
@@ -18569,14 +18824,14 @@
       <c r="C3" s="43" t="s">
         <v>1101</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="6" t="s">
         <v>1107</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="36" t="s">
         <v>1230</v>
       </c>
@@ -18586,7 +18841,7 @@
       <c r="J3" s="11" t="s">
         <v>1114</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="6" t="s">
         <v>1241</v>
       </c>
@@ -18610,14 +18865,14 @@
       <c r="C4" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="6" t="s">
         <v>1108</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="36" t="s">
         <v>1231</v>
       </c>
@@ -18627,13 +18882,13 @@
       <c r="J4" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="K4" s="53"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>1128</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="52"/>
       <c r="I6" s="36" t="s">
         <v>1122</v>
       </c>
@@ -18698,14 +18953,14 @@
       <c r="C8" s="6" t="s">
         <v>1125</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="6" t="s">
         <v>1130</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1131</v>
       </c>
-      <c r="G8" s="52"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="10" t="s">
         <v>1233</v>
       </c>
@@ -18715,7 +18970,7 @@
       <c r="J8" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="K8" s="52"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="6" t="s">
         <v>1151</v>
       </c>
@@ -18730,10 +18985,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>1120</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="52"/>
       <c r="I10" s="36" t="s">
         <v>1123</v>
       </c>
@@ -18798,14 +19053,14 @@
       <c r="C12" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="6" t="s">
         <v>1236</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1143</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="10" t="s">
         <v>1235</v>
       </c>
@@ -18815,10 +19070,15 @@
       <c r="J12" s="11" t="s">
         <v>1142</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -18826,11 +19086,6 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19805,8 +20060,8 @@
       <c r="D2" s="54" t="s">
         <v>1171</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="38" t="s">
         <v>1174</v>
       </c>
@@ -19836,10 +20091,10 @@
       <c r="A5" s="10" t="s">
         <v>1167</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="56"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -22134,7 +22389,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -23362,7 +23617,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23501,5 +23756,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7C1C7E-4DCE-46E1-AA7D-F2F21179DCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572ED34E-37C5-406F-98F1-EFFE0703F41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9624" yWindow="0" windowWidth="12876" windowHeight="12360" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1578">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12097,10 +12097,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>味道变淡了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>なる「自然」</t>
     </r>
@@ -14391,10 +14387,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>度に</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>癖に</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -14465,9 +14457,6 @@
   <si>
     <t>「名詞」+によって、….</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为</t>
   </si>
   <si>
     <t>因为交通事故，所以电车迟到了</t>
@@ -15131,13 +15120,568 @@
       <t>在我的身边</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毎に「ごとに」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>距离名词+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>おきに</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>距离名词+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>毎に「ごとに」</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2米种一个树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2メートルおきに木を植わる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔2米种一个树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2メートルごとに木を植わる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一雨毎に暖かくなる</t>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一场春雨一场暖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>とか「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+である+からには</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+である+上は</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+である+以上は</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうなった以上、最後までを持つ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然已经到了这个地步，要把责任拿到底。</t>
+  </si>
+  <si>
+    <t>学生である以上は、一生懸命勉強するべんきだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然是学生的话，就应该拼命学习</t>
+  </si>
+  <si>
+    <t>自从…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞て形」+このかた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞て形」+から</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞て形」+以来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>結婚して以来、家事「かじ」に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追われる「おわれる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日々「ひびひび」が続ついている</t>
+    </r>
+  </si>
+  <si>
+    <t>自从结婚以来，每天都过着被家事追着的日子（忙于）</t>
+  </si>
+  <si>
+    <t>直到…才...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接续助词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞て形」+てはじめて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>病気になって初めて、健康「けんこう」</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大切さが分かった</t>
+    </r>
+  </si>
+  <si>
+    <t>直到生病了，才知道健康的重要性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以…为中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」を中心に</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球「ちきゅう」は太陽「たいよう」を中心に回っている</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球围着太阳转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>抽象名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+を込めて</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充满了…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛をこめて　料理を作る「つくる」</t>
+  </si>
+  <si>
+    <t>充满爱的去做料理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感謝「かんしゃ」を気持ちをこめて</t>
+  </si>
+  <si>
+    <t>充满感谢地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以…为代表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とはじめとする</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+をはじめとうする</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>この町「まち」はこの寺を始めとする、色んな古い建物がある</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>个城市以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>个寺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>庙为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>首，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保留着很多的古建筑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论…还是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>にしろ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>にせよ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にしろ、~にしろ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にせよ、~にせよ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为…所以…[好结果]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+の+お陰で</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+の+せいで</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞連用形」+お陰で</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貴方のお陰で、私は風邪がか完全に「かんぜんに」治った「なおる」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为你，我的感冒完全好了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为你，我得感冒了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貴方のせいで、風邪を引いてしまった</t>
+  </si>
+  <si>
+    <t>「動詞連用形」+せいで</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为（通过，根据…）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…之下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>もとで「下で」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+もとで</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先生の指導「しどう」の下で、日本文学を研究している</t>
+  </si>
+  <si>
+    <t>在先生的指导之下，我进行日本文学的研究</t>
+  </si>
+  <si>
+    <t>在…的时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞た形」+最中に、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話をしている最中に、誰かが家に来た</t>
+  </si>
+  <si>
+    <t>正在打电话的时候，有人回家了</t>
+  </si>
+  <si>
+    <t>食べ事の最中に、お客さんが来た</t>
+  </si>
+  <si>
+    <t>「名詞」+の+最中に、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在吃饭的时候，客人来了</t>
+  </si>
+  <si>
+    <t>结句</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>問う言うほどではない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并没有达到…的程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病状は手術「しゅじゅつ」が必要「ひつよう」というほどではない</t>
+  </si>
+  <si>
+    <t>这个病状并没有达到手术的程度</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15553,6 +16097,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -15574,7 +16126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15675,10 +16227,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -15690,6 +16242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15711,16 +16264,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1653540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1374535</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>60032</xdr:rowOff>
+      <xdr:colOff>764935</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>120992</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15743,7 +16296,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2263140" y="2346960"/>
+          <a:off x="1653540" y="2758440"/>
           <a:ext cx="5306455" cy="5660732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16340,74 +16893,74 @@
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B22" t="s">
         <v>1358</v>
       </c>
-      <c r="B22" t="s">
-        <v>1359</v>
-      </c>
       <c r="C22" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E22" t="s">
         <v>1361</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D23" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E23" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>1481</v>
-      </c>
       <c r="E24" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="E25" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C26" s="1" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="E26" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="E27" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -16429,27 +16982,27 @@
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="9" t="s">
         <v>1337</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E30" t="s">
         <v>1340</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1341</v>
       </c>
     </row>
   </sheetData>
@@ -16463,7 +17016,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16576,8 +17129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453DBF0C-9BFC-47CA-8E23-EDB83C5D3222}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -16853,44 +17406,44 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>1494</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
   </sheetData>
@@ -16938,7 +17491,7 @@
         <v>389</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>665</v>
@@ -16955,7 +17508,7 @@
         <v>668</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>665</v>
@@ -16983,7 +17536,7 @@
         <v>958</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>955</v>
@@ -16999,49 +17552,49 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>329</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="D8" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="D9" s="23" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="C10" s="1" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="D10" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E10" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
   </sheetData>
@@ -17927,8 +18480,8 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A16:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -18767,18 +19320,18 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E1" s="52" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>1119</v>
       </c>
-      <c r="F1" s="52"/>
+      <c r="F1" s="53"/>
       <c r="I1" s="36" t="s">
         <v>1121</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="10" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>1145</v>
@@ -18787,13 +19340,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1109</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1106</v>
@@ -18802,10 +19355,10 @@
         <v>1110</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>1113</v>
@@ -18814,7 +19367,7 @@
         <v>1115</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -18824,16 +19377,16 @@
       <c r="C3" s="43" t="s">
         <v>1101</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="6" t="s">
         <v>1107</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="36" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>1117</v>
@@ -18841,18 +19394,18 @@
       <c r="J3" s="11" t="s">
         <v>1114</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>1241</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>1242</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -18865,16 +19418,16 @@
       <c r="C4" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="6" t="s">
         <v>1108</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="36" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>1118</v>
@@ -18882,13 +19435,13 @@
       <c r="J4" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>1128</v>
       </c>
-      <c r="F6" s="52"/>
+      <c r="F6" s="53"/>
       <c r="I6" s="36" t="s">
         <v>1122</v>
       </c>
@@ -18907,7 +19460,7 @@
         <v>1124</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1129</v>
@@ -18916,10 +19469,10 @@
         <v>1132</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>1133</v>
@@ -18928,7 +19481,7 @@
         <v>1135</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>1148</v>
@@ -18953,16 +19506,16 @@
       <c r="C8" s="6" t="s">
         <v>1125</v>
       </c>
-      <c r="D8" s="53"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="6" t="s">
         <v>1130</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1131</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>1134</v>
@@ -18970,7 +19523,7 @@
       <c r="J8" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="K8" s="53"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="6" t="s">
         <v>1151</v>
       </c>
@@ -18985,10 +19538,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="53" t="s">
         <v>1120</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="53"/>
       <c r="I10" s="36" t="s">
         <v>1123</v>
       </c>
@@ -19007,28 +19560,28 @@
         <v>1137</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>1144</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="K11" s="51" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>1155</v>
@@ -19053,32 +19606,27 @@
       <c r="C12" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1143</v>
       </c>
-      <c r="G12" s="53"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="10" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>1142</v>
       </c>
-      <c r="K12" s="53"/>
+      <c r="K12" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -19086,6 +19634,11 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19096,8 +19649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="D50" sqref="D43:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19877,50 +20430,50 @@
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>1351</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="15" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>1356</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -19953,22 +20506,22 @@
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="18" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>329</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="E52" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F52" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -19976,10 +20529,10 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F53" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -19988,10 +20541,10 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="F54" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -20007,8 +20560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676A54AD-B01F-4434-83A5-2B0954CA557A}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -20060,8 +20613,8 @@
       <c r="D2" s="54" t="s">
         <v>1171</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="38" t="s">
         <v>1174</v>
       </c>
@@ -20091,10 +20644,10 @@
       <c r="A5" s="10" t="s">
         <v>1167</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="56"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21892,7 +22445,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -22051,7 +22604,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>726</v>
@@ -22068,7 +22621,7 @@
     </row>
     <row r="15" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>650</v>
@@ -22146,7 +22699,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -22173,208 +22726,216 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>364</v>
+      <c r="A2" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>846</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>453</v>
+        <v>1202</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>659</v>
+        <v>818</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>395</v>
+      <c r="A3" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>454</v>
+        <v>589</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>393</v>
+        <v>1205</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>394</v>
+        <v>659</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="45" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>1264</v>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>459</v>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>941</v>
+        <v>394</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="46" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>661</v>
+      <c r="A7" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D7" t="s">
+        <v>367</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>662</v>
+        <v>365</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D10" t="s">
-        <v>367</v>
+      <c r="A10" s="45" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>456</v>
+      <c r="A11" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>459</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>365</v>
+        <v>941</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>457</v>
+      <c r="A12" s="46" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>449</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>366</v>
+        <v>661</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>1204</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1205</v>
-      </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>658</v>
+      <c r="A14" t="s">
+        <v>843</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>847</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>589</v>
+        <v>845</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>843</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>844</v>
+        <v>1507</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>1508</v>
       </c>
     </row>
   </sheetData>
@@ -22385,11 +22946,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF9327D-313E-42DC-975B-8EB30ECB4DE0}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:A22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -22421,25 +22982,25 @@
         <v>329</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D3" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -22450,15 +23011,15 @@
         <v>995</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>1290</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>996</v>
@@ -22467,7 +23028,7 @@
         <v>1003</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -22475,10 +23036,10 @@
         <v>997</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -22490,24 +23051,24 @@
         <v>1005</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>1399</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -22516,19 +23077,19 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1417</v>
+        <v>1560</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>1416</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>1419</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -22604,7 +23165,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="15"/>
       <c r="C18" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -22612,31 +23173,31 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="15"/>
       <c r="C19" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E19" t="s">
         <v>1260</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
       <c r="C20" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E20" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="15"/>
       <c r="C21" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -22658,74 +23219,115 @@
         <v>761</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="15"/>
+    <row r="23" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>1375</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="9"/>
+      <c r="C24" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E26" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="9"/>
+      <c r="C28" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="9"/>
+      <c r="C30" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="9"/>
-      <c r="C25" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E27" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C32" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C29" s="1" t="s">
+      <c r="E32" s="9" t="s">
         <v>1402</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>1404</v>
       </c>
     </row>
   </sheetData>
@@ -22736,10 +23338,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028B95A2-C7CB-4D2C-9F00-BE8EDC23D65E}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:C9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -22761,172 +23363,239 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1307</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1314</v>
-      </c>
       <c r="D5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>1319</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>1315</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1311</v>
+      <c r="D9" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="32" t="s">
+      <c r="B10" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="32" t="s">
         <v>946</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D10" s="31" t="s">
+      <c r="C11" s="49" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E11" s="31" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="31" t="s">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="31" t="s">
         <v>945</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E12" s="31" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>1391</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B14" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>1396</v>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C16" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C17" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1529</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22935,16 +23604,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3C2C0-A529-45AF-9E19-6A70A7319ED0}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="57"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="52.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -22964,281 +23634,395 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1424</v>
+      <c r="A2" s="57" t="s">
+        <v>1421</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E3" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>1343</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="9" t="s">
         <v>1344</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1207</v>
+      <c r="A6" s="23" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1570</v>
       </c>
       <c r="E6" t="s">
-        <v>1208</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1217</v>
+      <c r="A7" s="23"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
+        <v>1567</v>
       </c>
       <c r="D7" t="s">
-        <v>1209</v>
+        <v>1568</v>
       </c>
       <c r="E7" t="s">
-        <v>1210</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>1458</v>
+      <c r="B8" s="9" t="s">
+        <v>1519</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1464</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>1459</v>
-      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
-        <v>1466</v>
+        <v>1522</v>
       </c>
       <c r="D9" t="s">
-        <v>1461</v>
+        <v>1523</v>
       </c>
       <c r="E9" t="s">
-        <v>1462</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1282</v>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1296</v>
+        <v>1214</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1210</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>1206</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>1215</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B13" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>877</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1461</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>1397</v>
+        <v>1456</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1471</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>1463</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1459</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1281</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="B16" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B19" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" s="57" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E22" t="s">
         <v>1271</v>
       </c>
-      <c r="E17" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" s="23"/>
+      <c r="B23" t="s">
         <v>878</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>874</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19" s="1" t="s">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" s="23"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" s="23"/>
+      <c r="B25" t="s">
         <v>879</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>873</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21" s="1" t="s">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="23"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B25" s="1"/>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" s="9" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>1539</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23248,10 +24032,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0DD02-A2A4-4913-87F3-FF074BB46E2F}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23279,106 +24063,106 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>1297</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1299</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>1213</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1332</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>311</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D6" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>1473</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -23389,18 +24173,18 @@
         <v>303</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D9" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>1018</v>
+        <v>1510</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1199</v>
@@ -23414,196 +24198,253 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E11" t="s">
         <v>1389</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E12" t="s">
         <v>1385</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E13" t="s">
         <v>1387</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1369</v>
+        <v>1541</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1373</v>
+        <v>1542</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>1368</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>1193</v>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>1193</v>
+        <v>1548</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D22" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E22" s="37" t="s">
         <v>1222</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C27" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D28" t="s">
         <v>1224</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E20" s="37"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E21" s="37"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E22" s="37"/>
-    </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C23" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="E28" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D29" t="s">
         <v>1277</v>
       </c>
-      <c r="D24" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E29" s="37" t="s">
         <v>1278</v>
       </c>
-      <c r="E25" s="37" t="s">
-        <v>1279</v>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1565</v>
       </c>
     </row>
   </sheetData>
@@ -23616,8 +24457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6952ADA-DA23-487F-8259-3506EB692067}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23642,19 +24483,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -23665,10 +24506,10 @@
         <v>519</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>546</v>
@@ -23735,19 +24576,19 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="37" t="s">
         <v>1288</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1289</v>
       </c>
     </row>
   </sheetData>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E87E14-3D08-4CFF-AB28-4B56DAB7221E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01937009-E51E-4386-9BAE-64985349A1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10308" yWindow="0" windowWidth="12876" windowHeight="12360" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -21,21 +21,22 @@
     <sheet name="程度「ていど」" sheetId="26" r:id="rId6"/>
     <sheet name="時間&amp;空間" sheetId="25" r:id="rId7"/>
     <sheet name="範囲「はんい」" sheetId="22" r:id="rId8"/>
-    <sheet name="仮定「かてい」" sheetId="15" r:id="rId9"/>
-    <sheet name="目的「もくてき」" sheetId="5" r:id="rId10"/>
-    <sheet name="认为" sheetId="20" r:id="rId11"/>
-    <sheet name="要請「ようせい」、招待「しょうたい」" sheetId="3" r:id="rId12"/>
-    <sheet name="比較「ひかく」" sheetId="8" r:id="rId13"/>
-    <sheet name="比喩「ひゆ」" sheetId="13" r:id="rId14"/>
-    <sheet name="听说" sheetId="21" r:id="rId15"/>
-    <sheet name="被动" sheetId="16" r:id="rId16"/>
-    <sheet name="事「こと」" sheetId="2" r:id="rId17"/>
-    <sheet name="使役" sheetId="17" r:id="rId18"/>
-    <sheet name="授受" sheetId="23" r:id="rId19"/>
-    <sheet name="敬語" sheetId="24" r:id="rId20"/>
-    <sheet name="格助詞「かくじょし」" sheetId="10" r:id="rId21"/>
-    <sheet name="副助詞「ふくじょし」" sheetId="12" r:id="rId22"/>
-    <sheet name="接続「せつぞく」" sheetId="11" r:id="rId23"/>
+    <sheet name="問題" sheetId="27" r:id="rId9"/>
+    <sheet name="仮定「かてい」" sheetId="15" r:id="rId10"/>
+    <sheet name="目的「もくてき」" sheetId="5" r:id="rId11"/>
+    <sheet name="认为" sheetId="20" r:id="rId12"/>
+    <sheet name="要請「ようせい」、招待「しょうたい」" sheetId="3" r:id="rId13"/>
+    <sheet name="比較「ひかく」" sheetId="8" r:id="rId14"/>
+    <sheet name="比喩「ひゆ」" sheetId="13" r:id="rId15"/>
+    <sheet name="听说" sheetId="21" r:id="rId16"/>
+    <sheet name="被动" sheetId="16" r:id="rId17"/>
+    <sheet name="事「こと」" sheetId="2" r:id="rId18"/>
+    <sheet name="使役" sheetId="17" r:id="rId19"/>
+    <sheet name="授受" sheetId="23" r:id="rId20"/>
+    <sheet name="敬語" sheetId="24" r:id="rId21"/>
+    <sheet name="格助詞「かくじょし」" sheetId="10" r:id="rId22"/>
+    <sheet name="副助詞「ふくじょし」" sheetId="12" r:id="rId23"/>
+    <sheet name="接続「せつぞく」" sheetId="11" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1828">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12193,10 +12194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不仅仅...</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>…+ばかりでなく</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13655,10 +13652,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>だけでなく</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>「動詞連用形」+だけでは</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13765,9 +13758,6 @@
   </si>
   <si>
     <t>从北海道到九州</t>
-  </si>
-  <si>
-    <t>北海道から九州「きゅうしゅう」にかけて</t>
   </si>
   <si>
     <r>
@@ -16641,10 +16631,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日本に着いたら、電話をしてね</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>你到了日本之后，给我打电话</t>
   </si>
   <si>
@@ -17122,6 +17108,354 @@
   </si>
   <si>
     <t>も…なら…も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>だれ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何処</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>どこ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何時</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>どんな</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（怎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>么样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かどうか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示の通りにやるだけはやったが、いい結果が出るかどうか自信がない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>尽管按照指示去快速的做了，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>是否有好的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>果不自信</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に決まっている「にきまっている」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に違いない「にちがいない」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に相違ない「にそういない」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>服装はいつも</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大分「だいぶ」違うが、やっぱりあれは山田さんに違いない</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>服装はいつも</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大分「だいぶ」違うが、やっぱりあれは山田さんに決まっている</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>服装はいつも</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大分「だいぶ」違うが、やっぱりあれは山田さんに相違ない</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然衣服和平常很不一样，但肯定是山田先生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>では</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海道から九州「きゅうしゅう」にかけて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市では、人口の増加と共に、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在城市，随着人口的增加，住房问题越发严重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とともに</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に連れて「につれて」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に伴って「にともなって」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に従って「にしたがって」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市では、人口の増加するに連れて、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市では、人口の増加するに伴って、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市では、人口の増加するに従って、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本に着いたら、電話をしてね「についたら」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为…所以…[坏结果]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生水「なまみず」を飲んだばかりに、お腹を悪くしてまった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就因为喝了自来水，坏肚子了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞原形」+ばかりに</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个劲的…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞原形」+ばかりだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（動詞た形+ばかりだ→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刚刚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物価「ぶっか」は上がるばかりで、生活は少しも楽にならない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件一个劲地上涨，生活一点没有改善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞て形」+てばかりいる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>うちの息子は毎日テルビを見てばかりいます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们家孩子总是每天看电视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばかりか…も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばかりでなく…も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>だけでなく…も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…+ばかりか…も</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -17692,6 +18026,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -17701,10 +18036,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -17716,7 +18051,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -18020,6 +18354,216 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6952ADA-DA23-487F-8259-3506EB692067}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" customWidth="1"/>
+    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
+        <v>764</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4" t="s">
+        <v>730</v>
+      </c>
+      <c r="E4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>763</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="31" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="31" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="9"/>
+      <c r="C9" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC6D2FE-18E4-41AE-8E59-2FB75F66AD5D}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -18243,19 +18787,19 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E16" t="s">
         <v>1712</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1715</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -18335,74 +18879,74 @@
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>1350</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E24" t="s">
         <v>1351</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>1466</v>
-      </c>
       <c r="E25" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="E26" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E27" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C28" s="1" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E28" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -18424,52 +18968,52 @@
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="9" t="s">
         <v>1327</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E31" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>1599</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E33" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
   </sheetData>
@@ -18478,12 +19022,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0935F-84C6-400A-BD4C-D1BEE4D7E2F4}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18583,44 +19127,44 @@
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>1625</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E10" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -18628,41 +19172,41 @@
         <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E11" t="s">
         <v>1630</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D12" t="s">
         <v>1631</v>
       </c>
-      <c r="D12" t="s">
-        <v>1634</v>
-      </c>
       <c r="E12" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="E13" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -18670,33 +19214,78 @@
         <v>1069</v>
       </c>
       <c r="B14" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E14" t="s">
         <v>1741</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1744</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="B15" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E15" t="s">
         <v>1743</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1747</v>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1798</v>
       </c>
     </row>
   </sheetData>
@@ -18705,7 +19294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453DBF0C-9BFC-47CA-8E23-EDB83C5D3222}">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -18953,26 +19542,26 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="40" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>1621</v>
-      </c>
       <c r="E15" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="40"/>
       <c r="D16" s="1" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E16" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -18983,7 +19572,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>134</v>
@@ -19011,119 +19600,119 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>1479</v>
-      </c>
       <c r="E21" s="9" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>1589</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
     </row>
   </sheetData>
@@ -19132,7 +19721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6605E0D7-54D1-4304-94C5-D79C1ECC1119}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -19171,7 +19760,7 @@
         <v>388</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>664</v>
@@ -19188,7 +19777,7 @@
         <v>667</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>664</v>
@@ -19213,36 +19802,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="E5" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -19250,7 +19839,7 @@
         <v>956</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>953</v>
@@ -19266,19 +19855,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="D9" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
     </row>
   </sheetData>
@@ -19287,7 +19876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B67A44-78D5-44D8-844E-BDF8B73CE1DD}">
   <dimension ref="A1:H40"/>
   <sheetViews>
@@ -19856,7 +20445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2CC707-43A4-4A99-92D1-5E9BC9FF97EB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -19934,52 +20523,52 @@
         <v>507</v>
       </c>
       <c r="B5" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="E5" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E6" t="s">
         <v>1612</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="E7" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="E8" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
   </sheetData>
@@ -19988,7 +20577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79088B3B-6E24-4054-8393-3459C94EE1F8}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -20208,52 +20797,52 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="47"/>
       <c r="D13" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="47"/>
       <c r="D14" s="23" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="47"/>
       <c r="C15" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D15" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="E15" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
   </sheetData>
@@ -20262,13 +20851,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAB02E-8C57-4C83-9570-2BC2F1E43F4D}">
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -20758,36 +21347,36 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="18" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="18" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -21013,50 +21602,50 @@
     </row>
     <row r="52" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="53" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D54" t="s">
         <v>1578</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>1581</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
@@ -21064,13 +21653,13 @@
         <v>328</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>1582</v>
-      </c>
       <c r="E55" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -21078,67 +21667,67 @@
         <v>328</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>1583</v>
-      </c>
       <c r="E56" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C57" s="23" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>1621</v>
-      </c>
       <c r="E57" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="B58" s="40"/>
       <c r="D58" s="1" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E58" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="59" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="60" spans="1:5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="E60" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
     </row>
   </sheetData>
@@ -21147,7 +21736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D52D6-70D9-41AC-924F-E89134896185}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -21243,36 +21832,36 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>1678</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>1681</v>
       </c>
     </row>
   </sheetData>
@@ -21281,7 +21870,940 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>394</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>626</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>394</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>627</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>628</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>394</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="13"/>
+      <c r="B28" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="13"/>
+      <c r="B34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="13"/>
+      <c r="B36" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="13"/>
+      <c r="B38" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A44" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A46" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A47" s="15" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A48" s="15" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B49" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B50" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B51" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A52" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" t="s">
+        <v>429</v>
+      </c>
+      <c r="F52" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A53" s="15"/>
+      <c r="B53" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E53" t="s">
+        <v>430</v>
+      </c>
+      <c r="F53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A54" s="18" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A55" s="18"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A56" s="15"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A57" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0BBAD2-F58F-4EC2-9617-BD472B852ED3}">
   <dimension ref="A1:O14"/>
   <sheetViews>
@@ -21311,7 +22833,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E1" s="57" t="s">
         <v>1117</v>
@@ -21322,7 +22844,7 @@
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="10" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>1143</v>
@@ -21331,13 +22853,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>1242</v>
+      <c r="D2" s="56" t="s">
+        <v>1241</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1104</v>
@@ -21345,11 +22867,11 @@
       <c r="F2" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>1245</v>
+      <c r="G2" s="56" t="s">
+        <v>1244</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>1111</v>
@@ -21357,8 +22879,8 @@
       <c r="J2" s="11" t="s">
         <v>1113</v>
       </c>
-      <c r="K2" s="55" t="s">
-        <v>1248</v>
+      <c r="K2" s="56" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -21377,7 +22899,7 @@
       </c>
       <c r="G3" s="57"/>
       <c r="H3" s="36" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>1115</v>
@@ -21387,16 +22909,16 @@
       </c>
       <c r="K3" s="57"/>
       <c r="L3" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>1238</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>1239</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>1241</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -21418,7 +22940,7 @@
       </c>
       <c r="G4" s="57"/>
       <c r="H4" s="36" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>1116</v>
@@ -21450,8 +22972,8 @@
       <c r="C7" s="43" t="s">
         <v>1122</v>
       </c>
-      <c r="D7" s="55" t="s">
-        <v>1243</v>
+      <c r="D7" s="56" t="s">
+        <v>1242</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1127</v>
@@ -21459,11 +22981,11 @@
       <c r="F7" s="11" t="s">
         <v>1130</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>1246</v>
+      <c r="G7" s="56" t="s">
+        <v>1245</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>1131</v>
@@ -21471,8 +22993,8 @@
       <c r="J7" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="K7" s="55" t="s">
-        <v>1249</v>
+      <c r="K7" s="56" t="s">
+        <v>1248</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>1146</v>
@@ -21497,16 +23019,16 @@
       <c r="C8" s="6" t="s">
         <v>1123</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="6" t="s">
         <v>1128</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1129</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>1132</v>
@@ -21514,7 +23036,7 @@
       <c r="J8" s="11" t="s">
         <v>1134</v>
       </c>
-      <c r="K8" s="56"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="6" t="s">
         <v>1149</v>
       </c>
@@ -21550,29 +23072,29 @@
       <c r="C11" s="44" t="s">
         <v>1135</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>1244</v>
+      <c r="D11" s="56" t="s">
+        <v>1243</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>1142</v>
       </c>
-      <c r="G11" s="55" t="s">
-        <v>1247</v>
+      <c r="G11" s="56" t="s">
+        <v>1246</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="K11" s="55" t="s">
-        <v>1702</v>
+      <c r="K11" s="56" t="s">
+        <v>1699</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>1153</v>
@@ -21597,35 +23119,40 @@
       <c r="C12" s="6" t="s">
         <v>1137</v>
       </c>
-      <c r="D12" s="56"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="K12" s="56"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -21633,951 +23160,13 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="F3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>590</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="C4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="C5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="C6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>625</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>394</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>394</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>626</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>394</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>627</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>394</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>394</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>628</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>394</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>394</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B32" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>355</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" s="13"/>
-      <c r="B34" t="s">
-        <v>354</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" s="13"/>
-      <c r="B36" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A43" s="15" t="s">
-        <v>745</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A44" s="15" t="s">
-        <v>746</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" s="15" t="s">
-        <v>747</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A46" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A47" s="15" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A48" s="15" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B49" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B50" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="B51" s="1" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A52" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" t="s">
-        <v>429</v>
-      </c>
-      <c r="F52" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A53" s="15"/>
-      <c r="B53" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E53" t="s">
-        <v>430</v>
-      </c>
-      <c r="F53" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A54" s="18" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A55" s="18"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A56" s="15"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A57" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676A54AD-B01F-4434-83A5-2B0954CA557A}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -22627,15 +23216,15 @@
       <c r="A2" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>1170</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59" t="s">
         <v>1169</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="38" t="s">
         <v>1172</v>
       </c>
@@ -22651,25 +23240,25 @@
       <c r="A4" s="10" t="s">
         <v>1162</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>1186</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
         <v>1185</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="60"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="61"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>1165</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -22739,7 +23328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689B7B7-E79D-4A54-8438-F0C853DC91D6}">
   <dimension ref="A1:O64"/>
   <sheetViews>
@@ -23565,7 +24154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515E6D57-7333-467C-B914-7E60BABBA523}">
   <dimension ref="A1:I86"/>
   <sheetViews>
@@ -24186,7 +24775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C170657-C8A9-45AE-89E4-F74DBEE5539A}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -24625,7 +25214,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>725</v>
@@ -24642,7 +25231,7 @@
     </row>
     <row r="15" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>649</v>
@@ -24868,13 +25457,13 @@
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="45" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>457</v>
@@ -24885,7 +25474,7 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>50</v>
@@ -24902,7 +25491,7 @@
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="46" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>50</v>
@@ -24944,19 +25533,19 @@
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="B15" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C15" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="D15" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
   </sheetData>
@@ -24967,11 +25556,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF9327D-313E-42DC-975B-8EB30ECB4DE0}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -25003,25 +25592,25 @@
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="D3" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -25032,15 +25621,15 @@
         <v>993</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>1285</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>994</v>
@@ -25049,7 +25638,7 @@
         <v>1001</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -25057,10 +25646,10 @@
         <v>995</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -25072,58 +25661,58 @@
         <v>1003</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -25199,7 +25788,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="15"/>
       <c r="C16" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -25207,31 +25796,31 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="15"/>
       <c r="C17" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E17" t="s">
         <v>1256</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="15"/>
       <c r="C18" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E18" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="15"/>
       <c r="C19" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -25255,7 +25844,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>328</v>
@@ -25264,10 +25853,10 @@
         <v>980</v>
       </c>
       <c r="D21" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -25276,10 +25865,10 @@
         <v>981</v>
       </c>
       <c r="D22" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="E22" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -25289,10 +25878,10 @@
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="D24" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E24" t="s">
         <v>990</v>
@@ -25300,82 +25889,105 @@
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>1539</v>
+        <v>1536</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D25" t="s">
         <v>1540</v>
       </c>
-      <c r="D25" t="s">
-        <v>1543</v>
-      </c>
       <c r="E25" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
       <c r="C26" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>1539</v>
+        <v>1812</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="D27" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="E27" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="9"/>
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="9" t="s">
-        <v>1395</v>
-      </c>
+    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C30" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C31" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
+      <c r="E31" s="9" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E32" t="s">
         <v>1703</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1706</v>
       </c>
     </row>
   </sheetData>
@@ -25386,10 +25998,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028B95A2-C7CB-4D2C-9F00-BE8EDC23D65E}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -25411,126 +26023,126 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1302</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1309</v>
-      </c>
       <c r="D5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>1314</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>1310</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D7" t="s">
         <v>1561</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" t="s">
         <v>1562</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D9" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -25540,8 +26152,8 @@
       <c r="B11" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>1266</v>
+      <c r="C11" s="54" t="s">
+        <v>1265</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>758</v>
@@ -25553,7 +26165,7 @@
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="31"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="31" t="s">
         <v>943</v>
       </c>
@@ -25565,80 +26177,116 @@
       <c r="A13" s="1"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>1264</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>1383</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B15" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E16" t="s">
         <v>1501</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D17" t="s">
         <v>1502</v>
       </c>
-      <c r="D17" t="s">
-        <v>1505</v>
-      </c>
       <c r="E17" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D18" t="s">
         <v>1513</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>1514</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1516</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1517</v>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C21" s="1" t="s">
+        <v>1818</v>
       </c>
     </row>
   </sheetData>
@@ -25652,10 +26300,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3C2C0-A529-45AF-9E19-6A70A7319ED0}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -25683,98 +26331,99 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="49" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E3" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D4" t="s">
         <v>1333</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>1334</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>1338</v>
+        <v>1800</v>
       </c>
       <c r="E5" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="9"/>
-      <c r="C7" s="1"/>
+      <c r="E7" t="s">
+        <v>1645</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1560</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="23" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1551</v>
+      </c>
       <c r="C9" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D9" t="s">
         <v>1555</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1556</v>
       </c>
       <c r="E9" t="s">
         <v>1557</v>
@@ -25782,370 +26431,433 @@
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="23"/>
-      <c r="B10" s="61" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1726</v>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
+        <v>1552</v>
       </c>
       <c r="D10" t="s">
-        <v>1732</v>
+        <v>1553</v>
       </c>
       <c r="E10" t="s">
-        <v>1733</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="23"/>
-      <c r="B11" s="61" t="s">
-        <v>1735</v>
+      <c r="B11" s="53" t="s">
+        <v>1730</v>
       </c>
       <c r="C11" t="s">
-        <v>1727</v>
+        <v>1722</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="23"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="53" t="s">
+        <v>1731</v>
+      </c>
       <c r="C12" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
       <c r="B13" s="9"/>
       <c r="C13" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1730</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B14" s="9" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1509</v>
+      <c r="A14" s="23"/>
+      <c r="B14" s="9"/>
+      <c r="C14" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>1504</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D16" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B17" s="9" t="s">
-        <v>1708</v>
-      </c>
+      <c r="E16" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B19" s="9"/>
+      <c r="C19" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B20" s="9"/>
+      <c r="C20" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B21" s="9"/>
+      <c r="C21" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" s="9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>1208</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E23" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
+    <row r="24" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>1214</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" t="s">
         <v>1206</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E24" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
+    <row r="25" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D26" t="s">
         <v>1443</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E26" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="D20" t="s">
-        <v>1448</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="D21" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" s="9" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="E30" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B31" s="9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="49" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="23"/>
+      <c r="B35" t="s">
+        <v>876</v>
+      </c>
+      <c r="C35" t="s">
         <v>872</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>1452</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1453</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B25" s="9" t="s">
-        <v>861</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="D35" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="23"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" s="23"/>
+      <c r="B37" t="s">
+        <v>877</v>
+      </c>
+      <c r="C37" t="s">
         <v>871</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" s="9" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="23"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
         <v>1515</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C41" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D41" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" s="49" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" s="23"/>
-      <c r="B30" t="s">
-        <v>876</v>
-      </c>
-      <c r="C30" t="s">
-        <v>872</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" s="23"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="23"/>
-      <c r="B32" t="s">
-        <v>877</v>
-      </c>
-      <c r="C32" t="s">
-        <v>871</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A33" s="23"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
+      <c r="E41" s="9" t="s">
         <v>1518</v>
       </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B42" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="D36" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D42" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B37" s="9" t="s">
+      <c r="E42" s="9" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>1523</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E43" s="9" t="s">
         <v>1524</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>1527</v>
       </c>
     </row>
   </sheetData>
@@ -26156,10 +26868,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0DD02-A2A4-4913-87F3-FF074BB46E2F}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -26187,19 +26899,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>1693</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -26207,13 +26919,13 @@
         <v>1215</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>1292</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="1" t="s">
         <v>1293</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1294</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>1211</v>
@@ -26238,99 +26950,99 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="D9" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>1458</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -26341,18 +27053,18 @@
         <v>302</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D12" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1197</v>
@@ -26366,277 +27078,269 @@
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="E14" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E15" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E16" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>1530</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E18" t="s">
         <v>1566</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1534</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>974</v>
       </c>
       <c r="D21" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E21" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="E25" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E26" t="s">
         <v>1697</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>1191</v>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1827</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1193</v>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1218</v>
       </c>
       <c r="D28" t="s">
-        <v>1194</v>
+        <v>1220</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>1191</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" s="51" t="s">
-        <v>1218</v>
-      </c>
       <c r="B29" s="52" t="s">
-        <v>1094</v>
+        <v>1826</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1221</v>
+        <v>1770</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1775</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>1220</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B30" s="52" t="s">
-        <v>1317</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>1780</v>
-      </c>
+        <v>1771</v>
+      </c>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E31" s="37"/>
+        <v>1774</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>1773</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1776</v>
+        <v>1317</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1322</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C33" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1324</v>
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>1195</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>1325</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>1280</v>
-      </c>
       <c r="B34" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1273</v>
+        <v>1192</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1193</v>
       </c>
       <c r="D34" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1223</v>
+        <v>1194</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>1279</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>1023</v>
       </c>
@@ -26644,89 +27348,103 @@
         <v>1272</v>
       </c>
       <c r="D35" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E36" s="37" t="s">
         <v>1274</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1664</v>
+        <v>1546</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1666</v>
+        <v>1547</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1665</v>
+        <v>1548</v>
       </c>
       <c r="D38" t="s">
-        <v>1662</v>
+        <v>1549</v>
       </c>
       <c r="E38" t="s">
-        <v>1663</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1650</v>
+        <v>1661</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1652</v>
+        <v>1663</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>1657</v>
+        <v>1662</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C41" s="1" t="s">
-        <v>1659</v>
-      </c>
       <c r="D41" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E41" t="s">
         <v>1658</v>
       </c>
-      <c r="E41" t="s">
-        <v>1661</v>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C42" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1658</v>
       </c>
     </row>
   </sheetData>
@@ -26736,210 +27454,62 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6952ADA-DA23-487F-8259-3506EB692067}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F2DEB6-6EBD-4F9B-936C-0D257ACA7C7C}">
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" customWidth="1"/>
-    <col min="4" max="4" width="40.21875" customWidth="1"/>
-    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>726</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>725</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>727</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>728</v>
-      </c>
-      <c r="E2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1781</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
-        <v>764</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>725</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>727</v>
-      </c>
-      <c r="D4" t="s">
-        <v>730</v>
-      </c>
-      <c r="E4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>1786</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>763</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="31" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="31" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="C9" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1641</v>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1790</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:C7"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01937009-E51E-4386-9BAE-64985349A1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C12236-CB3A-47AE-8472-0F5D6849B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -19,24 +19,25 @@
     <sheet name="変化「へんか」" sheetId="18" r:id="rId4"/>
     <sheet name="因果「いんが」" sheetId="7" r:id="rId5"/>
     <sheet name="程度「ていど」" sheetId="26" r:id="rId6"/>
-    <sheet name="時間&amp;空間" sheetId="25" r:id="rId7"/>
-    <sheet name="範囲「はんい」" sheetId="22" r:id="rId8"/>
-    <sheet name="問題" sheetId="27" r:id="rId9"/>
-    <sheet name="仮定「かてい」" sheetId="15" r:id="rId10"/>
-    <sheet name="目的「もくてき」" sheetId="5" r:id="rId11"/>
-    <sheet name="认为" sheetId="20" r:id="rId12"/>
-    <sheet name="要請「ようせい」、招待「しょうたい」" sheetId="3" r:id="rId13"/>
-    <sheet name="比較「ひかく」" sheetId="8" r:id="rId14"/>
-    <sheet name="比喩「ひゆ」" sheetId="13" r:id="rId15"/>
-    <sheet name="听说" sheetId="21" r:id="rId16"/>
-    <sheet name="被动" sheetId="16" r:id="rId17"/>
-    <sheet name="事「こと」" sheetId="2" r:id="rId18"/>
-    <sheet name="使役" sheetId="17" r:id="rId19"/>
-    <sheet name="授受" sheetId="23" r:id="rId20"/>
-    <sheet name="敬語" sheetId="24" r:id="rId21"/>
-    <sheet name="格助詞「かくじょし」" sheetId="10" r:id="rId22"/>
-    <sheet name="副助詞「ふくじょし」" sheetId="12" r:id="rId23"/>
-    <sheet name="接続「せつぞく」" sheetId="11" r:id="rId24"/>
+    <sheet name="转折" sheetId="28" r:id="rId7"/>
+    <sheet name="仮定「かてい」" sheetId="15" r:id="rId8"/>
+    <sheet name="時間&amp;空間" sheetId="25" r:id="rId9"/>
+    <sheet name="範囲「はんい」" sheetId="22" r:id="rId10"/>
+    <sheet name="問題" sheetId="27" r:id="rId11"/>
+    <sheet name="目的「もくてき」" sheetId="5" r:id="rId12"/>
+    <sheet name="认为" sheetId="20" r:id="rId13"/>
+    <sheet name="要請「ようせい」、招待「しょうたい」" sheetId="3" r:id="rId14"/>
+    <sheet name="比較「ひかく」" sheetId="8" r:id="rId15"/>
+    <sheet name="比喩「ひゆ」" sheetId="13" r:id="rId16"/>
+    <sheet name="听说" sheetId="21" r:id="rId17"/>
+    <sheet name="被动" sheetId="16" r:id="rId18"/>
+    <sheet name="事「こと」" sheetId="2" r:id="rId19"/>
+    <sheet name="使役" sheetId="17" r:id="rId20"/>
+    <sheet name="授受" sheetId="23" r:id="rId21"/>
+    <sheet name="敬語" sheetId="24" r:id="rId22"/>
+    <sheet name="格助詞「かくじょし」" sheetId="10" r:id="rId23"/>
+    <sheet name="副助詞「ふくじょし」" sheetId="12" r:id="rId24"/>
+    <sheet name="接続「せつぞく」" sheetId="11" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="1879">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6075,53 +6076,6 @@
         <charset val="128"/>
       </rPr>
       <t>行[功能]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>…「名詞」</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>よると、…「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>简体句</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」そうだ</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13609,10 +13563,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>….くらい</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>程度之低</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -14250,10 +14200,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>癖に</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>…癖に「くせに」、….</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -15889,10 +15835,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「名詞」+そうおです</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>午後から雨が降るんだって</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -17456,6 +17398,442 @@
   </si>
   <si>
     <t>…+ばかりか…も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不…，就不…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てからでないと…ない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳しく「くわしい」お話を伺って「うかが→聞く、訪ねる「たずねる」、尋ねる「たずねる」的尊他语」からでないと、お答えできません</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不详细地听完您的意见，我是无法回答您的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てからでなければ…ない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳しく「くわしい」お話を伺ってからでなければ、お答えできません</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就算…也…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>にしても</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>にもせよ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>にしたって</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にしろ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にせよ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にしても</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にたって</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にもせよ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无论…还是的强调）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いくら少人数「しょうにんず」にしても、パーテイーをするにはこの部屋は狭すぎる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就算多么少的人数，要在这里开派对的话，这个房间也太小了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にしても、~にしても</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行くにしても、行かないにしても</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高いにしろ、安いにしろ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物にせよ、動物にせよ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>めぐる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了…以外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>を除いて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+を除いて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>この問題は除いて、ほとんど解決された</t>
+  </si>
+  <si>
+    <t>除了这个问题几乎都解决了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>…「名詞」</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>よると</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据天气预报，明天好像会下雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>…「名詞」</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>によれば</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天気予報によれば、明日は雪が降るらしいです</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+そうです</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>能？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>この料理、食べられるもんか？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种东西能吃吗？</t>
+  </si>
+  <si>
+    <t>こんな複雑「ふくざつ」文章「ぶんしょう」、訳せるものですか？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样复杂的文章怎么能翻译呢？</t>
+  </si>
+  <si>
+    <t>ものか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>もんか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝不…/再也不...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连…都不…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我绝不会撒谎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歯を磨「みが」きもしない、寝てしました</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连牙都不刷就睡觉了</t>
+  </si>
+  <si>
+    <t>「動詞ます形」+はしない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞ます形」+もしない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は噓なんかつき「つくる」はしません</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>明明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…ものの</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの仕事を引き受けたものの、できるかどうか自信がない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然接受了那份工作，但是是否能够做好还不自信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…だいたい「大体」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…ほとんど「殆ど」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18354,20 +18732,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6952ADA-DA23-487F-8259-3506EB692067}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0DD02-A2A4-4913-87F3-FF074BB46E2F}">
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" customWidth="1"/>
-    <col min="4" max="4" width="40.21875" customWidth="1"/>
-    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -18380,190 +18758,695 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>726</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>725</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>727</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>728</v>
-      </c>
-      <c r="E2" t="s">
-        <v>729</v>
+      <c r="E1" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1214</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1720</v>
+        <v>1290</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1291</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
-        <v>764</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>725</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>727</v>
-      </c>
-      <c r="D4" t="s">
-        <v>730</v>
-      </c>
-      <c r="E4" t="s">
-        <v>731</v>
+        <v>1292</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>1318</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>763</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="31" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="31" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>1416</v>
-      </c>
+        <v>1316</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1721</v>
-      </c>
+        <v>1753</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>1417</v>
+        <v>1754</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
+      <c r="B9" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>1420</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1421</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>545</v>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1423</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1280</v>
+        <v>1454</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>328</v>
+        <v>1453</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1281</v>
+        <v>1451</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+        <v>1452</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1602</v>
+        <v>1195</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1605</v>
+        <v>302</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>1633</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>328</v>
+        <v>1492</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1634</v>
+        <v>1196</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1635</v>
+        <v>1197</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>1637</v>
+        <v>1374</v>
       </c>
       <c r="E14" t="s">
-        <v>1638</v>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" s="52" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E31" s="37"/>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C33" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B38" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C44" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1654</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:C7"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F2DEB6-6EBD-4F9B-936C-0D257ACA7C7C}">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC6D2FE-18E4-41AE-8E59-2FB75F66AD5D}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -18631,7 +19514,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D4" t="s">
         <v>683</v>
@@ -18648,13 +19531,13 @@
         <v>712</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>808</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E5" t="s">
         <v>809</v>
-      </c>
-      <c r="E5" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -18694,19 +19577,19 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D9" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="E9" t="s">
         <v>821</v>
-      </c>
-      <c r="E9" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -18714,13 +19597,13 @@
         <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D10" t="s">
         <v>835</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>836</v>
-      </c>
-      <c r="E10" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -18728,10 +19611,10 @@
         <v>720</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>721</v>
@@ -18743,7 +19626,7 @@
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="C12" s="23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>724</v>
@@ -18755,13 +19638,13 @@
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D13" t="s">
         <v>838</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>839</v>
-      </c>
-      <c r="E13" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -18770,36 +19653,36 @@
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>849</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D15" t="s">
+        <v>851</v>
+      </c>
+      <c r="E15" t="s">
         <v>850</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>854</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D15" t="s">
-        <v>852</v>
-      </c>
-      <c r="E15" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E16" t="s">
         <v>1708</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -18879,141 +19762,141 @@
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B23" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="C23" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1349</v>
-      </c>
       <c r="E23" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="D24" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="E24" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>1463</v>
-      </c>
       <c r="E25" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="E26" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="E27" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C28" s="1" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E28" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" t="s">
         <v>857</v>
-      </c>
-      <c r="E29" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="9" t="s">
         <v>1325</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E31" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>1596</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="E33" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
   </sheetData>
@@ -19022,7 +19905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0935F-84C6-400A-BD4C-D1BEE4D7E2F4}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -19104,7 +19987,7 @@
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="C6" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>694</v>
@@ -19116,7 +19999,7 @@
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="C7" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>695</v>
@@ -19127,44 +20010,44 @@
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>1621</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="E10" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19172,120 +20055,120 @@
         <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="E11" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E12" t="s">
         <v>1628</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="E13" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B14" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E14" t="s">
         <v>1737</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="B15" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E15" t="s">
         <v>1739</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="B16" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>1796</v>
-      </c>
       <c r="E16" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="E17" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E18" t="s">
         <v>1794</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1798</v>
       </c>
     </row>
   </sheetData>
@@ -19294,7 +20177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453DBF0C-9BFC-47CA-8E23-EDB83C5D3222}">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -19390,7 +20273,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>68</v>
@@ -19410,7 +20293,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>69</v>
@@ -19430,7 +20313,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>677</v>
@@ -19453,7 +20336,7 @@
         <v>444</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>125</v>
@@ -19516,7 +20399,7 @@
         <v>95</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -19542,26 +20425,26 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="40" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E15" t="s">
         <v>1615</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="40"/>
       <c r="D16" s="1" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="E16" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -19572,7 +20455,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>134</v>
@@ -19600,119 +20483,119 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>1476</v>
-      </c>
       <c r="E21" s="9" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>1586</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
   </sheetData>
@@ -19721,7 +20604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6605E0D7-54D1-4304-94C5-D79C1ECC1119}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -19760,7 +20643,7 @@
         <v>388</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>664</v>
@@ -19777,7 +20660,7 @@
         <v>667</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>664</v>
@@ -19802,72 +20685,72 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E5" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="D9" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
   </sheetData>
@@ -19876,7 +20759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B67A44-78D5-44D8-844E-BDF8B73CE1DD}">
   <dimension ref="A1:H40"/>
   <sheetViews>
@@ -20105,7 +20988,7 @@
         <v>476</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>469</v>
@@ -20130,10 +21013,10 @@
         <v>476</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -20141,7 +21024,7 @@
         <v>499</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -20155,7 +21038,7 @@
         <v>481</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>473</v>
@@ -20180,7 +21063,7 @@
         <v>476</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -20199,7 +21082,7 @@
         <v>481</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>472</v>
@@ -20256,7 +21139,7 @@
         <v>518</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>527</v>
@@ -20288,7 +21171,7 @@
         <v>518</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>523</v>
@@ -20308,7 +21191,7 @@
         <v>518</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>539</v>
@@ -20328,7 +21211,7 @@
         <v>518</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>537</v>
@@ -20445,13 +21328,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2CC707-43A4-4A99-92D1-5E9BC9FF97EB}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20501,7 +21384,7 @@
         <v>508</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>752</v>
+        <v>1852</v>
       </c>
       <c r="D3" t="s">
         <v>509</v>
@@ -20519,56 +21402,67 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1606</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1610</v>
+        <v>1854</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1855</v>
       </c>
       <c r="E5" t="s">
-        <v>1612</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C7" s="1" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1767</v>
-      </c>
       <c r="E7" t="s">
-        <v>1768</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="E8" t="s">
-        <v>1768</v>
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C9" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1764</v>
       </c>
     </row>
   </sheetData>
@@ -20577,7 +21471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79088B3B-6E24-4054-8393-3459C94EE1F8}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -20599,13 +21493,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>783</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>575</v>
@@ -20622,36 +21516,36 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>813</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>581</v>
@@ -20660,24 +21554,24 @@
         <v>582</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>580</v>
@@ -20686,24 +21580,24 @@
         <v>576</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>574</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>578</v>
@@ -20712,24 +21606,24 @@
         <v>579</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>573</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>577</v>
@@ -20738,24 +21632,24 @@
         <v>691</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>572</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>145</v>
@@ -20764,85 +21658,85 @@
         <v>583</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>785</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="9" t="s">
         <v>792</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="47"/>
       <c r="D13" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="47"/>
       <c r="D14" s="23" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="47"/>
       <c r="C15" s="1" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D15" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E15" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
   </sheetData>
@@ -20851,7 +21745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAB02E-8C57-4C83-9570-2BC2F1E43F4D}">
   <dimension ref="A1:F60"/>
   <sheetViews>
@@ -20889,7 +21783,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>378</v>
@@ -20906,7 +21800,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>374</v>
@@ -20940,13 +21834,13 @@
         <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>375</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -20957,47 +21851,47 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -21005,27 +21899,27 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C10" t="s">
+        <v>935</v>
+      </c>
+      <c r="D10" t="s">
         <v>936</v>
-      </c>
-      <c r="D10" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -21042,7 +21936,7 @@
         <v>368</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -21053,16 +21947,16 @@
         <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>372</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -21079,13 +21973,13 @@
         <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>895</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -21094,13 +21988,13 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -21112,19 +22006,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -21133,22 +22027,22 @@
         <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>49</v>
@@ -21163,16 +22057,16 @@
         <v>50</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>50</v>
@@ -21181,7 +22075,7 @@
         <v>646</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>75</v>
@@ -21189,13 +22083,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>53</v>
@@ -21207,7 +22101,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>54</v>
@@ -21216,16 +22110,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>76</v>
@@ -21233,13 +22127,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>51</v>
@@ -21254,7 +22148,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>52</v>
@@ -21286,7 +22180,7 @@
         <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>58</v>
@@ -21298,7 +22192,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>59</v>
@@ -21327,7 +22221,7 @@
         <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>60</v>
@@ -21339,7 +22233,7 @@
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>61</v>
@@ -21347,36 +22241,36 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="18" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="18" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -21386,7 +22280,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="17" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>63</v>
@@ -21400,13 +22294,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>122</v>
@@ -21417,7 +22311,7 @@
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>121</v>
@@ -21425,13 +22319,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="17" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>87</v>
@@ -21445,35 +22339,35 @@
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>741</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>50</v>
@@ -21493,7 +22387,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>47</v>
@@ -21510,7 +22404,7 @@
         <v>50</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>48</v>
@@ -21546,46 +22440,46 @@
         <v>115</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E48" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D49" t="s">
+        <v>909</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>910</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>434</v>
@@ -21597,55 +22491,55 @@
         <v>436</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="52" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="53" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D54" t="s">
         <v>1575</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>1578</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
@@ -21653,13 +22547,13 @@
         <v>328</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>1579</v>
-      </c>
       <c r="E55" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -21667,201 +22561,67 @@
         <v>328</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>1580</v>
-      </c>
       <c r="E56" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C57" s="23" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E57" t="s">
         <v>1615</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="B58" s="40"/>
       <c r="D58" s="1" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="E58" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="59" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="60" spans="1:5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="E60" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D52D6-70D9-41AC-924F-E89134896185}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>1674</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>1678</v>
+        <v>1634</v>
       </c>
     </row>
   </sheetData>
@@ -22655,72 +23415,72 @@
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>1338</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="15" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>1343</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -22753,22 +23513,22 @@
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" s="18" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E54" t="s">
         <v>1394</v>
       </c>
-      <c r="E54" t="s">
-        <v>1397</v>
-      </c>
       <c r="F54" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -22776,10 +23536,10 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="F55" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -22788,10 +23548,10 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="F56" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -22804,6 +23564,140 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D52D6-70D9-41AC-924F-E89134896185}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0BBAD2-F58F-4EC2-9617-BD472B852ED3}">
   <dimension ref="A1:O14"/>
   <sheetViews>
@@ -22833,317 +23727,317 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F1" s="57"/>
       <c r="I1" s="36" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="10" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>1224</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>1225</v>
-      </c>
       <c r="I2" s="37" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K2" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G3" s="57"/>
       <c r="H3" s="36" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K3" s="57"/>
       <c r="L3" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>1237</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>1238</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>1240</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>1102</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G4" s="57"/>
       <c r="H4" s="36" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K4" s="57"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="57" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F6" s="57"/>
       <c r="I6" s="36" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="G7" s="56" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>1131</v>
-      </c>
       <c r="J7" s="11" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>1146</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>1147</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>1156</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>1128</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>1129</v>
       </c>
       <c r="G8" s="58"/>
       <c r="H8" s="10" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="K8" s="58"/>
       <c r="L8" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>1149</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>1150</v>
-      </c>
       <c r="N8" s="6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E10" s="57" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F10" s="57"/>
       <c r="I10" s="36" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>1234</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="M11" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>1152</v>
-      </c>
       <c r="O11" s="11" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D12" s="58"/>
       <c r="E12" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="10" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="K12" s="58"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
   </sheetData>
@@ -23166,7 +24060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676A54AD-B01F-4434-83A5-2B0954CA557A}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -23185,74 +24079,74 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1159</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1160</v>
-      </c>
       <c r="D1" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1167</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
       <c r="G2" s="38" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>1172</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>1173</v>
-      </c>
       <c r="I2" s="36" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="60" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E4" s="59"/>
       <c r="F4" s="61"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
@@ -23262,12 +24156,12 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -23275,45 +24169,45 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>1176</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>1177</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>1179</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1182</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>1183</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -23328,7 +24222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689B7B7-E79D-4A54-8438-F0C853DC91D6}">
   <dimension ref="A1:O64"/>
   <sheetViews>
@@ -24154,7 +25048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515E6D57-7333-467C-B914-7E60BABBA523}">
   <dimension ref="A1:I86"/>
   <sheetViews>
@@ -24176,7 +25070,7 @@
         <v>258</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>89</v>
@@ -24198,7 +25092,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>275</v>
@@ -24212,19 +25106,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>310</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -24232,7 +25126,7 @@
         <v>315</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -24240,7 +25134,7 @@
         <v>317</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -24257,7 +25151,7 @@
         <v>380</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -24265,123 +25159,123 @@
         <v>320</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>1075</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
       <c r="B10" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>1073</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="18" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>1081</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1070</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="18" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>1086</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>1007</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>1010</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -24395,10 +25289,10 @@
         <v>323</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -24410,7 +25304,7 @@
         <v>324</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -24427,7 +25321,7 @@
         <v>313</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -24460,7 +25354,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>302</v>
@@ -24477,54 +25371,54 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="15"/>
       <c r="C24" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="15"/>
       <c r="C25" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="15"/>
       <c r="C26" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>286</v>
@@ -24541,24 +25435,24 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="D28" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>276</v>
@@ -24570,12 +25464,12 @@
         <v>277</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>276</v>
@@ -24587,7 +25481,7 @@
         <v>278</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -24604,7 +25498,7 @@
         <v>282</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -24612,7 +25506,7 @@
         <v>281</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -24620,13 +25514,13 @@
         <v>283</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>383</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
@@ -24637,7 +25531,7 @@
         <v>286</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>287</v>
@@ -24648,25 +25542,25 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C35" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="15"/>
       <c r="C36" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>381</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
@@ -24690,78 +25584,78 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D43" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="9" t="s">
         <v>1090</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D45" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>1092</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
@@ -24775,7 +25669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C170657-C8A9-45AE-89E4-F74DBEE5539A}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -24809,17 +25703,17 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24827,10 +25721,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24942,105 +25836,105 @@
         <v>346</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>347</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E14" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>993</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -25183,7 +26077,7 @@
         <v>403</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -25214,86 +26108,86 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>725</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>649</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="31" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>864</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="D19" s="31" t="s">
+      <c r="E19" t="s">
         <v>865</v>
-      </c>
-      <c r="E19" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20"/>
@@ -25337,16 +26231,16 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>659</v>
@@ -25357,13 +26251,13 @@
         <v>657</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>588</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>602</v>
@@ -25457,13 +26351,13 @@
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="45" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>457</v>
@@ -25474,7 +26368,7 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>50</v>
@@ -25483,7 +26377,7 @@
         <v>458</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>601</v>
@@ -25491,7 +26385,7 @@
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="46" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>50</v>
@@ -25514,38 +26408,38 @@
         <v>661</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="B15" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C15" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="D15" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
   </sheetData>
@@ -25556,11 +26450,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF9327D-313E-42DC-975B-8EB30ECB4DE0}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:A29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -25586,408 +26480,311 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>992</v>
+        <v>1728</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1410</v>
+        <v>1729</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1414</v>
+        <v>1730</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1469</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
+      <c r="A3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1411</v>
+        <v>1399</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>1401</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>992</v>
+      <c r="A4" s="15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>993</v>
+        <v>349</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1285</v>
+        <v>379</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>1415</v>
+      <c r="A5" s="15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1286</v>
+        <v>986</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="15"/>
       <c r="C6" s="1" t="s">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1289</v>
+        <v>987</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1288</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
+      <c r="A7" s="15"/>
       <c r="C7" s="1" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1287</v>
+        <v>984</v>
+      </c>
+      <c r="E7" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="15"/>
+      <c r="C8" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D8" t="s">
+        <v>990</v>
+      </c>
+      <c r="E8" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="15"/>
+      <c r="C9" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="15"/>
+      <c r="C10" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="15"/>
+      <c r="C11" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="15"/>
+      <c r="C12" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="9"/>
+      <c r="C15" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E17" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="15"/>
-      <c r="C13" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
-      <c r="C14" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="E14" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="15"/>
-      <c r="C15" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="D15" t="s">
-        <v>991</v>
-      </c>
-      <c r="E15" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="15"/>
-      <c r="C16" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="15"/>
-      <c r="C17" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="15"/>
       <c r="C18" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1258</v>
+        <v>1534</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1537</v>
       </c>
       <c r="E18" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="15"/>
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9"/>
       <c r="C19" s="1" t="s">
-        <v>1254</v>
+        <v>1536</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="15" t="s">
-        <v>942</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>50</v>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="9"/>
       <c r="C22" s="1" t="s">
-        <v>981</v>
+        <v>1811</v>
       </c>
       <c r="D22" t="s">
-        <v>1364</v>
+        <v>1809</v>
       </c>
       <c r="E22" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C24" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E24" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1385</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>328</v>
+        <v>1696</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1537</v>
+        <v>1697</v>
       </c>
       <c r="D25" t="s">
-        <v>1540</v>
+        <v>1698</v>
       </c>
       <c r="E25" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="9"/>
-      <c r="C26" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="9" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="9"/>
-      <c r="B29" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="9" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C31" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="9" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
@@ -25998,17 +26795,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028B95A2-C7CB-4D2C-9F00-BE8EDC23D65E}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26023,275 +26821,311 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1301</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>1308</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D7" t="s">
         <v>1558</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" t="s">
         <v>1559</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D9" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="32" t="s">
-        <v>944</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" s="32" t="s">
+        <v>943</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>758</v>
-      </c>
-      <c r="E11" s="31" t="s">
+      <c r="C13" s="54" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" s="31"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="31" t="s">
+        <v>942</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="31" t="s">
-        <v>943</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>1263</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1497</v>
-      </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1508</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C18" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D18" t="s">
         <v>1499</v>
       </c>
-      <c r="D17" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1513</v>
-      </c>
       <c r="E18" t="s">
-        <v>1514</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E20" t="s">
         <v>1816</v>
       </c>
-      <c r="B19" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E21" t="s">
         <v>1819</v>
       </c>
-      <c r="E19" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C21" s="1" t="s">
-        <v>1818</v>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C22" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1868</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26299,6 +27133,467 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7DBE77-ABED-4CD1-9512-E9E0A04421DB}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" s="9"/>
+      <c r="C3" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="C4" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="C7" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="9"/>
+      <c r="C8" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6952ADA-DA23-487F-8259-3506EB692067}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" customWidth="1"/>
+    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4" t="s">
+        <v>730</v>
+      </c>
+      <c r="E4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>762</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="31" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="31" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="9"/>
+      <c r="C9" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" s="18"/>
+      <c r="C22" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3C2C0-A529-45AF-9E19-6A70A7319ED0}">
   <dimension ref="A1:G43"/>
   <sheetViews>
@@ -26331,81 +27626,81 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="49" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E3" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D4" t="s">
         <v>1331</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>1332</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="E5" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="D6" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="E6" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="E7" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -26414,314 +27709,314 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="D9" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="E9" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="23"/>
       <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="D10" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="E10" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="23"/>
       <c r="B11" s="53" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="C11" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="D11" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E11" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="23"/>
       <c r="B12" s="53" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="C12" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
       <c r="B13" s="9"/>
       <c r="C13" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="9"/>
       <c r="C14" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="D14" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E14" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="D16" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="E16" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="9" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="D18" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="E18" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="D19" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="E19" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="D20" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="E20" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="D21" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="E21" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="9" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="E22" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C23" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E23" t="s">
         <v>1204</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C24" t="s">
         <v>1213</v>
       </c>
-      <c r="C24" t="s">
-        <v>1214</v>
-      </c>
       <c r="D24" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E24" t="s">
         <v>1206</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="D25" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E25" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E26" t="s">
         <v>1441</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="9" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C27" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E27" t="s">
         <v>1276</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="9" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D32" t="s">
         <v>1510</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1513</v>
-      </c>
       <c r="E32" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -26729,34 +28024,34 @@
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="49" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>1270</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D34" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E34" t="s">
         <v>1266</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="23"/>
       <c r="B35" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C35" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -26764,25 +28059,25 @@
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="23"/>
       <c r="B37" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C37" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -26790,723 +28085,74 @@
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C39" s="25" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>1484</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D40" t="s">
         <v>1485</v>
       </c>
-      <c r="C40" s="25" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1488</v>
-      </c>
       <c r="E40" s="9" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>1515</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B42" s="9" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>1519</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0DD02-A2A4-4913-87F3-FF074BB46E2F}">
-  <dimension ref="A1:E42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="103.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" s="52" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="E30" s="37"/>
-    </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1772</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C32" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B34" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C42" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F2DEB6-6EBD-4F9B-936C-0D257ACA7C7C}">
-  <dimension ref="A2:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1790</v>
+        <v>1521</v>
       </c>
     </row>
   </sheetData>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C12236-CB3A-47AE-8472-0F5D6849B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA49575A-741B-4437-99F6-2C6D38F225FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="1883">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12136,10 +12136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>只做…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>刚刚做...</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13614,14 +13610,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>只做…的话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只是…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>「名詞」+だげでは</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -16890,10 +16878,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>也只能…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ほかない</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -17834,6 +17818,116 @@
   </si>
   <si>
     <t>几乎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞ます形」+ながら</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>有一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的意思）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は新入社員でありなから、生意気「なまいき」だ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>也只能…（被迫）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只做…（主动/客观）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いずれ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何れ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>何れも：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无论哪个人都…</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18414,10 +18508,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -18735,8 +18829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0DD02-A2A4-4913-87F3-FF074BB46E2F}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18764,42 +18858,39 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>1686</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1214</v>
+        <v>1879</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>1290</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1292</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>1214</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>1067</v>
       </c>
@@ -18814,100 +18905,92 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>1318</v>
-      </c>
       <c r="B5" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1319</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1316</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1751</v>
+        <v>1878</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="D9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>1452</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -18918,18 +19001,18 @@
         <v>302</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D12" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1196</v>
@@ -18943,268 +19026,268 @@
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="E14" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E15" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E16" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>1524</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E18" t="s">
         <v>1560</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1531</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>973</v>
       </c>
       <c r="D22" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="E22" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="E26" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E27" t="s">
         <v>1690</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="51"/>
       <c r="B29" s="52" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E29" s="37" t="s">
         <v>1217</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="52" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C33" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D33" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E34" s="37" t="s">
         <v>1847</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1850</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -19240,19 +19323,19 @@
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D37" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E37" t="s">
         <v>1220</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19260,92 +19343,92 @@
         <v>1022</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D38" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E38" s="37" t="s">
         <v>1272</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D40" t="s">
         <v>1543</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="E40" t="s">
         <v>1544</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1546</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="D41" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E41" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>1648</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>1644</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1647</v>
-      </c>
       <c r="D43" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E43" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C44" s="1" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="D44" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E44" t="s">
         <v>1651</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1654</v>
       </c>
     </row>
   </sheetData>
@@ -19356,10 +19439,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F2DEB6-6EBD-4F9B-936C-0D257ACA7C7C}">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19371,73 +19454,84 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>1782</v>
+        <v>1881</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1781</v>
+        <v>1880</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1882</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1786</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D9" t="s">
         <v>1857</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1860</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1861</v>
       </c>
     </row>
   </sheetData>
@@ -19670,19 +19764,19 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="E16" t="s">
         <v>1705</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -19762,74 +19856,74 @@
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>1345</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E24" t="s">
         <v>1346</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>1460</v>
-      </c>
       <c r="E25" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="E26" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="E27" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C28" s="1" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="E28" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19851,52 +19945,52 @@
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>1322</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="E31" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>1593</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E33" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
   </sheetData>
@@ -20010,44 +20104,44 @@
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>1618</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E10" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20055,41 +20149,41 @@
         <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E11" t="s">
         <v>1623</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D12" t="s">
         <v>1624</v>
       </c>
-      <c r="D12" t="s">
-        <v>1627</v>
-      </c>
       <c r="E12" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="E13" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20097,78 +20191,78 @@
         <v>1068</v>
       </c>
       <c r="B14" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D14" t="s">
         <v>1733</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" t="s">
         <v>1734</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="B15" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>1738</v>
-      </c>
       <c r="E15" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="B16" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>1792</v>
-      </c>
       <c r="E16" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="E17" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E18" t="s">
         <v>1790</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1794</v>
       </c>
     </row>
   </sheetData>
@@ -20425,26 +20519,26 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="40" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>1614</v>
-      </c>
       <c r="E15" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="40"/>
       <c r="D16" s="1" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E16" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -20455,7 +20549,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>134</v>
@@ -20483,119 +20577,119 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>1473</v>
-      </c>
       <c r="E21" s="9" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>1583</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
   </sheetData>
@@ -20643,7 +20737,7 @@
         <v>388</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>664</v>
@@ -20660,7 +20754,7 @@
         <v>667</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>664</v>
@@ -20685,36 +20779,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="E5" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -20722,7 +20816,7 @@
         <v>955</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>952</v>
@@ -20738,19 +20832,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="D9" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
     </row>
   </sheetData>
@@ -21384,7 +21478,7 @@
         <v>508</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="D3" t="s">
         <v>509</v>
@@ -21403,13 +21497,13 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="D5" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="E5" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21417,52 +21511,52 @@
         <v>507</v>
       </c>
       <c r="B6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" t="s">
         <v>1605</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1856</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1607</v>
-      </c>
       <c r="E7" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="E8" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="E9" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
   </sheetData>
@@ -21691,52 +21785,52 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="47"/>
       <c r="D13" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="47"/>
       <c r="D14" s="23" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="47"/>
       <c r="C15" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D15" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E15" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
@@ -22241,36 +22335,36 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="18" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="18" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -22496,50 +22590,50 @@
     </row>
     <row r="52" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="53" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D54" t="s">
         <v>1572</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>1575</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
@@ -22547,13 +22641,13 @@
         <v>328</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>1576</v>
-      </c>
       <c r="E55" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -22561,67 +22655,67 @@
         <v>328</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>1577</v>
-      </c>
       <c r="E56" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C57" s="23" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>1614</v>
-      </c>
       <c r="E57" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="B58" s="40"/>
       <c r="D58" s="1" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E58" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="59" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="60" spans="1:5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="E60" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
   </sheetData>
@@ -23415,72 +23509,72 @@
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="15" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1342</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -23513,22 +23607,22 @@
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" s="18" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E54" t="s">
         <v>1391</v>
       </c>
-      <c r="E54" t="s">
-        <v>1394</v>
-      </c>
       <c r="F54" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -23536,10 +23630,10 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="F55" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -23548,10 +23642,10 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="F56" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -23659,36 +23753,36 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>1671</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>1674</v>
       </c>
     </row>
   </sheetData>
@@ -23727,18 +23821,18 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E1" s="57" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="57"/>
+      <c r="F1" s="58"/>
       <c r="I1" s="36" t="s">
         <v>1118</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="10" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>1142</v>
@@ -23747,13 +23841,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1106</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1103</v>
@@ -23762,10 +23856,10 @@
         <v>1107</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>1110</v>
@@ -23774,7 +23868,7 @@
         <v>1112</v>
       </c>
       <c r="K2" s="56" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -23784,16 +23878,16 @@
       <c r="C3" s="43" t="s">
         <v>1098</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="36" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>1114</v>
@@ -23801,18 +23895,18 @@
       <c r="J3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="K3" s="57"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>1237</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -23825,16 +23919,16 @@
       <c r="C4" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="6" t="s">
         <v>1105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="36" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>1115</v>
@@ -23842,13 +23936,13 @@
       <c r="J4" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="K4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="58" t="s">
         <v>1125</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="58"/>
       <c r="I6" s="36" t="s">
         <v>1119</v>
       </c>
@@ -23867,7 +23961,7 @@
         <v>1121</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1126</v>
@@ -23876,10 +23970,10 @@
         <v>1129</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>1130</v>
@@ -23888,7 +23982,7 @@
         <v>1132</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>1145</v>
@@ -23913,16 +24007,16 @@
       <c r="C8" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="6" t="s">
         <v>1127</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>1131</v>
@@ -23930,7 +24024,7 @@
       <c r="J8" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="K8" s="58"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="6" t="s">
         <v>1148</v>
       </c>
@@ -23945,10 +24039,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="58" t="s">
         <v>1117</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="58"/>
       <c r="I10" s="36" t="s">
         <v>1120</v>
       </c>
@@ -23967,28 +24061,28 @@
         <v>1134</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>1141</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>1138</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>1152</v>
@@ -24013,40 +24107,35 @@
       <c r="C12" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="D12" s="58"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="K12" s="58"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -24054,6 +24143,11 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24117,8 +24211,8 @@
       <c r="D2" s="59" t="s">
         <v>1168</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="38" t="s">
         <v>1171</v>
       </c>
@@ -24148,10 +24242,10 @@
       <c r="A5" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="61"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -26108,7 +26202,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>725</v>
@@ -26125,7 +26219,7 @@
     </row>
     <row r="15" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>649</v>
@@ -26351,13 +26445,13 @@
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="45" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>457</v>
@@ -26368,7 +26462,7 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>50</v>
@@ -26385,7 +26479,7 @@
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="46" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>50</v>
@@ -26427,19 +26521,19 @@
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B15" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C15" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="D15" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
   </sheetData>
@@ -26480,36 +26574,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -26585,7 +26679,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="15"/>
       <c r="C9" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -26593,31 +26687,31 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
       <c r="C10" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E10" t="s">
         <v>1254</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="15"/>
       <c r="C11" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
       <c r="C12" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -26641,7 +26735,7 @@
     </row>
     <row r="14" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>328</v>
@@ -26650,10 +26744,10 @@
         <v>979</v>
       </c>
       <c r="D14" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -26662,10 +26756,10 @@
         <v>980</v>
       </c>
       <c r="D15" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E15" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -26675,10 +26769,10 @@
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D17" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E17" t="s">
         <v>989</v>
@@ -26686,44 +26780,44 @@
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D18" t="s">
         <v>1534</v>
       </c>
-      <c r="D18" t="s">
-        <v>1537</v>
-      </c>
       <c r="E18" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9"/>
       <c r="C19" s="1" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="D20" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="E20" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -26731,7 +26825,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -26742,49 +26836,49 @@
         <v>328</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="D22" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="E22" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C24" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>1388</v>
-      </c>
       <c r="E24" s="9" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E25" t="s">
         <v>1696</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1699</v>
       </c>
     </row>
   </sheetData>
@@ -26797,8 +26891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028B95A2-C7CB-4D2C-9F00-BE8EDC23D65E}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -26821,145 +26915,145 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1300</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1306</v>
-      </c>
       <c r="D5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>1311</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>1307</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D7" t="s">
         <v>1555</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" t="s">
         <v>1556</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D9" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -26970,7 +27064,7 @@
         <v>725</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>757</v>
@@ -26994,133 +27088,133 @@
       <c r="A15" s="1"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>1262</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B16" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E17" t="s">
         <v>1495</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D18" t="s">
         <v>1496</v>
       </c>
-      <c r="D18" t="s">
-        <v>1499</v>
-      </c>
       <c r="E18" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D19" t="s">
         <v>1507</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>1508</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1510</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E20" t="s">
         <v>1812</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="E21" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="B23" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="D23" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="E23" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="B24" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="D24" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="E24" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
     </row>
   </sheetData>
@@ -27134,10 +27228,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7DBE77-ABED-4CD1-9512-E9E0A04421DB}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -27167,37 +27261,37 @@
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D3" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="C4" s="1" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -27211,15 +27305,15 @@
         <v>992</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>1283</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>993</v>
@@ -27228,7 +27322,7 @@
         <v>1000</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -27236,10 +27330,10 @@
         <v>994</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -27251,24 +27345,40 @@
         <v>1002</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1384</v>
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C11" s="1" t="s">
+        <v>1876</v>
       </c>
     </row>
   </sheetData>
@@ -27324,13 +27434,13 @@
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="E3" t="s">
         <v>729</v>
@@ -27380,101 +27490,101 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="C9" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>1378</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>1836</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>1840</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1833</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1837</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -27487,10 +27597,10 @@
         <v>518</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>545</v>
@@ -27498,90 +27608,90 @@
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="37" t="s">
         <v>1281</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C18" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="E18" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>1629</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="E20" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="18" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="D21" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="18"/>
       <c r="C22" s="1" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="D22" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
     </row>
   </sheetData>
@@ -27626,81 +27736,81 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="49" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E3" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>1329</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="E5" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="D6" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="E6" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1642</v>
-      </c>
       <c r="E7" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -27709,166 +27819,166 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="D9" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="E9" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="23"/>
       <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="D10" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="E10" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="23"/>
       <c r="B11" s="53" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C11" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="D11" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="E11" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="23"/>
       <c r="B12" s="53" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="C12" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
       <c r="B13" s="9"/>
       <c r="C13" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="9"/>
       <c r="C14" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="D14" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="E14" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="D16" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E16" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="9" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="D18" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="E18" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="D19" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="E19" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="D20" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="E20" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="D21" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="E21" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="E22" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="18" x14ac:dyDescent="0.45">
@@ -27901,58 +28011,58 @@
     </row>
     <row r="25" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="D25" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E25" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E26" t="s">
         <v>1438</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C27" t="s">
         <v>1208</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E27" t="s">
         <v>1275</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -27965,10 +28075,10 @@
         <v>871</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -27981,7 +28091,7 @@
         <v>870</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>874</v>
@@ -27991,32 +28101,32 @@
     </row>
     <row r="31" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="9" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D32" t="s">
         <v>1507</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1510</v>
-      </c>
       <c r="E32" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28024,19 +28134,19 @@
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="49" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1269</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="D34" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E34" t="s">
         <v>1265</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -28093,66 +28203,66 @@
     </row>
     <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="C39" s="25" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>1481</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D40" t="s">
         <v>1482</v>
       </c>
-      <c r="C40" s="25" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1485</v>
-      </c>
       <c r="E40" s="9" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>1512</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1514</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B42" s="9" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>1516</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
   </sheetData>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA49575A-741B-4437-99F6-2C6D38F225FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D915F615-146F-4274-A0AB-FAA664655DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10152" yWindow="360" windowWidth="12876" windowHeight="11124" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="1883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1963">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -13126,14 +13126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「名詞」な+ために、…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「形容動詞」な+ために、…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>「形容詞」+ために、…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13161,14 +13153,6 @@
       </rPr>
       <t>」+ために、…</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本語が下手なために、私はその会社に入れなかった</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为日语太差了，所以没能进入那家公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -13955,53 +13939,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>因为…所以…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日は日曜日なので、動物園へ行きます</t>
-  </si>
-  <si>
-    <t>因为今天是星期日，所以去动物园吧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>私の家は駅から遠いので、不便だ</t>
-  </si>
-  <si>
-    <t>我家因为离车站很远，所以不方便</t>
-  </si>
-  <si>
-    <t>椅子が壊れたので、新しいのを買った</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>「動詞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原形</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>／た形」+ので、…</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>など</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -15584,10 +15521,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「動詞連用形」+たまえ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>読みたまえ＝読んでください</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -15834,10 +15767,6 @@
     <t>听说午后要下雨</t>
   </si>
   <si>
-    <t>不是…嘛？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不可以做…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -16383,18 +16312,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未必…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>とは限らない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有钱人未必幸福</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>お金持ちは必ずしも幸せとは限らない</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -16416,14 +16333,6 @@
   </si>
   <si>
     <t>这个电影仅限这周上映</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>限らす</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「名詞」+かぎらす</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -16682,21 +16591,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「名詞」+の⁺うちに／うちは</t>
-  </si>
-  <si>
-    <t>「形容動詞」+な+うちに／うちは</t>
-  </si>
-  <si>
-    <t>「形容詞」+うちに／うちは</t>
-  </si>
-  <si>
-    <t>「動詞原形」+うちに／うちは</t>
-  </si>
-  <si>
-    <t>雨が降らないうちに、早く家「いえ」へ帰ったほうがいいです</t>
-  </si>
-  <si>
     <t>趁着没下雨，最好赶紧回家吧</t>
   </si>
   <si>
@@ -16730,15 +16624,146 @@
     <t>海啸期间，不能航海</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>うちに→</t>
+    <t>因为…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+につき、….</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雨につき、運動会は中止します。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为下大雨，所以运动会终止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>はずだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>はずがない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月程旅行に行くと言っていましたから、留守「るす」のはずです</t>
+  </si>
+  <si>
+    <t>说是要旅行一个月的程度，应该不在家 （留守表示不在家）</t>
+  </si>
+  <si>
+    <t>今の状況「じょうきょう」は厳しい「きびしい」、会社の経営「けいえい」が悪くないので、すぐ倒れるはずがない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如今的情况虽然很严峻，但是由于公司经营的还算不差，所以不可能立即倒闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原形+べきです</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>／べきだ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用不着做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「原形」+ことはない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間がたっぶりあるから、そんなに急ぐことはない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间还很充裕，没必要那么着急</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做…吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞原形」+ことはない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞原形」+ことだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没必要做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞ない形」+ことだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不应该做...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほかない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>試験に合格するには、勉強するしかない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>試験に合格するには、勉強するほかない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要想考试及格的话，只有努力了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+ということだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+という</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>という</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…詰り</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
     </r>
     <r>
       <rPr>
@@ -16748,20 +16773,23 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>趁着 + 在…的时候</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>うちは→</t>
+      <t>简体小句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+という</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
     </r>
     <r>
       <rPr>
@@ -16771,146 +16799,477 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>在…的时候</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「名詞」+につき、….</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大雨につき、運動会は中止します。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为下大雨，所以运动会终止</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结尾词</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>はずだ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>はずがない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月程旅行に行くと言っていましたから、留守「るす」のはずです</t>
-  </si>
-  <si>
-    <t>说是要旅行一个月的程度，应该不在家 （留守表示不在家）</t>
-  </si>
-  <si>
-    <t>今の状況「じょうきょう」は厳しい「きびしい」、会社の経営「けいえい」が悪くないので、すぐ倒れるはずがない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如今的情况虽然很严峻，但是由于公司经营的还算不差，所以不可能立即倒闭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原形+べきです</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>／べきだ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用不着做…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「原形」+ことはない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間がたっぶりあるから、そんなに急ぐことはない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间还很充裕，没必要那么着急</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>做…吧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞原形」+ことはない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞原形」+ことだ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没必要做…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞ない形」+ことだ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不应该做...</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ほかない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>しかない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>試験に合格するには、勉強するしかない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>試験に合格するには、勉強するほかない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要想考试及格的话，只有努力了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「名詞」+ということだ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「名詞」+という</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>という</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>…詰り</t>
+      <t>简体小句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+ということだ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>この本はよると、昔「むかし」ここに寺「てら」があったという</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据这本书说，以前这里有座寺庙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>この本はよると、昔「むかし」ここに寺「てら」があったということだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+だけでなく～も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「形容詞」+だけでなく～も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼女は歌が上手なだけでなく、ダンスもできます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>她不光擅长唱歌，而且会跳舞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「形容動詞」+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+だけでなく～も</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は英語だけでなく、中国語も上手です</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不仅英语好，中文也好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>も…ば…も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>も…なら…も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>だれ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何処</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>どこ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何時</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>どんな</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（怎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>么样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かどうか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示の通りにやるだけはやったが、いい結果が出るかどうか自信がない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>尽管按照指示去快速的做了，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>是否有好的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>果不自信</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に決まっている「にきまっている」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に違いない「にちがいない」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に相違ない「にそういない」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>服装はいつも</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大分「だいぶ」違うが、やっぱりあれは山田さんに違いない</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>服装はいつも</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大分「だいぶ」違うが、やっぱりあれは山田さんに決まっている</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>服装はいつも</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大分「だいぶ」違うが、やっぱりあれは山田さんに相違ない</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然衣服和平常很不一样，但肯定是山田先生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>では</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海道から九州「きゅうしゅう」にかけて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市では、人口の増加と共に、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在城市，随着人口的增加，住房问题越发严重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とともに</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に連れて「につれて」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に伴って「にともなって」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>に従って「にしたがって」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市では、人口の増加するに連れて、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市では、人口の増加するに伴って、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市では、人口の増加するに従って、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本に着いたら、電話をしてね「についたら」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为…所以…[坏结果]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生水「なまみず」を飲んだばかりに、お腹を悪くしてまった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就因为喝了自来水，坏肚子了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞原形」+ばかりに</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个劲的…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞原形」+ばかりだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（動詞た形+ばかりだ→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刚刚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物価「ぶっか」は上がるばかりで、生活は少しも楽にならない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件一个劲地上涨，生活一点没有改善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞て形」+てばかりいる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>うちの息子は毎日テルビを見てばかりいます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们家孩子总是每天看电视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばかりか…も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばかりでなく…も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>だけでなく…も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…+ばかりか…も</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不…，就不…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てからでないと…ない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳しく「くわしい」お話を伺って「うかが→聞く、訪ねる「たずねる」、尋ねる「たずねる」的尊他语」からでないと、お答えできません</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不详细地听完您的意见，我是无法回答您的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てからでなければ…ない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳しく「くわしい」お話を伺ってからでなければ、お答えできません</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就算…也…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>にしても</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>にもせよ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>にしたって</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -16925,17 +17284,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>简体小句</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」+という</t>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にしろ</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -16951,219 +17310,224 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>简体小句</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」+ということだ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>この本はよると、昔「むかし」ここに寺「てら」があったという</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>据这本书说，以前这里有座寺庙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>この本はよると、昔「むかし」ここに寺「てら」があったということだ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「名詞」+だけでなく～も</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「形容詞」+だけでなく～も</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼女は歌が上手なだけでなく、ダンスもできます</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>她不光擅长唱歌，而且会跳舞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>「形容動詞」+</t>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にせよ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にしても</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にたって</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にもせよ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无论…还是的强调）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いくら少人数「しょうにんず」にしても、パーテイーをするにはこの部屋は狭すぎる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就算多么少的人数，要在这里开派对的话，这个房间也太小了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+にしても、~にしても</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行くにしても、行かないにしても</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高いにしろ、安いにしろ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物にせよ、動物にせよ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>めぐる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了…以外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>を除いて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+を除いて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>この問題は除いて、ほとんど解決された</t>
+  </si>
+  <si>
+    <t>除了这个问题几乎都解决了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>…「名詞」</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>な</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>+だけでなく～も</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>私は英語だけでなく、中国語も上手です</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我不仅英语好，中文也好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>も…ば…も</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>も…なら…も</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>だれ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>誰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>何処</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>どこ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>何時</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>いつ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>どんな</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（怎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>么样</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>かどうか</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指示の通りにやるだけはやったが、いい結果が出るかどうか自信がない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>尽管按照指示去快速的做了，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>是否有好的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>果不自信</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>に決まっている「にきまっている」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>に違いない「にちがいない」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>に相違ない「にそういない」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>服装はいつも</t>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>よると</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据天气预报，明天好像会下雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>…「名詞」</t>
     </r>
     <r>
       <rPr>
@@ -17174,760 +17538,695 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>と</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>大分「だいぶ」違うが、やっぱりあれは山田さんに違いない</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>服装はいつも</t>
+      <t>によれば</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天気予報によれば、明日は雪が降るらしいです</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+そうです</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>能？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>この料理、食べられるもんか？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种东西能吃吗？</t>
+  </si>
+  <si>
+    <t>こんな複雑「ふくざつ」文章「ぶんしょう」、訳せるものですか？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样复杂的文章怎么能翻译呢？</t>
+  </si>
+  <si>
+    <t>ものか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>もんか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝不…/再也不...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连…都不…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我绝不会撒谎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歯を磨「みが」きもしない、寝てしました</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连牙都不刷就睡觉了</t>
+  </si>
+  <si>
+    <t>「動詞ます形」+はしない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞ます形」+もしない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は噓なんかつき「つくる」はしません</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>明明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…ものの</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの仕事を引き受けたものの、できるかどうか自信がない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然接受了那份工作，但是是否能够做好还不自信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…だいたい「大体」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…ほとんど「殆ど」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞ます形」+ながら</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>有一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的意思）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は新入社員でありなから、生意気「なまいき」だ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>也只能…（被迫）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只做…（主动/客观）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いずれ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何れ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>何れも：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无论哪个人都…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「形容動詞」+な+ために</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+の+ために</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>その仕事は危険なために、する人がいない</t>
+  </si>
+  <si>
+    <t>因为这个工作很危险，所以没人干</t>
+  </si>
+  <si>
+    <t>ずっと働いて「はたらく」いたために、2キロも瘦せた「やせる」</t>
+  </si>
+  <si>
+    <t>因为一直在努力工作，所以瘦了4斤之多呢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将来のために頑張って勉強している</t>
+  </si>
+  <si>
+    <t>为了将来，努力学习</t>
+  </si>
+  <si>
+    <t>形式体言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…まま</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服を着たまま寝ました</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿着衣服睡觉了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚刚做了…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正在做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正要做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ている+ところ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「た形」+ところ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「原形」+ところ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+たい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ご飯を食べるところです</t>
+  </si>
+  <si>
+    <t>正要去吃饭</t>
+  </si>
+  <si>
+    <t>正在吃饭</t>
+  </si>
+  <si>
+    <t>刚吃完饭</t>
+  </si>
+  <si>
+    <t>ご飯を食べたところです</t>
+  </si>
+  <si>
+    <t>ご飯を食べているところです</t>
+  </si>
+  <si>
+    <t>「動詞ます形」+たまえ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「原形」+ことにする</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>カメラを買わないことにする</t>
+  </si>
+  <si>
+    <t>决定不买camera了</t>
+  </si>
+  <si>
+    <t>明日出張「しゅっちょう」することになりました</t>
+  </si>
+  <si>
+    <t>明天要出差</t>
+  </si>
+  <si>
+    <t>规定…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「原形」+ことになっている</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本では車は左側「ひだりがわ」を走ることになっている</t>
+  </si>
+  <si>
+    <t>日本规定车在左侧开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照…做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「原形」+とおり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+の+とおり／どおり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見たとおりに、話してくさい</t>
+  </si>
+  <si>
+    <t>按照之前看到的，请说出来</t>
+  </si>
+  <si>
+    <t>説明書通りにやってください</t>
+  </si>
+  <si>
+    <t>请按照说明书去做</t>
+  </si>
+  <si>
+    <t>在…方面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…基础上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上で</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「する」+上で</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「した」+上で</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>この問題は慎重に検討したうえで決定します</t>
+  </si>
+  <si>
+    <t>决定在这个问题的基础上进行慎重讨论</t>
+  </si>
+  <si>
+    <t>辞書は言葉の学習する上で欠かせないものだ「欠かせら」</t>
+  </si>
+  <si>
+    <t>字典是在学习方面不可缺少的物品</t>
+  </si>
+  <si>
+    <t>うちは狭い上に、子供も多くてゆっくり休めません</t>
+  </si>
+  <si>
+    <t>上に</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里小，加上孩子多，所以没办法好好地休息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…上に、…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…的时候（状态一直持续）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「名詞」+の+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>うちは</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「名詞」+の+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>うちに</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞ます形」+うちは</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞ます形」+うちに</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…的时候（状态动作已经完成）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今は上手に話せなくても練習を重ねるうちに上手になります</t>
+  </si>
+  <si>
+    <t>如今我虽然没有办法说的很好，但是随着我的练习，一定会变得上手</t>
+  </si>
+  <si>
+    <t>趁着</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…うちに</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若いうちにいろいろけいえけいけんんした方がいいよ</t>
+  </si>
+  <si>
+    <t>趁着年轻，最好还是多积累经验</t>
+  </si>
+  <si>
+    <t>「形容動詞」+な+うちに</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「形容動詞」+な+うちは</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曇りのうちに、早く家「いえ」へ帰ったほうがいいです</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没…就已经…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ない形」+うちに</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半年経た「けいた」ないうちにｍ交通事故死者は5000人を突破「とっぱ」した</t>
+  </si>
+  <si>
+    <t>还没到半年，交通事故的死者已经突破了5000人</t>
+  </si>
+  <si>
+    <t>のです</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訳だ「わけだ」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人２００円なら、5人だと千円になるわけだ</t>
+  </si>
+  <si>
+    <t>一个人200，也就是说5个人1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…訳だ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日は面接は失敗した、準備不足「ふそく」だったわけだ</t>
+  </si>
+  <si>
+    <t>今天面试失败了，是因为准备不足</t>
+  </si>
+  <si>
+    <t>今日は大事な会議があるから、休むわけにはいかない</t>
+  </si>
+  <si>
+    <t>わけにはいかない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天因为有重要的会议，不可以请假</t>
+  </si>
+  <si>
+    <t>こんな漢字が多い本は子供が読む訳がない</t>
+  </si>
+  <si>
+    <t>汉字这么多的书是孩子不可能读的</t>
+  </si>
+  <si>
+    <t>わけがない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并不是...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とはかぎらない「とは限らない」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>お金があれば幸せになれるわけではない</t>
+  </si>
+  <si>
+    <t>わけではない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有钱了就一定能幸福——并不是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限らす／限らず</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+かぎらす／かぎらず</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就当做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「た形」+つもり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死んだつもりで、一生懸命やりましょう</t>
+  </si>
+  <si>
+    <t>就当做已经死掉了，努力做吧</t>
+  </si>
+  <si>
+    <t>自认为…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>她自以为是一个美人，但完全不受欢迎</t>
+  </si>
+  <si>
+    <r>
+      <t>私は彼女に親切</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>大分「だいぶ」違うが、やっぱりあれは山田さんに決まっている</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>服装はいつも</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>大分「だいぶ」違うが、やっぱりあれは山田さんに相違ない</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然衣服和平常很不一样，但肯定是山田先生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>では</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北海道から九州「きゅうしゅう」にかけて</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>都市では、人口の増加と共に、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在城市，随着人口的增加，住房问题越发严重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>とともに</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随着…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>に連れて「につれて」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>に伴って「にともなって」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>に従って「にしたがって」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>都市では、人口の増加するに連れて、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>都市では、人口の増加するに伴って、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>都市では、人口の増加するに従って、住宅「じゅうたく」問題が深刻「しんこく」になってきた</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本に着いたら、電話をしてね「についたら」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为…所以…[坏结果]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生水「なまみず」を飲んだばかりに、お腹を悪くしてまった</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>就因为喝了自来水，坏肚子了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞原形」+ばかりに</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个劲的…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞原形」+ばかりだ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（動詞た形+ばかりだ→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>刚刚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物価「ぶっか」は上がるばかりで、生活は少しも楽にならない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物件一个劲地上涨，生活一点没有改善</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞て形」+てばかりいる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>うちの息子は毎日テルビを見てばかりいます</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们家孩子总是每天看电视</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ばかりか…も</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ばかりでなく…も</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>だけでなく…も</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>…+ばかりか…も</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果不…，就不…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>て形+てからでないと…ない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>詳しく「くわしい」お話を伺って「うかが→聞く、訪ねる「たずねる」、尋ねる「たずねる」的尊他语」からでないと、お答えできません</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果不详细地听完您的意见，我是无法回答您的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>て形+てからでなければ…ない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>詳しく「くわしい」お話を伺ってからでなければ、お答えできません</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>就算…也…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>にしても</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>にもせよ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>にしたって</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名詞/形容词/形容动词/动词简体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」+にしろ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名詞/形容词/形容动词/动词简体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」+にせよ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名詞/形容词/形容动词/动词简体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」+にしても</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名詞/形容词/形容动词/动词简体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」+にたって</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名詞/形容词/形容动词/动词简体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」+にもせよ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>无论…还是的强调）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>いくら少人数「しょうにんず」にしても、パーテイーをするにはこの部屋は狭すぎる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>就算多么少的人数，要在这里开派对的话，这个房间也太小了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名詞/形容词/形容动词/动词简体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」+にしても、~にしても</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行くにしても、行かないにしても</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高いにしろ、安いにしろ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物にせよ、動物にせよ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>めぐる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了…以外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>を除いて</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「名詞」+を除いて</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>この問題は除いて、ほとんど解決された</t>
-  </si>
-  <si>
-    <t>除了这个问题几乎都解决了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>…「名詞」</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>に</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>よると</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据天气预报，明天好像会下雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>…「名詞」</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>によれば</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天気予報によれば、明日は雪が降るらしいです</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「名詞」+そうです</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>怎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>么</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>能？</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>この料理、食べられるもんか？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这种东西能吃吗？</t>
-  </si>
-  <si>
-    <t>こんな複雑「ふくざつ」文章「ぶんしょう」、訳せるものですか？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样复杂的文章怎么能翻译呢？</t>
-  </si>
-  <si>
-    <t>ものか</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>もんか</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝不…/再也不...</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连…都不…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我绝不会撒谎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>歯を磨「みが」きもしない、寝てしました</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连牙都不刷就睡觉了</t>
-  </si>
-  <si>
-    <t>「動詞ます形」+はしない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞ます形」+もしない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>私は噓なんかつき「つくる」はしません</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>明明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>…ものの</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>あの仕事を引き受けたものの、できるかどうか自信がない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然接受了那份工作，但是是否能够做好还不自信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>…だいたい「大体」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>…ほとんど「殆ど」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>几乎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞ます形」+ながら</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>还</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>有一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>边</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>边</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>的意思）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>私は新入社員でありなから、生意気「なまいき」だ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>也只能…（被迫）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只做…（主动/客观）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>いずれ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>何れ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>何れも：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无论哪个人都…</t>
-    </r>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>したつもりだけど、恨まれました「恨む：うらむ」</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼女は美人のつもりだけど、あまり持てない「持てる：もてる」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我自认为对她很亲切，但其实被她恨着</t>
+  </si>
+  <si>
+    <t>「名詞」+の+つもり</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -17935,7 +18234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18381,6 +18680,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -18390,7 +18697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -18398,11 +18705,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -18508,10 +18830,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -18522,6 +18844,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18827,10 +19152,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0DD02-A2A4-4913-87F3-FF074BB46E2F}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18858,33 +19183,33 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1682</v>
+        <v>1666</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1683</v>
+        <v>1667</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1686</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1879</v>
+        <v>1854</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>1210</v>
@@ -18906,10 +19231,10 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9"/>
@@ -18917,80 +19242,80 @@
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1878</v>
+        <v>1853</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1748</v>
+        <v>1723</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>1751</v>
+        <v>1726</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1752</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>1749</v>
+        <v>1724</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>1750</v>
+        <v>1725</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1752</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="D9" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -19001,18 +19326,18 @@
         <v>302</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="D12" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>1489</v>
+        <v>1478</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1196</v>
@@ -19026,198 +19351,198 @@
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
       <c r="E14" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="E15" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="E16" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1520</v>
+        <v>1509</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1521</v>
+        <v>1510</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1522</v>
+        <v>1511</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1523</v>
+        <v>1512</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1524</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1557</v>
+        <v>1546</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1558</v>
+        <v>1547</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="D18" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="E18" t="s">
-        <v>1560</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1525</v>
+        <v>1514</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1526</v>
+        <v>1515</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1528</v>
+        <v>1517</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1839</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>1827</v>
+        <v>1802</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1838</v>
+        <v>1813</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1840</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>1527</v>
+        <v>1516</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1529</v>
+        <v>1518</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1841</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>973</v>
       </c>
       <c r="D22" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="E22" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>1673</v>
+        <v>1660</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>1769</v>
+        <v>1744</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1842</v>
+        <v>1817</v>
       </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>1770</v>
+        <v>1745</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
       <c r="E26" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>1687</v>
+        <v>1951</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1688</v>
+        <v>1952</v>
       </c>
       <c r="D27" t="s">
-        <v>1689</v>
+        <v>1671</v>
       </c>
       <c r="E27" t="s">
-        <v>1690</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>1816</v>
+        <v>1791</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1819</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="51"/>
       <c r="B29" s="52" t="s">
-        <v>1817</v>
+        <v>1792</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1216</v>
@@ -19231,63 +19556,63 @@
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="52" t="s">
-        <v>1818</v>
+        <v>1793</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1762</v>
+        <v>1737</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1767</v>
+        <v>1742</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>1763</v>
+        <v>1738</v>
       </c>
       <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>1766</v>
+        <v>1741</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1764</v>
+        <v>1739</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>1765</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C33" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>1314</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1843</v>
+        <v>1818</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1844</v>
+        <v>1819</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1845</v>
+        <v>1820</v>
       </c>
       <c r="D34" t="s">
-        <v>1846</v>
+        <v>1821</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>1847</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -19323,13 +19648,13 @@
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="D37" t="s">
         <v>1219</v>
@@ -19343,92 +19668,143 @@
         <v>1022</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="D38" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1540</v>
+        <v>1529</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="D40" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
       <c r="E40" t="s">
-        <v>1544</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1654</v>
+        <v>1641</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1655</v>
+        <v>1642</v>
       </c>
       <c r="D41" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="E41" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1640</v>
+        <v>1627</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1642</v>
+        <v>1629</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1646</v>
+        <v>1633</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1647</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1643</v>
+        <v>1630</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="D43" t="s">
-        <v>1650</v>
+        <v>1637</v>
       </c>
       <c r="E43" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C44" s="1" t="s">
-        <v>1649</v>
+        <v>1636</v>
       </c>
       <c r="D44" t="s">
-        <v>1648</v>
+        <v>1635</v>
       </c>
       <c r="E44" t="s">
-        <v>1651</v>
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1912</v>
       </c>
     </row>
   </sheetData>
@@ -19441,7 +19817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F2DEB6-6EBD-4F9B-936C-0D257ACA7C7C}">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -19454,84 +19830,84 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1772</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1771</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1773</v>
+        <v>1748</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1774</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>1775</v>
+        <v>1750</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1776</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>1881</v>
+        <v>1856</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1880</v>
+        <v>1855</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>1882</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>1778</v>
+        <v>1753</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1777</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>1780</v>
+        <v>1755</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1779</v>
+        <v>1754</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1781</v>
+        <v>1756</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1782</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>1853</v>
+        <v>1828</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1859</v>
+        <v>1834</v>
       </c>
       <c r="C8" t="s">
-        <v>1854</v>
+        <v>1829</v>
       </c>
       <c r="D8" t="s">
-        <v>1855</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>1858</v>
+        <v>1833</v>
       </c>
       <c r="C9" t="s">
-        <v>1856</v>
+        <v>1831</v>
       </c>
       <c r="D9" t="s">
-        <v>1857</v>
+        <v>1832</v>
       </c>
     </row>
   </sheetData>
@@ -19764,19 +20140,19 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1701</v>
+        <v>1683</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1702</v>
+        <v>1684</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1703</v>
+        <v>1685</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1704</v>
+        <v>1686</v>
       </c>
       <c r="E16" t="s">
-        <v>1705</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -19856,74 +20232,74 @@
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E23" t="s">
         <v>1341</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D24" t="s">
         <v>1343</v>
       </c>
-      <c r="D24" t="s">
-        <v>1347</v>
-      </c>
       <c r="E24" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="E25" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="E26" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
       <c r="E27" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C28" s="1" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="E28" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19945,52 +20321,52 @@
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E31" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1589</v>
+        <v>1577</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1590</v>
+        <v>1578</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1591</v>
+        <v>1579</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1592</v>
+        <v>1580</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1593</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
-        <v>1594</v>
+        <v>1582</v>
       </c>
       <c r="E33" t="s">
-        <v>1595</v>
+        <v>1583</v>
       </c>
     </row>
   </sheetData>
@@ -20001,16 +20377,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0935F-84C6-400A-BD4C-D1BEE4D7E2F4}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="66.5546875" bestFit="1" customWidth="1"/>
@@ -20103,166 +20479,222 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>1585</v>
+      <c r="A8" s="1" t="s">
+        <v>1957</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C10" s="1" t="s">
+        <v>1574</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1617</v>
+        <v>1575</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>1600</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1620</v>
+        <v>1601</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1623</v>
+        <v>1602</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C12" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1624</v>
+      <c r="D12" s="1" t="s">
+        <v>1603</v>
       </c>
       <c r="E12" t="s">
-        <v>1625</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
-        <v>1678</v>
-      </c>
       <c r="B13" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1679</v>
+        <v>1607</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1681</v>
+        <v>1609</v>
       </c>
       <c r="E13" t="s">
-        <v>1680</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1730</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>1731</v>
+        <v>1608</v>
       </c>
       <c r="D14" t="s">
-        <v>1733</v>
+        <v>1611</v>
       </c>
       <c r="E14" t="s">
-        <v>1734</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1729</v>
+        <v>1946</v>
       </c>
       <c r="B15" t="s">
-        <v>1730</v>
+        <v>1866</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1732</v>
+        <v>1947</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1735</v>
+        <v>1665</v>
       </c>
       <c r="E15" t="s">
-        <v>1736</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>1783</v>
-      </c>
       <c r="B16" t="s">
-        <v>1730</v>
+        <v>1866</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1788</v>
+        <v>1949</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1948</v>
       </c>
       <c r="E16" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.45">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>1068</v>
+      </c>
       <c r="B17" t="s">
-        <v>1730</v>
+        <v>1866</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1787</v>
+        <v>1706</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1708</v>
       </c>
       <c r="E17" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.45">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>1704</v>
+      </c>
       <c r="B18" t="s">
-        <v>1730</v>
+        <v>1866</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1786</v>
+        <v>1707</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1789</v>
+        <v>1710</v>
       </c>
       <c r="E18" t="s">
-        <v>1790</v>
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1765</v>
       </c>
     </row>
   </sheetData>
@@ -20273,10 +20705,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453DBF0C-9BFC-47CA-8E23-EDB83C5D3222}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -20519,177 +20951,192 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="40" t="s">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>1608</v>
+        <v>1595</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1611</v>
+        <v>1598</v>
       </c>
       <c r="E15" t="s">
-        <v>1612</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="40"/>
       <c r="D16" s="1" t="s">
-        <v>1609</v>
+        <v>1596</v>
       </c>
       <c r="E16" t="s">
-        <v>1610</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>134</v>
+      <c r="A17" s="13"/>
+      <c r="B17" s="40" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1940</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>710</v>
+        <v>1712</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>1468</v>
+        <v>133</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1466</v>
+        <v>710</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>1473</v>
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>1462</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C22" s="9" t="s">
+        <v>1456</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1579</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>1580</v>
+        <v>1463</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1583</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>1578</v>
+      <c r="A24" s="1" t="s">
+        <v>1566</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="50" t="s">
-        <v>1584</v>
+      <c r="C24" s="1" t="s">
+        <v>1883</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1581</v>
+        <v>1568</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1582</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>1742</v>
+        <v>1567</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>1744</v>
+      <c r="C25" s="50" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>1747</v>
+        <v>1717</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1746</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>1745</v>
+        <v>1722</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1743</v>
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1718</v>
       </c>
     </row>
   </sheetData>
@@ -20737,7 +21184,7 @@
         <v>388</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>664</v>
@@ -20754,7 +21201,7 @@
         <v>667</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>664</v>
@@ -20779,36 +21226,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
-        <v>1635</v>
+        <v>1622</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="E5" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
-        <v>1657</v>
+        <v>1644</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1658</v>
+        <v>1645</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1660</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -20816,7 +21263,7 @@
         <v>955</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>952</v>
@@ -20832,19 +21279,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>1708</v>
+        <v>1690</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1709</v>
+        <v>1691</v>
       </c>
       <c r="D9" t="s">
-        <v>1710</v>
+        <v>1692</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1711</v>
+        <v>1693</v>
       </c>
     </row>
   </sheetData>
@@ -21478,7 +21925,7 @@
         <v>508</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1848</v>
+        <v>1823</v>
       </c>
       <c r="D3" t="s">
         <v>509</v>
@@ -21497,13 +21944,13 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
-        <v>1850</v>
+        <v>1825</v>
       </c>
       <c r="D5" t="s">
-        <v>1851</v>
+        <v>1826</v>
       </c>
       <c r="E5" t="s">
-        <v>1849</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21511,52 +21958,52 @@
         <v>507</v>
       </c>
       <c r="B6" t="s">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1602</v>
+        <v>1590</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
       <c r="E6" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1852</v>
+        <v>1827</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
       <c r="E7" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
-        <v>1757</v>
+        <v>1732</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1759</v>
+        <v>1734</v>
       </c>
       <c r="E8" t="s">
-        <v>1760</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
-        <v>1758</v>
+        <v>1733</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1761</v>
+        <v>1736</v>
       </c>
       <c r="E9" t="s">
-        <v>1760</v>
+        <v>1735</v>
       </c>
     </row>
   </sheetData>
@@ -21785,52 +22232,52 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="47"/>
       <c r="D13" s="1" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="47"/>
       <c r="D14" s="23" t="s">
-        <v>1662</v>
+        <v>1649</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="47"/>
       <c r="C15" s="1" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
       <c r="D15" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="E15" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
     </row>
   </sheetData>
@@ -21841,11 +22288,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAB02E-8C57-4C83-9570-2BC2F1E43F4D}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -21894,7 +22341,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>819</v>
+        <v>1876</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>374</v>
@@ -21989,733 +22436,872 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1878</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>933</v>
+        <v>1871</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="C10" t="s">
-        <v>935</v>
+        <v>1866</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1873</v>
       </c>
       <c r="D10" t="s">
-        <v>936</v>
+        <v>1882</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1879</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>934</v>
+        <v>1872</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="C11" t="s">
-        <v>937</v>
+        <v>1866</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>1872</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1866</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>369</v>
+        <v>1867</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>891</v>
+        <v>1868</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1869</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>933</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>858</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>893</v>
+        <v>870</v>
+      </c>
+      <c r="D13" t="s">
+        <v>935</v>
+      </c>
+      <c r="E13" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="6"/>
-      <c r="D14" s="1" t="s">
-        <v>373</v>
+      <c r="A14" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D14" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="17" t="s">
-        <v>370</v>
+      <c r="A15" s="15" t="s">
+        <v>367</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>895</v>
+      <c r="C15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>895</v>
+      <c r="A16" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="17" t="s">
         <v>968</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="17"/>
+      <c r="B22" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="17" t="s">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="17" t="s">
         <v>969</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
-      <c r="B21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="6" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="17"/>
+      <c r="B24" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>920</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>805</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="17" t="s">
-        <v>898</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="17" t="s">
-        <v>899</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
-        <v>823</v>
+        <v>898</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>923</v>
+        <v>646</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
-        <v>824</v>
+        <v>899</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>50</v>
+        <v>1866</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>50</v>
+        <v>1866</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
-        <v>88</v>
+        <v>823</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>568</v>
+        <v>1866</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>568</v>
+        <v>923</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>569</v>
+        <v>825</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
-        <v>56</v>
+        <v>824</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>58</v>
+        <v>1866</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="15"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>1866</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="17" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>571</v>
+      <c r="D31" s="6" t="s">
+        <v>569</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="15"/>
+      <c r="A32" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="B32" s="6" t="s">
-        <v>50</v>
+        <v>1866</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>926</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="15"/>
       <c r="B33" s="6" t="s">
-        <v>50</v>
+        <v>1866</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>927</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="18" t="s">
-        <v>1706</v>
+      <c r="A34" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>1707</v>
+      <c r="C34" s="6" t="s">
+        <v>570</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>1705</v>
+        <v>571</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="18" t="s">
-        <v>1738</v>
-      </c>
+      <c r="A35" s="15"/>
       <c r="B35" s="6" t="s">
-        <v>50</v>
+        <v>1866</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1739</v>
+        <v>928</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>1741</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="18"/>
-      <c r="B36" s="6"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="17" t="s">
-        <v>900</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>63</v>
+      <c r="A36" s="15"/>
+      <c r="B36" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="18" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1866</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>124</v>
+        <v>1689</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>1686</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="18"/>
+      <c r="B38" s="6"/>
+      <c r="D38" s="62" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1888</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="18" t="s">
+        <v>1675</v>
+      </c>
       <c r="B39" s="6" t="s">
-        <v>50</v>
+        <v>1866</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>1884</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1886</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="17" t="s">
-        <v>970</v>
+      <c r="A40" s="18" t="s">
+        <v>1889</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>50</v>
+        <v>1866</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>87</v>
+        <v>1890</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>1892</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="17" t="s">
-        <v>740</v>
+      <c r="A41" s="18" t="s">
+        <v>1713</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>832</v>
+        <v>1714</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>902</v>
+        <v>1715</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="15" t="s">
-        <v>903</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>50</v>
+      <c r="A42" s="18" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1866</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>904</v>
+        <v>1894</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1899</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="17" t="s">
-        <v>905</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>50</v>
-      </c>
+      <c r="A43" s="18"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>118</v>
+        <v>1895</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1897</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>72</v>
+        <v>900</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" s="17" t="s">
-        <v>112</v>
+      <c r="A45" s="6" t="s">
+        <v>901</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>117</v>
+      <c r="C45" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="17" t="s">
-        <v>113</v>
-      </c>
       <c r="B46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" s="6" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E55" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="6" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D56" t="s">
         <v>909</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E56" s="11" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="6" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="52" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="9" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="9" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="9" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B58" s="40"/>
-      <c r="D58" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1610</v>
-      </c>
-    </row>
     <row r="59" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>1626</v>
+      <c r="A59" s="1" t="s">
+        <v>1550</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1627</v>
+        <v>1552</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1628</v>
+        <v>1553</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1631</v>
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B62" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B65" s="40"/>
+      <c r="D65" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1618</v>
       </c>
     </row>
   </sheetData>
@@ -22726,10 +23312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23509,147 +24095,171 @@
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="15" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>1755</v>
+        <v>1730</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1754</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1753</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>1619</v>
+        <v>1933</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1756</v>
-      </c>
+        <v>1288</v>
+      </c>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A52" s="15" t="s">
+      <c r="B52" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B53" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A54" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" t="s">
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" t="s">
         <v>429</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F54" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A53" s="15"/>
-      <c r="B53" s="1" t="s">
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A55" s="15"/>
+      <c r="B55" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>430</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F55" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A54" s="18" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C54" s="1" t="s">
+    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A56" s="18" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A55" s="18"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A56" s="15"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>1377</v>
+      </c>
       <c r="E56" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="F56" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A57" s="15"/>
+      <c r="A57" s="18"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A58" s="15"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A59" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23753,36 +24363,36 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1664</v>
+        <v>1651</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>1665</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1671</v>
+        <v>1658</v>
       </c>
     </row>
   </sheetData>
@@ -23823,10 +24433,10 @@
       <c r="A1" s="11" t="s">
         <v>1221</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="58"/>
+      <c r="F1" s="57"/>
       <c r="I1" s="36" t="s">
         <v>1118</v>
       </c>
@@ -23878,14 +24488,14 @@
       <c r="C3" s="43" t="s">
         <v>1098</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="36" t="s">
         <v>1224</v>
       </c>
@@ -23895,7 +24505,7 @@
       <c r="J3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="6" t="s">
         <v>1235</v>
       </c>
@@ -23919,14 +24529,14 @@
       <c r="C4" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6" t="s">
         <v>1105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="36" t="s">
         <v>1225</v>
       </c>
@@ -23936,13 +24546,13 @@
       <c r="J4" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="57" t="s">
         <v>1125</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="57"/>
       <c r="I6" s="36" t="s">
         <v>1119</v>
       </c>
@@ -24007,14 +24617,14 @@
       <c r="C8" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="6" t="s">
         <v>1127</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="10" t="s">
         <v>1227</v>
       </c>
@@ -24024,7 +24634,7 @@
       <c r="J8" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="K8" s="57"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="6" t="s">
         <v>1148</v>
       </c>
@@ -24039,10 +24649,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="57" t="s">
         <v>1117</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="57"/>
       <c r="I10" s="36" t="s">
         <v>1120</v>
       </c>
@@ -24082,7 +24692,7 @@
         <v>1138</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>1692</v>
+        <v>1674</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>1152</v>
@@ -24107,14 +24717,14 @@
       <c r="C12" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="D12" s="57"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="G12" s="57"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="10" t="s">
         <v>1229</v>
       </c>
@@ -24124,18 +24734,23 @@
       <c r="J12" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="K12" s="57"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>1229</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1691</v>
+        <v>1673</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -24143,11 +24758,6 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24211,8 +24821,8 @@
       <c r="D2" s="59" t="s">
         <v>1168</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="38" t="s">
         <v>1171</v>
       </c>
@@ -24242,10 +24852,10 @@
       <c r="A5" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="61"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -26445,13 +27055,13 @@
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="45" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>457</v>
@@ -26462,7 +27072,7 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>50</v>
@@ -26479,7 +27089,7 @@
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="46" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>50</v>
@@ -26521,19 +27131,19 @@
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
       <c r="B15" t="s">
-        <v>1488</v>
+        <v>1477</v>
       </c>
       <c r="C15" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>1476</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>1487</v>
       </c>
     </row>
   </sheetData>
@@ -26544,11 +27154,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF9327D-313E-42DC-975B-8EB30ECB4DE0}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -26574,147 +27184,155 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1725</v>
+        <v>1700</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1726</v>
+        <v>1701</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1727</v>
+        <v>1702</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1728</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="9"/>
+      <c r="C3" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="15"/>
+      <c r="C4" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="9"/>
+      <c r="C5" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="9"/>
+      <c r="C6" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="9"/>
+      <c r="C7" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="15" t="s">
+      <c r="C8" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
         <v>1186</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="15" t="s">
         <v>1187</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="15"/>
-      <c r="C6" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="15"/>
-      <c r="C7" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="E7" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="15"/>
-      <c r="C8" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="D8" t="s">
-        <v>990</v>
-      </c>
-      <c r="E8" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
-      <c r="C9" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="15"/>
-      <c r="C10" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="15"/>
       <c r="C11" s="1" t="s">
-        <v>1251</v>
+        <v>980</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1255</v>
+        <v>987</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
       <c r="C12" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
+        <v>981</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E12" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
@@ -26733,152 +27351,107 @@
         <v>759</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>1356</v>
+        <v>1519</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>979</v>
+        <v>1520</v>
       </c>
       <c r="D14" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1523</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="C15" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1522</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>981</v>
+        <v>1521</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E17" t="s">
-        <v>989</v>
-      </c>
+        <v>1527</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
-        <v>1530</v>
-      </c>
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1531</v>
+        <v>1782</v>
       </c>
       <c r="D18" t="s">
-        <v>1534</v>
+        <v>1780</v>
       </c>
       <c r="E18" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>1371</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>1675</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="9"/>
-      <c r="B22" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1805</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C24" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1696</v>
+        <v>1676</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1678</v>
       </c>
     </row>
   </sheetData>
@@ -26891,8 +27464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028B95A2-C7CB-4D2C-9F00-BE8EDC23D65E}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -26915,145 +27488,145 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1298</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>1308</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D5" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>1303</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1552</v>
+        <v>1541</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="D7" t="s">
-        <v>1555</v>
+        <v>1544</v>
       </c>
       <c r="E7" t="s">
-        <v>1556</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D9" t="s">
         <v>1292</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1872</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1874</v>
+        <v>1849</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1873</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -27064,7 +27637,7 @@
         <v>725</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>757</v>
@@ -27088,133 +27661,133 @@
       <c r="A15" s="1"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1490</v>
+        <v>1479</v>
       </c>
       <c r="B16" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="D17" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="E17" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="D18" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="E18" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1504</v>
+        <v>1493</v>
       </c>
       <c r="B19" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1506</v>
+        <v>1495</v>
       </c>
       <c r="D19" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="E19" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1808</v>
+        <v>1783</v>
       </c>
       <c r="B20" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1809</v>
+        <v>1784</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1811</v>
+        <v>1786</v>
       </c>
       <c r="E20" t="s">
-        <v>1812</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1813</v>
+        <v>1788</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1814</v>
+        <v>1789</v>
       </c>
       <c r="E21" t="s">
-        <v>1815</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
-        <v>1810</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1860</v>
+        <v>1835</v>
       </c>
       <c r="B23" t="s">
-        <v>1730</v>
+        <v>1705</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1865</v>
+        <v>1840</v>
       </c>
       <c r="D23" t="s">
-        <v>1867</v>
+        <v>1842</v>
       </c>
       <c r="E23" t="s">
-        <v>1862</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1861</v>
+        <v>1836</v>
       </c>
       <c r="B24" t="s">
-        <v>1730</v>
+        <v>1705</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1866</v>
+        <v>1841</v>
       </c>
       <c r="D24" t="s">
-        <v>1863</v>
+        <v>1838</v>
       </c>
       <c r="E24" t="s">
-        <v>1864</v>
+        <v>1839</v>
       </c>
     </row>
   </sheetData>
@@ -27261,37 +27834,37 @@
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1408</v>
+        <v>1397</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
       <c r="D3" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="C4" s="1" t="s">
-        <v>1869</v>
+        <v>1844</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1870</v>
+        <v>1845</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1871</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -27305,15 +27878,15 @@
         <v>992</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1409</v>
+        <v>1398</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>993</v>
@@ -27322,7 +27895,7 @@
         <v>1000</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -27330,10 +27903,10 @@
         <v>994</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -27345,24 +27918,24 @@
         <v>1002</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>1868</v>
+        <v>1843</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1380</v>
+        <v>1369</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -27370,15 +27943,15 @@
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1875</v>
+        <v>1850</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1877</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
-        <v>1876</v>
+        <v>1851</v>
       </c>
     </row>
   </sheetData>
@@ -27389,10 +27962,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6952ADA-DA23-487F-8259-3506EB692067}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -27434,269 +28007,286 @@
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>1712</v>
+        <v>1694</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1713</v>
+        <v>1695</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1697</v>
+        <v>1679</v>
       </c>
       <c r="E3" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" s="18"/>
+      <c r="C5" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B7" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C7" s="28" t="s">
         <v>727</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>730</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E7" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C8" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D8" s="31" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="31" t="s">
+    <row r="9" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="31" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="31" t="s">
+    <row r="10" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="31" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="C9" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1827</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>1832</v>
+        <v>1696</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1836</v>
+        <v>1400</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>1835</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1526</v>
-      </c>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="9"/>
       <c r="C12" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+        <v>1347</v>
+      </c>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>1363</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>1829</v>
+        <v>1364</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>1365</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1367</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>1801</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>1527</v>
+        <v>1802</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+        <v>1807</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1812</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>1810</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>1828</v>
+        <v>1515</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1834</v>
+        <v>1805</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
+      <c r="B16" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="C19" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C18" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>1823</v>
+      <c r="C21" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" s="18"/>
+      <c r="A22" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1705</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1825</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>1823</v>
+        <v>1614</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1618</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27705,17 +28295,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3C2C0-A529-45AF-9E19-6A70A7319ED0}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="49"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -27736,81 +28326,81 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="49" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>1399</v>
+        <v>1388</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="E3" t="s">
-        <v>1401</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="D4" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>1792</v>
+        <v>1767</v>
       </c>
       <c r="E5" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1791</v>
+        <v>1766</v>
       </c>
       <c r="D6" t="s">
-        <v>1793</v>
+        <v>1768</v>
       </c>
       <c r="E6" t="s">
-        <v>1794</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1637</v>
+        <v>1624</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1639</v>
+        <v>1626</v>
       </c>
       <c r="E7" t="s">
-        <v>1638</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -27819,450 +28409,501 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1550</v>
+        <v>1539</v>
       </c>
       <c r="D9" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
       <c r="E9" t="s">
-        <v>1551</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="23"/>
       <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
-        <v>1546</v>
+        <v>1535</v>
       </c>
       <c r="D10" t="s">
-        <v>1547</v>
+        <v>1536</v>
       </c>
       <c r="E10" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="23"/>
-      <c r="B11" s="53" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1715</v>
+      <c r="B11" s="9" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1923</v>
       </c>
       <c r="D11" t="s">
-        <v>1721</v>
+        <v>1924</v>
       </c>
       <c r="E11" t="s">
-        <v>1722</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="23"/>
-      <c r="B12" s="53" t="s">
-        <v>1724</v>
+      <c r="B12" s="9" t="s">
+        <v>1919</v>
       </c>
       <c r="C12" t="s">
-        <v>1716</v>
+        <v>1916</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1697</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
       <c r="B13" s="9"/>
       <c r="C13" t="s">
-        <v>1717</v>
-      </c>
+        <v>1926</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
-      <c r="B14" s="9"/>
-      <c r="C14" t="s">
-        <v>1718</v>
+      <c r="B14" s="53"/>
+      <c r="C14" s="1" t="s">
+        <v>1918</v>
       </c>
       <c r="D14" t="s">
-        <v>1719</v>
+        <v>1920</v>
       </c>
       <c r="E14" t="s">
-        <v>1720</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="23"/>
       <c r="B15" s="9" t="s">
-        <v>1498</v>
+        <v>1929</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1500</v>
+        <v>1930</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B16" s="9"/>
-      <c r="C16" s="1" t="s">
-        <v>1501</v>
+      <c r="A16" s="23"/>
+      <c r="B16" s="9" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1915</v>
       </c>
       <c r="D16" t="s">
-        <v>1502</v>
+        <v>1698</v>
       </c>
       <c r="E16" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="23"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="1" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B18" s="9" t="s">
-        <v>1796</v>
-      </c>
+      <c r="C17" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="23"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B19" s="9"/>
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B19" s="9" t="s">
+        <v>1487</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1800</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
-        <v>1798</v>
+        <v>1490</v>
       </c>
       <c r="D20" t="s">
-        <v>1801</v>
+        <v>1491</v>
       </c>
       <c r="E20" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1802</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="9" t="s">
-        <v>1698</v>
+        <v>1771</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1803</v>
+        <v>1770</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1768</v>
       </c>
       <c r="E22" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B23" s="9"/>
+      <c r="C23" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" s="9"/>
+      <c r="C24" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="9"/>
+      <c r="C25" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>1207</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E27" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>1213</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D28" t="s">
         <v>1205</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E28" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B31" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
+      <c r="E34" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B35" s="9" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>1435</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1437</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" s="9" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="49" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" s="23"/>
+      <c r="B39" t="s">
+        <v>875</v>
+      </c>
+      <c r="C39" t="s">
         <v>871</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B30" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="D39" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="23"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A41" s="23"/>
+      <c r="B41" t="s">
+        <v>876</v>
+      </c>
+      <c r="C41" t="s">
         <v>870</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B31" s="9" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
+      <c r="D41" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" s="23"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B46" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D46" t="s">
         <v>1504</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E46" s="9" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>1506</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E47" s="9" t="s">
         <v>1507</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" s="49" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" s="23"/>
-      <c r="B35" t="s">
-        <v>875</v>
-      </c>
-      <c r="C35" t="s">
-        <v>871</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" s="23"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" s="23"/>
-      <c r="B37" t="s">
-        <v>876</v>
-      </c>
-      <c r="C37" t="s">
-        <v>870</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" s="23"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B42" s="9" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>1518</v>
       </c>
     </row>
   </sheetData>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D915F615-146F-4274-A0AB-FAA664655DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D26458E-2C84-4FAD-9903-608137AA559D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10152" yWindow="360" windowWidth="12876" windowHeight="11124" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -36,8 +36,8 @@
     <sheet name="授受" sheetId="23" r:id="rId21"/>
     <sheet name="敬語" sheetId="24" r:id="rId22"/>
     <sheet name="格助詞「かくじょし」" sheetId="10" r:id="rId23"/>
-    <sheet name="副助詞「ふくじょし」" sheetId="12" r:id="rId24"/>
-    <sheet name="接続「せつぞく」" sheetId="11" r:id="rId25"/>
+    <sheet name="副助詞「ふくじょし」" sheetId="12" state="hidden" r:id="rId24"/>
+    <sheet name="接続「せつぞく」" sheetId="11" state="hidden" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="1970">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12100,38 +12100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>まで</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[段时间]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>までに</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[点时间]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>…+までに</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -14486,14 +14454,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>間は</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>間に</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>…+たびに</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -14580,14 +14540,6 @@
     <t>镇痛剂作用期间还好，一旦药停了之后，现在又疼了</t>
   </si>
   <si>
-    <t>…+あいだは</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>…+あいだに</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>私は一人で子供て育てきた</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18227,6 +18179,130 @@
   </si>
   <si>
     <t>「名詞」+の+つもり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我-&gt;别人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我&lt;-别人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>别人-&gt;我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> 私がしばらく留守している間に、泥棒が入った</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我有段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>不在家（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现在在家了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>），小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>偷进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>来了</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>…+あいだは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+「状態」</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…+あいだに+「結果」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…的时候[段时间]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…的时候[点时间]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…之前[段时间]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…之前[点时间]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>のか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑问</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18821,6 +18897,9 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -18830,10 +18909,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -18844,9 +18923,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19183,33 +19259,33 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1285</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1287</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>1210</v>
@@ -19231,10 +19307,10 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9"/>
@@ -19242,80 +19318,80 @@
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>1405</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -19326,18 +19402,18 @@
         <v>302</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D12" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1196</v>
@@ -19351,268 +19427,268 @@
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="E14" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E15" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E16" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="D18" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="E18" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>973</v>
       </c>
       <c r="D22" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E22" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="E26" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>1951</v>
+        <v>1945</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="D27" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="E27" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="51"/>
       <c r="B29" s="52" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D29" t="s">
         <v>1216</v>
       </c>
-      <c r="D29" t="s">
-        <v>1218</v>
-      </c>
       <c r="E29" s="37" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="52" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E30" s="37" t="s">
         <v>1737</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C33" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D33" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D34" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -19648,19 +19724,19 @@
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D37" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E37" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19668,143 +19744,143 @@
         <v>1022</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D38" t="s">
         <v>1265</v>
       </c>
-      <c r="D38" t="s">
-        <v>1267</v>
-      </c>
       <c r="E38" s="37" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="D40" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="E40" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="D41" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="E41" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1633</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D43" t="s">
         <v>1631</v>
       </c>
-      <c r="D43" t="s">
-        <v>1637</v>
-      </c>
       <c r="E43" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C44" s="1" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="D44" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="E44" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E45" t="s">
         <v>1903</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E46" t="s">
         <v>1901</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1906</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="D47" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="E47" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
     </row>
   </sheetData>
@@ -19815,10 +19891,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F2DEB6-6EBD-4F9B-936C-0D257ACA7C7C}">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19828,86 +19904,102 @@
     <col min="4" max="4" width="53.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1740</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>1750</v>
+        <v>1850</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1751</v>
+        <v>1849</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1851</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>1856</v>
+        <v>1747</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>1857</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>1753</v>
+      <c r="A6" t="s">
+        <v>1969</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1752</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>1755</v>
+      <c r="A7" t="s">
+        <v>1969</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1757</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1828</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>1833</v>
-      </c>
       <c r="C9" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="D9" t="s">
-        <v>1832</v>
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1826</v>
       </c>
     </row>
   </sheetData>
@@ -20140,19 +20232,19 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="E16" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -20232,74 +20324,74 @@
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B23" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="C23" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1340</v>
-      </c>
       <c r="E23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D24" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E24" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="E25" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="E26" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="E27" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C28" s="1" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="E28" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20321,52 +20413,52 @@
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="9" t="s">
         <v>1316</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E31" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="E33" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
     </row>
   </sheetData>
@@ -20379,8 +20471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0935F-84C6-400A-BD4C-D1BEE4D7E2F4}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C3:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20480,19 +20572,19 @@
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="E8" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20500,52 +20592,52 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="E9" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="E12" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20553,55 +20645,55 @@
         <v>328</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="E13" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="D14" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="E14" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="B15" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="E15" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="D16" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="E16" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20609,92 +20701,92 @@
         <v>1068</v>
       </c>
       <c r="B17" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="D17" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="E17" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="B18" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1710</v>
-      </c>
       <c r="E18" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="D19" t="s">
-        <v>1943</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>1944</v>
+        <v>1937</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="B20" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E20" t="s">
         <v>1759</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="E21" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="E22" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
     </row>
   </sheetData>
@@ -20951,41 +21043,41 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="40" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="E15" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="40"/>
       <c r="D16" s="1" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="E16" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="40" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="D17" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="E17" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -20996,7 +21088,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>134</v>
@@ -21024,119 +21116,119 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>1461</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
     </row>
   </sheetData>
@@ -21184,7 +21276,7 @@
         <v>388</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>664</v>
@@ -21201,7 +21293,7 @@
         <v>667</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>664</v>
@@ -21226,36 +21318,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="E5" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -21263,7 +21355,7 @@
         <v>955</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>952</v>
@@ -21279,19 +21371,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="D9" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
     </row>
   </sheetData>
@@ -21925,7 +22017,7 @@
         <v>508</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="D3" t="s">
         <v>509</v>
@@ -21944,13 +22036,13 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="D5" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="E5" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21958,52 +22050,52 @@
         <v>507</v>
       </c>
       <c r="B6" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="E6" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="E7" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="E8" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="E9" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
     </row>
   </sheetData>
@@ -22232,52 +22324,52 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>1417</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="47"/>
       <c r="D13" s="1" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="47"/>
       <c r="D14" s="23" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="47"/>
       <c r="C15" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E15" t="s">
         <v>1414</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1416</v>
       </c>
     </row>
   </sheetData>
@@ -22341,7 +22433,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>374</v>
@@ -22437,70 +22529,70 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="D9" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="E9" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E10" t="s">
         <v>1873</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1882</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E11" t="s">
         <v>1874</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1881</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -22623,7 +22715,7 @@
         <v>968</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>801</v>
@@ -22638,7 +22730,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>802</v>
@@ -22653,7 +22745,7 @@
         <v>969</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>919</v>
@@ -22668,7 +22760,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>920</v>
@@ -22700,7 +22792,7 @@
         <v>899</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>921</v>
@@ -22712,7 +22804,7 @@
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>922</v>
@@ -22727,7 +22819,7 @@
         <v>823</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>923</v>
@@ -22744,7 +22836,7 @@
         <v>824</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>924</v>
@@ -22759,7 +22851,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>925</v>
@@ -22791,7 +22883,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>926</v>
@@ -22803,7 +22895,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="15"/>
       <c r="B33" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>927</v>
@@ -22832,7 +22924,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="15"/>
       <c r="B35" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>928</v>
@@ -22844,7 +22936,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="15"/>
       <c r="B36" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>929</v>
@@ -22855,110 +22947,110 @@
     </row>
     <row r="37" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="18" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="18"/>
       <c r="B38" s="6"/>
-      <c r="D38" s="62" t="s">
-        <v>1887</v>
+      <c r="D38" s="54" t="s">
+        <v>1881</v>
       </c>
       <c r="E38" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="18" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="D39" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="E39" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="18" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="D40" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="18" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E42" t="s">
         <v>1893</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1898</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="18"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="D43" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="E43" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -23179,50 +23271,50 @@
     </row>
     <row r="59" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="60" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E61" t="s">
         <v>1558</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
@@ -23230,13 +23322,13 @@
         <v>328</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="E62" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
@@ -23244,64 +23336,64 @@
         <v>328</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="E63" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="E64" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B65" s="40"/>
       <c r="D65" s="1" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="E65" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="66" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="67" spans="1:5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="E67" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
     </row>
   </sheetData>
@@ -24095,96 +24187,96 @@
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>1329</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="15" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="F53" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24217,22 +24309,22 @@
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A56" s="18" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E56" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F56" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24240,10 +24332,10 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="F57" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24252,10 +24344,10 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F58" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24363,36 +24455,36 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
     </row>
   </sheetData>
@@ -24405,8 +24497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0BBAD2-F58F-4EC2-9617-BD472B852ED3}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -24431,18 +24523,21 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E1" s="57" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E1" s="59" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="57"/>
+      <c r="F1" s="59"/>
       <c r="I1" s="36" t="s">
         <v>1118</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="10" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>1142</v>
@@ -24451,13 +24546,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>1239</v>
+      <c r="D2" s="57" t="s">
+        <v>1237</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1103</v>
@@ -24465,11 +24560,11 @@
       <c r="F2" s="11" t="s">
         <v>1107</v>
       </c>
-      <c r="G2" s="56" t="s">
-        <v>1242</v>
+      <c r="G2" s="57" t="s">
+        <v>1240</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>1110</v>
@@ -24477,8 +24572,8 @@
       <c r="J2" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="K2" s="56" t="s">
-        <v>1245</v>
+      <c r="K2" s="57" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -24488,16 +24583,16 @@
       <c r="C3" s="43" t="s">
         <v>1098</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="36" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>1114</v>
@@ -24505,18 +24600,18 @@
       <c r="J3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="K3" s="57"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>1235</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>1236</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -24529,16 +24624,16 @@
       <c r="C4" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="6" t="s">
         <v>1105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="36" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>1115</v>
@@ -24546,13 +24641,16 @@
       <c r="J4" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="K4" s="57"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="57" t="s">
+      <c r="D6" s="11" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E6" s="59" t="s">
         <v>1125</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="59"/>
       <c r="I6" s="36" t="s">
         <v>1119</v>
       </c>
@@ -24570,8 +24668,8 @@
       <c r="C7" s="43" t="s">
         <v>1121</v>
       </c>
-      <c r="D7" s="56" t="s">
-        <v>1240</v>
+      <c r="D7" s="57" t="s">
+        <v>1238</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1126</v>
@@ -24579,11 +24677,11 @@
       <c r="F7" s="11" t="s">
         <v>1129</v>
       </c>
-      <c r="G7" s="56" t="s">
-        <v>1243</v>
+      <c r="G7" s="57" t="s">
+        <v>1241</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>1130</v>
@@ -24591,8 +24689,8 @@
       <c r="J7" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="K7" s="56" t="s">
-        <v>1246</v>
+      <c r="K7" s="57" t="s">
+        <v>1244</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>1145</v>
@@ -24626,7 +24724,7 @@
       </c>
       <c r="G8" s="58"/>
       <c r="H8" s="10" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>1131</v>
@@ -24649,10 +24747,13 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="57" t="s">
+      <c r="D10" s="11" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E10" s="59" t="s">
         <v>1117</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="59"/>
       <c r="I10" s="36" t="s">
         <v>1120</v>
       </c>
@@ -24670,29 +24771,29 @@
       <c r="C11" s="44" t="s">
         <v>1134</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>1241</v>
+      <c r="D11" s="57" t="s">
+        <v>1239</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="G11" s="56" t="s">
-        <v>1244</v>
+      <c r="G11" s="57" t="s">
+        <v>1242</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="K11" s="56" t="s">
-        <v>1674</v>
+      <c r="K11" s="57" t="s">
+        <v>1668</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>1152</v>
@@ -24719,17 +24820,17 @@
       </c>
       <c r="D12" s="58"/>
       <c r="E12" s="6" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1140</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="10" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>1139</v>
@@ -24738,19 +24839,14 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -24758,6 +24854,11 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24814,11 +24915,11 @@
       <c r="A2" s="10" t="s">
         <v>1163</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>1169</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60" t="s">
         <v>1168</v>
       </c>
       <c r="E2" s="58"/>
@@ -24838,15 +24939,15 @@
       <c r="A4" s="10" t="s">
         <v>1161</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>1185</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="61" t="s">
         <v>1184</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="61"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -24856,7 +24957,7 @@
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
       <c r="E5" s="58"/>
-      <c r="F5" s="61"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -24930,8 +25031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689B7B7-E79D-4A54-8438-F0C853DC91D6}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -25756,8 +25857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515E6D57-7333-467C-B914-7E60BABBA523}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -26378,7 +26479,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -26812,7 +26913,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>725</v>
@@ -26829,7 +26930,7 @@
     </row>
     <row r="15" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>649</v>
@@ -27055,13 +27156,13 @@
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="45" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>457</v>
@@ -27072,7 +27173,7 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>50</v>
@@ -27089,7 +27190,7 @@
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="46" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>50</v>
@@ -27131,19 +27232,19 @@
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="B15" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="C15" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="D15" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
     </row>
   </sheetData>
@@ -27158,7 +27259,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -27184,96 +27285,96 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E3" t="s">
         <v>1859</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
       <c r="C4" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E4" t="s">
         <v>1249</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="C5" s="1" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="D5" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="E5" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="C6" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D6" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="E6" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="C7" s="1" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="D7" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="E7" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>1385</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>1387</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -27353,44 +27454,44 @@
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="D14" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="E14" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="C15" s="1" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="D16" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="E16" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -27398,7 +27499,7 @@
         <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -27409,49 +27510,49 @@
         <v>328</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="D18" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="E18" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>1371</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="D21" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="E21" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -27488,145 +27589,145 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>1301</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="D7" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="E7" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D9" t="s">
         <v>1290</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -27636,8 +27737,8 @@
       <c r="B13" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>1259</v>
+      <c r="C13" s="55" t="s">
+        <v>1257</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>757</v>
@@ -27649,7 +27750,7 @@
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="31"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="54"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="31" t="s">
         <v>942</v>
       </c>
@@ -27661,133 +27762,133 @@
       <c r="A15" s="1"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="B16" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="D17" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="E17" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="D18" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="E18" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="B19" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="D19" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="E19" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="B20" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="E20" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="E21" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="B23" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="D23" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="E23" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="B24" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="D24" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="E24" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -27834,37 +27935,37 @@
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="C4" s="1" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -27878,15 +27979,15 @@
         <v>992</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>993</v>
@@ -27895,7 +27996,7 @@
         <v>1000</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -27903,10 +28004,10 @@
         <v>994</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -27918,24 +28019,24 @@
         <v>1002</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>1368</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -27943,15 +28044,15 @@
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
     </row>
   </sheetData>
@@ -28007,13 +28108,13 @@
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="E3" t="s">
         <v>729</v>
@@ -28021,48 +28122,48 @@
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="D4" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="18"/>
       <c r="C5" s="1" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="D5" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="D6" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="E6" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
@@ -28086,7 +28187,7 @@
       <c r="B8" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="56" t="s">
         <v>762</v>
       </c>
       <c r="D8" s="31" t="s">
@@ -28095,115 +28196,115 @@
     </row>
     <row r="9" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
-      <c r="C9" s="55"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="31" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
-      <c r="C10" s="55"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="31" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="C12" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>1365</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1807</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1803</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1809</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -28216,10 +28317,10 @@
         <v>518</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>545</v>
@@ -28227,61 +28328,61 @@
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>1275</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C21" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="E21" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="E23" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
     </row>
   </sheetData>
@@ -28295,10 +28396,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3C2C0-A529-45AF-9E19-6A70A7319ED0}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28326,81 +28427,81 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="49" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D4" t="s">
         <v>1322</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>1323</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="E5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="D6" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="E6" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="E7" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28409,69 +28510,69 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E9" t="s">
         <v>1534</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="23"/>
       <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="D10" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="E10" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="23"/>
       <c r="B11" s="9" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="D11" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="E11" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="23"/>
       <c r="B12" s="9" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="C12" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="D12" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="E12" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
       <c r="B13" s="9"/>
       <c r="C13" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -28479,152 +28580,152 @@
       <c r="A14" s="23"/>
       <c r="B14" s="53"/>
       <c r="C14" s="1" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="D14" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="E14" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
       <c r="B15" s="9" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="D15" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="E15" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="23"/>
       <c r="B16" s="9" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="C16" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="D16" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="E16" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="23"/>
       <c r="B17" s="9"/>
       <c r="C17" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="23"/>
       <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="9" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="D20" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="E20" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="9" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="D22" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="E22" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="D23" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="E23" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="D24" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="E24" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="D25" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="E25" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="9" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="E26" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
-        <v>1211</v>
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="9" t="s">
+        <v>1966</v>
       </c>
       <c r="C27" t="s">
         <v>1207</v>
@@ -28636,12 +28737,12 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>1212</v>
+    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>1967</v>
       </c>
       <c r="C28" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D28" t="s">
         <v>1205</v>
@@ -28650,185 +28751,172 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" s="9" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" s="9" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E30" t="s">
         <v>1423</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B30" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B31" s="9" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C32" t="s">
         <v>1208</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E32" t="s">
         <v>1269</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>861</v>
+        <v>1267</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>871</v>
+        <v>1282</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1432</v>
+        <v>1270</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1433</v>
+        <v>1213</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B34" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>870</v>
+      <c r="B34" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+        <v>1426</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" s="9" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+        <v>860</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>1493</v>
+      <c r="B36" s="9" t="s">
+        <v>1502</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1497</v>
-      </c>
+        <v>1421</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="C37" s="1"/>
+      <c r="B37" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" s="49" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="49" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D38" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" s="23"/>
-      <c r="B39" t="s">
-        <v>875</v>
-      </c>
-      <c r="C39" t="s">
-        <v>871</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" s="23"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>881</v>
+      <c r="D40" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="23"/>
       <c r="B41" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C41" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>939</v>
+        <v>882</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -28836,74 +28924,100 @@
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" s="23"/>
+      <c r="B43" t="s">
+        <v>876</v>
+      </c>
+      <c r="C43" t="s">
+        <v>870</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A44" s="23"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>940</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B48" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D48" t="s">
         <v>1498</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E48" s="9" t="s">
         <v>1499</v>
       </c>
-      <c r="D45" t="s">
+    </row>
+    <row r="49" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>1500</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>1501</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B46" s="9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>1506</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>1507</v>
       </c>
     </row>
   </sheetData>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D26458E-2C84-4FAD-9903-608137AA559D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB8885B-CBCE-4E66-B268-EFEDBE551EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="1970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="1972">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -16531,10 +16531,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>たら／としたら</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>…たら／としたら</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18303,6 +18299,77 @@
   </si>
   <si>
     <t>疑问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…すると</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注文すると、どのくらいかかりますか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，需要多久</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>呢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>？</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18909,10 +18976,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -19276,7 +19343,7 @@
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1283</v>
@@ -19325,29 +19392,29 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>1720</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19515,18 +19582,18 @@
         <v>1511</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19537,7 +19604,7 @@
         <v>1512</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19567,16 +19634,16 @@
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="9"/>
@@ -19595,10 +19662,10 @@
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>1945</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1946</v>
       </c>
       <c r="D27" t="s">
         <v>1665</v>
@@ -19609,16 +19676,16 @@
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="51"/>
       <c r="B29" s="52" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1214</v>
@@ -19632,35 +19699,35 @@
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="52" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E30" s="37" t="s">
         <v>1736</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E32" s="37" t="s">
         <v>1733</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19676,19 +19743,19 @@
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>1813</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" t="s">
         <v>1814</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" s="37" t="s">
         <v>1815</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -19834,53 +19901,53 @@
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>1897</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>1898</v>
-      </c>
       <c r="D45" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E45" t="s">
         <v>1902</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1903</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D46" t="s">
         <v>1899</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>1900</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E47" t="s">
         <v>1905</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1906</v>
       </c>
     </row>
   </sheetData>
@@ -19893,7 +19960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F2DEB6-6EBD-4F9B-936C-0D257ACA7C7C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -19906,50 +19973,50 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1742</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1744</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>1850</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>310</v>
@@ -19957,49 +20024,49 @@
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>1750</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C9" t="s">
         <v>1822</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1823</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C10" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D10" t="s">
         <v>1825</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1826</v>
       </c>
     </row>
   </sheetData>
@@ -20572,19 +20639,19 @@
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E8" t="s">
         <v>1951</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1954</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20592,10 +20659,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E9" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20667,33 +20734,33 @@
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1940</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1941</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1659</v>
       </c>
       <c r="E15" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E16" t="s">
         <v>1943</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1942</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20701,92 +20768,92 @@
         <v>1068</v>
       </c>
       <c r="B17" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D17" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E17" t="s">
         <v>1702</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B18" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E18" t="s">
         <v>1704</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D19" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E19" s="54" t="s">
         <v>1937</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="B20" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1753</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E20" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E21" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E22" t="s">
         <v>1758</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1759</v>
       </c>
     </row>
   </sheetData>
@@ -21068,16 +21135,16 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="40" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E17" t="s">
         <v>1935</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -21088,7 +21155,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>134</v>
@@ -21172,7 +21239,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1562</v>
@@ -21200,35 +21267,35 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
   </sheetData>
@@ -22017,7 +22084,7 @@
         <v>508</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D3" t="s">
         <v>509</v>
@@ -22036,13 +22103,13 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D5" t="s">
         <v>1819</v>
       </c>
-      <c r="D5" t="s">
-        <v>1820</v>
-      </c>
       <c r="E5" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -22067,7 +22134,7 @@
         <v>1583</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1586</v>
@@ -22078,24 +22145,24 @@
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E8" t="s">
         <v>1728</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E9" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
   </sheetData>
@@ -22433,7 +22500,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>374</v>
@@ -22529,70 +22596,70 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D9" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E9" t="s">
         <v>1871</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D10" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E10" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D11" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E11" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1860</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>1861</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>1862</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -22715,7 +22782,7 @@
         <v>968</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>801</v>
@@ -22730,7 +22797,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>802</v>
@@ -22745,7 +22812,7 @@
         <v>969</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>919</v>
@@ -22760,7 +22827,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>920</v>
@@ -22792,7 +22859,7 @@
         <v>899</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>921</v>
@@ -22804,7 +22871,7 @@
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>922</v>
@@ -22819,7 +22886,7 @@
         <v>823</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>923</v>
@@ -22836,7 +22903,7 @@
         <v>824</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>924</v>
@@ -22851,7 +22918,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>925</v>
@@ -22883,7 +22950,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>926</v>
@@ -22895,7 +22962,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="15"/>
       <c r="B33" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>927</v>
@@ -22924,7 +22991,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="15"/>
       <c r="B35" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>928</v>
@@ -22936,7 +23003,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="15"/>
       <c r="B36" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>929</v>
@@ -22950,7 +23017,7 @@
         <v>1682</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1683</v>
@@ -22966,10 +23033,10 @@
       <c r="A38" s="18"/>
       <c r="B38" s="6"/>
       <c r="D38" s="54" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E38" t="s">
         <v>1881</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -22977,80 +23044,80 @@
         <v>1669</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D39" t="s">
         <v>1878</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>1879</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="18" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" t="s">
         <v>1884</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" s="9" t="s">
         <v>1885</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="9" t="s">
         <v>1709</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="18" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1887</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1888</v>
-      </c>
       <c r="D42" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E42" t="s">
         <v>1892</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="18"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D43" t="s">
         <v>1889</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>1890</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -24224,13 +24291,13 @@
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24241,12 +24308,12 @@
         <v>1286</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1286</v>
@@ -24261,22 +24328,22 @@
         <v>1286</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F53" t="s">
         <v>1929</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24526,12 +24593,12 @@
         <v>1219</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E1" s="59" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="59"/>
+      <c r="F1" s="58"/>
       <c r="I1" s="36" t="s">
         <v>1118</v>
       </c>
@@ -24583,14 +24650,14 @@
       <c r="C3" s="43" t="s">
         <v>1098</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="36" t="s">
         <v>1222</v>
       </c>
@@ -24600,7 +24667,7 @@
       <c r="J3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="6" t="s">
         <v>1233</v>
       </c>
@@ -24624,14 +24691,14 @@
       <c r="C4" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="6" t="s">
         <v>1105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="36" t="s">
         <v>1223</v>
       </c>
@@ -24641,16 +24708,16 @@
       <c r="J4" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
-        <v>1958</v>
-      </c>
-      <c r="E6" s="59" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E6" s="58" t="s">
         <v>1125</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="I6" s="36" t="s">
         <v>1119</v>
       </c>
@@ -24715,14 +24782,14 @@
       <c r="C8" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="6" t="s">
         <v>1127</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="10" t="s">
         <v>1225</v>
       </c>
@@ -24732,7 +24799,7 @@
       <c r="J8" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="K8" s="58"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="6" t="s">
         <v>1148</v>
       </c>
@@ -24748,12 +24815,12 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
-        <v>1959</v>
-      </c>
-      <c r="E10" s="59" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E10" s="58" t="s">
         <v>1117</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="58"/>
       <c r="I10" s="36" t="s">
         <v>1120</v>
       </c>
@@ -24818,14 +24885,14 @@
       <c r="C12" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="D12" s="58"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="6" t="s">
         <v>1228</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="10" t="s">
         <v>1227</v>
       </c>
@@ -24835,7 +24902,7 @@
       <c r="J12" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="K12" s="58"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
@@ -24847,6 +24914,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -24854,11 +24926,6 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24922,8 +24989,8 @@
       <c r="D2" s="60" t="s">
         <v>1168</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="38" t="s">
         <v>1171</v>
       </c>
@@ -24953,10 +25020,10 @@
       <c r="A5" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="62"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -27285,31 +27352,31 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>1696</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E3" t="s">
         <v>1858</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -27327,13 +27394,13 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="C5" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E5" t="s">
         <v>1854</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -27342,22 +27409,22 @@
         <v>1248</v>
       </c>
       <c r="D6" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E6" t="s">
         <v>1856</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="C7" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D7" t="s">
         <v>1931</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1932</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -27479,7 +27546,7 @@
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>328</v>
@@ -27510,13 +27577,13 @@
         <v>328</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D18" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E18" t="s">
         <v>1774</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -27716,18 +27783,18 @@
         <v>1286</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -27823,19 +27890,19 @@
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B20" t="s">
         <v>1488</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E20" t="s">
         <v>1780</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -27843,52 +27910,52 @@
         <v>1488</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" t="s">
         <v>1783</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B23" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D23" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E23" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B24" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D24" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E24" t="s">
         <v>1832</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -27959,13 +28026,13 @@
     <row r="4" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="C4" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1838</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>1839</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -28024,7 +28091,7 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
@@ -28044,15 +28111,15 @@
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
   </sheetData>
@@ -28063,10 +28130,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6952ADA-DA23-487F-8259-3506EB692067}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28108,10 +28175,10 @@
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1688</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1689</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1673</v>
@@ -28121,273 +28188,287 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="18" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1789</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" t="s">
         <v>1790</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" s="9" t="s">
         <v>1791</v>
       </c>
-      <c r="E4" s="9" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" s="18"/>
+      <c r="C6" s="1" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B5" s="18"/>
-      <c r="C5" s="1" t="s">
+      <c r="D6" t="s">
         <v>1793</v>
       </c>
-      <c r="D5" t="s">
-        <v>1794</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="E6" s="9" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" t="s">
         <v>1948</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>1949</v>
       </c>
-      <c r="E6" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B8" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C8" s="28" t="s">
         <v>727</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>730</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C9" s="56" t="s">
         <v>762</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D9" s="31" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="31" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="C10" s="56"/>
       <c r="D10" s="31" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="31" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" s="9"/>
+      <c r="C13" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1365</v>
-      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>1805</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>1798</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1802</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>1510</v>
+        <v>1797</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>1797</v>
+        <v>1510</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="s">
+      <c r="B19" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1578</v>
+        <v>1272</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C21" t="s">
-        <v>1579</v>
+      <c r="C21" s="1" t="s">
+        <v>1273</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1581</v>
+        <v>1274</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>1607</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" s="9" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>1611</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>1612</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28470,7 +28551,7 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E5" t="s">
         <v>1324</v>
@@ -28481,13 +28562,13 @@
         <v>1617</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D6" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E6" t="s">
         <v>1762</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28541,38 +28622,38 @@
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="23"/>
       <c r="B11" s="9" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
         <v>1917</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1918</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1919</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="23"/>
       <c r="B12" s="9" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C12" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D12" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E12" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
       <c r="B13" s="9"/>
       <c r="C13" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -28580,57 +28661,57 @@
       <c r="A14" s="23"/>
       <c r="B14" s="53"/>
       <c r="C14" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E14" t="s">
         <v>1914</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
       <c r="B15" s="9" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1923</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" t="s">
         <v>1924</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>1925</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="23"/>
       <c r="B16" s="9" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C16" t="s">
         <v>1908</v>
       </c>
-      <c r="C16" t="s">
-        <v>1909</v>
-      </c>
       <c r="D16" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E16" t="s">
         <v>1692</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="23"/>
       <c r="B17" s="9"/>
       <c r="C17" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="23"/>
       <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28661,52 +28742,52 @@
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="9" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D22" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E22" t="s">
         <v>1762</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D23" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E23" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D24" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E24" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D25" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E25" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28717,7 +28798,7 @@
         <v>1675</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E26" t="s">
         <v>1676</v>
@@ -28725,7 +28806,7 @@
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="9" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C27" t="s">
         <v>1207</v>
@@ -28739,7 +28820,7 @@
     </row>
     <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C28" t="s">
         <v>1211</v>
@@ -28753,10 +28834,10 @@
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="9" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D29" t="s">
         <v>1424</v>
@@ -28767,10 +28848,10 @@
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="9" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D30" t="s">
         <v>1422</v>
@@ -28783,10 +28864,10 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>1960</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB8885B-CBCE-4E66-B268-EFEDBE551EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6158EAB3-50B2-450A-9ACA-1D6A88BD7939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="1972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1974">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -18370,6 +18370,14 @@
       </rPr>
       <t>？</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いかが</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18976,10 +18984,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -19958,10 +19966,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F2DEB6-6EBD-4F9B-936C-0D257ACA7C7C}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20007,19 +20015,20 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -20027,45 +20036,53 @@
         <v>1968</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1749</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>1821</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>1827</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>1822</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
         <v>1826</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>1824</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>1825</v>
       </c>
     </row>
@@ -24595,10 +24612,10 @@
       <c r="D1" s="11" t="s">
         <v>1956</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="58"/>
+      <c r="F1" s="59"/>
       <c r="I1" s="36" t="s">
         <v>1118</v>
       </c>
@@ -24650,14 +24667,14 @@
       <c r="C3" s="43" t="s">
         <v>1098</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="36" t="s">
         <v>1222</v>
       </c>
@@ -24667,7 +24684,7 @@
       <c r="J3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="6" t="s">
         <v>1233</v>
       </c>
@@ -24691,14 +24708,14 @@
       <c r="C4" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="6" t="s">
         <v>1105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="36" t="s">
         <v>1223</v>
       </c>
@@ -24708,16 +24725,16 @@
       <c r="J4" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>1957</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="59" t="s">
         <v>1125</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="59"/>
       <c r="I6" s="36" t="s">
         <v>1119</v>
       </c>
@@ -24782,14 +24799,14 @@
       <c r="C8" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="D8" s="59"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="6" t="s">
         <v>1127</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="G8" s="59"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="10" t="s">
         <v>1225</v>
       </c>
@@ -24799,7 +24816,7 @@
       <c r="J8" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="K8" s="59"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="6" t="s">
         <v>1148</v>
       </c>
@@ -24817,10 +24834,10 @@
       <c r="D10" s="11" t="s">
         <v>1958</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="59" t="s">
         <v>1117</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="59"/>
       <c r="I10" s="36" t="s">
         <v>1120</v>
       </c>
@@ -24885,14 +24902,14 @@
       <c r="C12" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="6" t="s">
         <v>1228</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="G12" s="59"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="10" t="s">
         <v>1227</v>
       </c>
@@ -24902,7 +24919,7 @@
       <c r="J12" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="K12" s="59"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
@@ -24914,11 +24931,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -24926,6 +24938,11 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24989,8 +25006,8 @@
       <c r="D2" s="60" t="s">
         <v>1168</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="38" t="s">
         <v>1171</v>
       </c>
@@ -25020,10 +25037,10 @@
       <c r="A5" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="62"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -28132,7 +28149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6952ADA-DA23-487F-8259-3506EB692067}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6158EAB3-50B2-450A-9ACA-1D6A88BD7939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCBC55F-F9C8-4ADC-8BCD-54EA835A3551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1982">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -18378,6 +18378,97 @@
   </si>
   <si>
     <t>如何</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうもない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太可能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>まだまだ時間があるか大丈夫だと思っていたけれど、この渋滞では間に合いそうもない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽管觉得有很多时间无所谓，但是在约定时间赶得上不太可能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>往往会…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何度も失敗すると、また失敗するのではないと考えがちになる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>屡屡失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>后，人往往会陷入“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>次又要失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"的想法中</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…+がちになる「勝ちになる」</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18984,10 +19075,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -19968,7 +20059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F2DEB6-6EBD-4F9B-936C-0D257ACA7C7C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -20553,10 +20644,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0935F-84C6-400A-BD4C-D1BEE4D7E2F4}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20564,7 +20655,7 @@
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.33203125" customWidth="1"/>
     <col min="5" max="5" width="66.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20797,63 +20888,66 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
         <v>1697</v>
       </c>
-      <c r="B18" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>1859</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>1938</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>1936</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E20" s="54" t="s">
         <v>1937</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>1751</v>
       </c>
-      <c r="B20" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>1698</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="E21" t="s">
         <v>1758</v>
@@ -20864,12 +20958,26 @@
         <v>1698</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>1758</v>
       </c>
     </row>
@@ -24582,7 +24690,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -24612,10 +24720,10 @@
       <c r="D1" s="11" t="s">
         <v>1956</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="59"/>
+      <c r="F1" s="58"/>
       <c r="I1" s="36" t="s">
         <v>1118</v>
       </c>
@@ -24667,14 +24775,14 @@
       <c r="C3" s="43" t="s">
         <v>1098</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="36" t="s">
         <v>1222</v>
       </c>
@@ -24684,7 +24792,7 @@
       <c r="J3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="6" t="s">
         <v>1233</v>
       </c>
@@ -24708,14 +24816,14 @@
       <c r="C4" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="6" t="s">
         <v>1105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="36" t="s">
         <v>1223</v>
       </c>
@@ -24725,16 +24833,16 @@
       <c r="J4" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>1957</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>1125</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="I6" s="36" t="s">
         <v>1119</v>
       </c>
@@ -24799,14 +24907,14 @@
       <c r="C8" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="6" t="s">
         <v>1127</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="10" t="s">
         <v>1225</v>
       </c>
@@ -24816,7 +24924,7 @@
       <c r="J8" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="K8" s="58"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="6" t="s">
         <v>1148</v>
       </c>
@@ -24834,10 +24942,10 @@
       <c r="D10" s="11" t="s">
         <v>1958</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="58" t="s">
         <v>1117</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="58"/>
       <c r="I10" s="36" t="s">
         <v>1120</v>
       </c>
@@ -24902,14 +25010,14 @@
       <c r="C12" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="D12" s="58"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="6" t="s">
         <v>1228</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="10" t="s">
         <v>1227</v>
       </c>
@@ -24919,7 +25027,7 @@
       <c r="J12" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="K12" s="58"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
@@ -24931,6 +25039,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -24938,11 +25051,6 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25006,8 +25114,8 @@
       <c r="D2" s="60" t="s">
         <v>1168</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="38" t="s">
         <v>1171</v>
       </c>
@@ -25037,10 +25145,10 @@
       <c r="A5" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="62"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -28496,8 +28604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3C2C0-A529-45AF-9E19-6A70A7319ED0}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28980,7 +29088,18 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="C38" s="1"/>
+      <c r="B38" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCBC55F-F9C8-4ADC-8BCD-54EA835A3551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96606830-F0C3-466C-A37E-9CEB04D5A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1056" yWindow="396" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="2003">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -14636,42 +14636,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>て形+ほしくない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>／</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>否定形++</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>でほしい</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>希望做…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -15681,33 +15645,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>「名詞」+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>だって</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>午後から雨が降るんだって</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18469,6 +18406,343 @@
   </si>
   <si>
     <t>…+がちになる「勝ちになる」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>このクッキー、美味しいね、どこで買ったの？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个饼干好吃，在哪买的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「名詞」+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>だって</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>営業課の山下さん、来月受付の林さんと結婚するんだって</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业部的山下小姐下个月要和林先生结婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>よく聞きます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「簡体小句」+よく聞きます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今までとは違う働き方によって通勤時間が無くなり、趣味の時間や家族との時間を多く持てるようになったという声をよく聞きます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>们经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>常能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>够</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>听到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的反</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>馈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：新的工作方式省去了通勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，能花更多的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>兴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>趣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>好上和陪伴家人上面</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>てもかまわない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…也没关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>て形+ほしくない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否定形+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でほしい</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ます形+たがらない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>うちの犬は散歩が大好きだが、雨の日は濡れるのが嫌なようで、散歩に行きたがらない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我家的狗很喜欢散步，但是下雨天好像不喜欢被淋湿，不想去散步。</t>
+  </si>
+  <si>
+    <t>友達からの折り紙「おりがみ」をならっています</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从朋友那里学折纸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠慮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ご遠慮ください</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロビーでの飲食はご遠慮ください</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>勿在大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>厅饮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>食</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部長から聞いたんですか？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被部长问了吗？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18476,7 +18750,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18930,6 +19204,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -18966,7 +19247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -19066,6 +19347,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -19089,6 +19371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19396,8 +19681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0DD02-A2A4-4913-87F3-FF074BB46E2F}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C1:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19425,24 +19710,24 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>1662</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1283</v>
@@ -19491,29 +19776,29 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>1718</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19579,7 +19864,7 @@
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1196</v>
@@ -19638,72 +19923,72 @@
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>1506</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D18" t="s">
         <v>1541</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>1542</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1509</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>1806</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19722,69 +20007,69 @@
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1347</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="E26" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="D27" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="E27" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="51"/>
       <c r="B29" s="52" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1214</v>
@@ -19798,35 +20083,35 @@
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="52" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -19842,19 +20127,19 @@
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>1811</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" t="s">
         <v>1812</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="37" t="s">
         <v>1813</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -19921,132 +20206,132 @@
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" t="s">
         <v>1525</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>1526</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>1635</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>1637</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D41" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="E41" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>1623</v>
-      </c>
       <c r="C42" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>1626</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>1624</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D43" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="E43" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C44" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E44" t="s">
         <v>1630</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="D45" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="E45" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>1894</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>1896</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E46" t="s">
         <v>1898</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1899</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>1904</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>1906</v>
-      </c>
       <c r="D47" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E47" t="s">
         <v>1903</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1905</v>
       </c>
     </row>
   </sheetData>
@@ -20057,10 +20342,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F2DEB6-6EBD-4F9B-936C-0D257ACA7C7C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20072,109 +20357,123 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>1848</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>310</v>
+        <v>262</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1967</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>1748</v>
+      <c r="A9" t="s">
+        <v>1966</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1749</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1750</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D11" t="s">
         <v>1821</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C12" t="s">
         <v>1822</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>1823</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1825</v>
       </c>
     </row>
   </sheetData>
@@ -20407,19 +20706,19 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="D16" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" t="s">
         <v>1679</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -20613,27 +20912,27 @@
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>1574</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E33" t="s">
         <v>1576</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1577</v>
       </c>
     </row>
   </sheetData>
@@ -20644,10 +20943,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0935F-84C6-400A-BD4C-D1BEE4D7E2F4}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C20" sqref="C1:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20747,19 +21046,19 @@
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="E8" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20767,52 +21066,52 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E9" t="s">
         <v>1952</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>1569</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="E12" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20820,55 +21119,55 @@
         <v>328</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>1603</v>
-      </c>
       <c r="E13" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D14" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E14" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B15" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="E15" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D16" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E16" t="s">
         <v>1941</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20876,109 +21175,120 @@
         <v>1068</v>
       </c>
       <c r="B17" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D17" t="s">
         <v>1699</v>
       </c>
-      <c r="D17" t="s">
-        <v>1701</v>
-      </c>
       <c r="E17" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E18" t="s">
         <v>1975</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1976</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B19" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="E19" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="D20" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B21" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E21" t="s">
         <v>1756</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>1753</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>1755</v>
-      </c>
       <c r="E22" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="E23" t="s">
-        <v>1758</v>
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1989</v>
       </c>
     </row>
   </sheetData>
@@ -20989,10 +21299,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453DBF0C-9BFC-47CA-8E23-EDB83C5D3222}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A1:A27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -21235,41 +21545,41 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="40" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E15" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="40"/>
       <c r="D16" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E16" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="40" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D17" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E17" t="s">
         <v>1933</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -21280,7 +21590,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>134</v>
@@ -21308,7 +21618,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>50</v>
@@ -21317,74 +21627,71 @@
         <v>1449</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>1455</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1450</v>
+        <v>1991</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>1453</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>1457</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>1458</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>1560</v>
-      </c>
       <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1876</v>
+        <v>1992</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1562</v>
+        <v>1993</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1565</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
-        <v>1561</v>
+      <c r="A25" s="1" t="s">
+        <v>1559</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="50" t="s">
-        <v>1566</v>
+      <c r="C25" s="1" t="s">
+        <v>1874</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>1564</v>
@@ -21392,24 +21699,30 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>1710</v>
+        <v>1560</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>1712</v>
+      <c r="C26" s="50" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -21420,7 +21733,18 @@
         <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
         <v>1711</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
@@ -21510,36 +21834,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E5" t="s">
         <v>1613</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>1639</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -21563,19 +21887,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>1685</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1687</v>
       </c>
     </row>
   </sheetData>
@@ -22155,11 +22479,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2CC707-43A4-4A99-92D1-5E9BC9FF97EB}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -22209,7 +22533,7 @@
         <v>508</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="D3" t="s">
         <v>509</v>
@@ -22228,13 +22552,13 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D5" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="E5" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -22242,52 +22566,76 @@
         <v>507</v>
       </c>
       <c r="B6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="13"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
         <v>1582</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E8" t="s">
         <v>1585</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C8" s="1" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E9" t="s">
         <v>1726</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1728</v>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C10" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1988</v>
       </c>
     </row>
   </sheetData>
@@ -22516,7 +22864,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>328</v>
@@ -22545,7 +22893,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="47"/>
       <c r="D14" s="23" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>1420</v>
@@ -22572,11 +22920,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAB02E-8C57-4C83-9570-2BC2F1E43F4D}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -22625,7 +22973,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>374</v>
@@ -22721,70 +23069,70 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D9" t="s">
         <v>1868</v>
       </c>
-      <c r="D9" t="s">
-        <v>1870</v>
-      </c>
       <c r="E9" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1866</v>
-      </c>
       <c r="D10" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="E10" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1865</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1867</v>
-      </c>
       <c r="D11" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E11" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>1860</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -22907,7 +23255,7 @@
         <v>968</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>801</v>
@@ -22922,7 +23270,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>802</v>
@@ -22937,7 +23285,7 @@
         <v>969</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>919</v>
@@ -22952,7 +23300,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>920</v>
@@ -22984,7 +23332,7 @@
         <v>899</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>921</v>
@@ -22996,7 +23344,7 @@
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>922</v>
@@ -23011,7 +23359,7 @@
         <v>823</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>923</v>
@@ -23028,7 +23376,7 @@
         <v>824</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>924</v>
@@ -23043,7 +23391,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>925</v>
@@ -23075,7 +23423,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>926</v>
@@ -23087,7 +23435,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="15"/>
       <c r="B33" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>927</v>
@@ -23116,7 +23464,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="15"/>
       <c r="B35" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>928</v>
@@ -23128,7 +23476,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="15"/>
       <c r="B36" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>929</v>
@@ -23139,110 +23487,110 @@
     </row>
     <row r="37" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="18" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="18"/>
       <c r="B38" s="6"/>
       <c r="D38" s="54" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="E38" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="18" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E39" t="s">
         <v>1877</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1878</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="18" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D40" t="s">
         <v>1882</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="9" t="s">
         <v>1883</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>1707</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="18" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="D42" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="E42" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="18"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E43" t="s">
         <v>1888</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1889</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -23463,50 +23811,50 @@
     </row>
     <row r="59" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>1547</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="60" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D61" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E61" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
@@ -23514,13 +23862,13 @@
         <v>328</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E62" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
@@ -23528,64 +23876,78 @@
         <v>328</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E63" t="s">
         <v>1557</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B65" s="40"/>
       <c r="D65" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E65" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B66" s="64" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="D66" s="1" t="s">
+    </row>
+    <row r="68" spans="1:5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>1609</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E68" t="s">
         <v>1610</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1612</v>
       </c>
     </row>
   </sheetData>
@@ -24416,13 +24778,13 @@
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24433,12 +24795,12 @@
         <v>1286</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1286</v>
@@ -24447,28 +24809,28 @@
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="F53" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24647,36 +25009,36 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>1644</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>1647</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>1651</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
   </sheetData>
@@ -24718,12 +25080,12 @@
         <v>1219</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>1956</v>
-      </c>
-      <c r="E1" s="58" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E1" s="59" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="58"/>
+      <c r="F1" s="59"/>
       <c r="I1" s="36" t="s">
         <v>1118</v>
       </c>
@@ -24743,7 +25105,7 @@
       <c r="C2" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>1237</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -24752,7 +25114,7 @@
       <c r="F2" s="11" t="s">
         <v>1107</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="58" t="s">
         <v>1240</v>
       </c>
       <c r="H2" s="41" t="s">
@@ -24764,7 +25126,7 @@
       <c r="J2" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="58" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -24775,14 +25137,14 @@
       <c r="C3" s="43" t="s">
         <v>1098</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="36" t="s">
         <v>1222</v>
       </c>
@@ -24792,7 +25154,7 @@
       <c r="J3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="6" t="s">
         <v>1233</v>
       </c>
@@ -24816,14 +25178,14 @@
       <c r="C4" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="6" t="s">
         <v>1105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="36" t="s">
         <v>1223</v>
       </c>
@@ -24833,16 +25195,16 @@
       <c r="J4" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E6" s="58" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E6" s="59" t="s">
         <v>1125</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="59"/>
       <c r="I6" s="36" t="s">
         <v>1119</v>
       </c>
@@ -24860,7 +25222,7 @@
       <c r="C7" s="43" t="s">
         <v>1121</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>1238</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -24869,7 +25231,7 @@
       <c r="F7" s="11" t="s">
         <v>1129</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="58" t="s">
         <v>1241</v>
       </c>
       <c r="H7" s="41" t="s">
@@ -24881,7 +25243,7 @@
       <c r="J7" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="58" t="s">
         <v>1244</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -24907,14 +25269,14 @@
       <c r="C8" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="D8" s="59"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="6" t="s">
         <v>1127</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="G8" s="59"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="10" t="s">
         <v>1225</v>
       </c>
@@ -24924,7 +25286,7 @@
       <c r="J8" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="K8" s="59"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="6" t="s">
         <v>1148</v>
       </c>
@@ -24940,12 +25302,12 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
-        <v>1958</v>
-      </c>
-      <c r="E10" s="58" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E10" s="59" t="s">
         <v>1117</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="59"/>
       <c r="I10" s="36" t="s">
         <v>1120</v>
       </c>
@@ -24963,7 +25325,7 @@
       <c r="C11" s="44" t="s">
         <v>1134</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="58" t="s">
         <v>1239</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -24972,7 +25334,7 @@
       <c r="F11" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="58" t="s">
         <v>1242</v>
       </c>
       <c r="H11" s="41" t="s">
@@ -24984,8 +25346,8 @@
       <c r="J11" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="K11" s="57" t="s">
-        <v>1668</v>
+      <c r="K11" s="58" t="s">
+        <v>1666</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>1152</v>
@@ -25010,14 +25372,14 @@
       <c r="C12" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="6" t="s">
         <v>1228</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="G12" s="59"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="10" t="s">
         <v>1227</v>
       </c>
@@ -25027,14 +25389,14 @@
       <c r="J12" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="K12" s="59"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>1227</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
   </sheetData>
@@ -25107,15 +25469,15 @@
       <c r="A2" s="10" t="s">
         <v>1163</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>1169</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61" t="s">
         <v>1168</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="38" t="s">
         <v>1171</v>
       </c>
@@ -25131,25 +25493,25 @@
       <c r="A4" s="10" t="s">
         <v>1161</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>1185</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="62" t="s">
         <v>1184</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="62"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -27424,19 +27786,19 @@
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>1469</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>1470</v>
       </c>
     </row>
   </sheetData>
@@ -27477,31 +27839,31 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1694</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D3" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="E3" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -27519,13 +27881,13 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="C5" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D5" t="s">
         <v>1851</v>
       </c>
-      <c r="D5" t="s">
-        <v>1853</v>
-      </c>
       <c r="E5" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -27534,27 +27896,27 @@
         <v>1248</v>
       </c>
       <c r="D6" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="E6" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="C7" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E7" t="s">
         <v>1930</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>328</v>
@@ -27646,44 +28008,44 @@
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D14" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E14" t="s">
         <v>1517</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="C15" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D16" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E16" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -27691,7 +28053,7 @@
         <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -27702,13 +28064,13 @@
         <v>328</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="D18" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="E18" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -27735,16 +28097,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D21" t="s">
         <v>1669</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" t="s">
         <v>1670</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -27866,19 +28228,19 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D7" t="s">
         <v>1537</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1538</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -27908,18 +28270,18 @@
         <v>1286</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -27929,7 +28291,7 @@
       <c r="B13" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="56" t="s">
         <v>1257</v>
       </c>
       <c r="D13" s="31" t="s">
@@ -27942,7 +28304,7 @@
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="31"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="55"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="31" t="s">
         <v>942</v>
       </c>
@@ -27965,122 +28327,122 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1473</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D17" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E17" t="s">
         <v>1477</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D18" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E18" t="s">
         <v>1479</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B19" t="s">
         <v>1487</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" t="s">
         <v>1489</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>1490</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B20" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>1779</v>
-      </c>
       <c r="E20" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E21" t="s">
         <v>1781</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1782</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E23" t="s">
         <v>1828</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D24" t="s">
         <v>1829</v>
       </c>
-      <c r="B24" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1831</v>
-      </c>
       <c r="E24" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
   </sheetData>
@@ -28151,13 +28513,13 @@
     <row r="4" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="C4" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>1837</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1838</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -28216,7 +28578,7 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
@@ -28236,15 +28598,15 @@
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1843</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
   </sheetData>
@@ -28303,10 +28665,10 @@
         <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="E3" t="s">
         <v>729</v>
@@ -28317,59 +28679,59 @@
         <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1969</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1970</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D5" t="s">
         <v>1788</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>1789</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="18"/>
       <c r="C6" s="1" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="D6" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D7" t="s">
         <v>1946</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" t="s">
         <v>1947</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1948</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
@@ -28393,7 +28755,7 @@
       <c r="B9" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="57" t="s">
         <v>762</v>
       </c>
       <c r="D9" s="31" t="s">
@@ -28402,14 +28764,14 @@
     </row>
     <row r="10" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
-      <c r="C10" s="56"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="31" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="C11" s="56"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="31" t="s">
         <v>945</v>
       </c>
@@ -28422,7 +28784,7 @@
         <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1398</v>
@@ -28457,60 +28819,60 @@
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -28551,44 +28913,44 @@
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C22" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
         <v>1580</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>1608</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E24" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
   </sheetData>
@@ -28602,10 +28964,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3C2C0-A529-45AF-9E19-6A70A7319ED0}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28659,507 +29021,503 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>1320</v>
-      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
-        <v>1321</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1323</v>
+        <v>1995</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
-      <c r="D5" t="s">
-        <v>1760</v>
+      <c r="D5" s="1" t="s">
+        <v>2001</v>
       </c>
       <c r="E5" t="s">
-        <v>1324</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" s="9"/>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E9" t="s">
         <v>1617</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="9" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B8" s="9"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="9"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="23" t="s">
         <v>1260</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E11" t="s">
         <v>1533</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="23"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="23"/>
-      <c r="B11" s="9" t="s">
-        <v>1915</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1916</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="23"/>
-      <c r="B12" s="9" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1909</v>
+      <c r="B12" s="9"/>
+      <c r="C12" s="1" t="s">
+        <v>1528</v>
       </c>
       <c r="D12" t="s">
-        <v>1921</v>
+        <v>1529</v>
       </c>
       <c r="E12" t="s">
-        <v>1690</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
-      <c r="B13" s="9"/>
-      <c r="C13" t="s">
-        <v>1919</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="B13" s="9" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1916</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="1" t="s">
-        <v>1911</v>
+      <c r="B14" s="9" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1907</v>
       </c>
       <c r="D14" t="s">
-        <v>1913</v>
+        <v>1919</v>
       </c>
       <c r="E14" t="s">
-        <v>1914</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
-      <c r="B15" s="9" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1923</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1924</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1925</v>
-      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="23"/>
-      <c r="B16" s="9" t="s">
-        <v>1907</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1908</v>
+      <c r="B16" s="53"/>
+      <c r="C16" s="1" t="s">
+        <v>1909</v>
       </c>
       <c r="D16" t="s">
-        <v>1691</v>
+        <v>1911</v>
       </c>
       <c r="E16" t="s">
-        <v>1692</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="23"/>
-      <c r="B17" s="9"/>
-      <c r="C17" t="s">
+      <c r="B17" s="9" t="s">
         <v>1920</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1923</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="23"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="1" t="s">
-        <v>1910</v>
+      <c r="B18" s="9" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B19" s="9" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1483</v>
+      <c r="A19" s="23"/>
+      <c r="B19" s="9"/>
+      <c r="C19" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" s="23"/>
       <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1486</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>1480</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" s="9" t="s">
-        <v>1764</v>
-      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
-        <v>1763</v>
+        <v>1483</v>
       </c>
       <c r="D22" t="s">
-        <v>1761</v>
+        <v>1484</v>
       </c>
       <c r="E22" t="s">
-        <v>1762</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E23" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" s="9" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="D24" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="E24" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="9"/>
+      <c r="C26" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D26" t="s">
         <v>1767</v>
       </c>
-      <c r="D25" t="s">
-        <v>1770</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" s="9" t="s">
+      <c r="E26" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="9"/>
+      <c r="C27" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" s="9" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E28" t="s">
         <v>1674</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" s="9" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="9" t="s">
         <v>1963</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>1961</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1424</v>
+      <c r="C29" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="E29" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>1964</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>1962</v>
+      <c r="C30" t="s">
+        <v>1211</v>
       </c>
       <c r="D30" t="s">
-        <v>1422</v>
+        <v>1205</v>
       </c>
       <c r="E30" t="s">
-        <v>1423</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="9" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1959</v>
+      </c>
       <c r="D31" t="s">
-        <v>1959</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1960</v>
+        <v>1424</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="9" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" s="9" t="s">
         <v>1212</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>1208</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B35" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B34" s="1" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B35" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B36" s="9" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1430</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B38" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D39" t="s">
         <v>1489</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E39" t="s">
         <v>1490</v>
       </c>
-      <c r="E37" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>1978</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" s="49" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" s="49" t="s">
         <v>1261</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>1258</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E42" t="s">
         <v>1259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A41" s="23"/>
-      <c r="B41" t="s">
-        <v>875</v>
-      </c>
-      <c r="C41" t="s">
-        <v>871</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" s="23"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="23"/>
       <c r="B43" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C43" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>939</v>
+        <v>882</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -29167,74 +29525,100 @@
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" s="23"/>
+      <c r="B45" t="s">
+        <v>876</v>
+      </c>
+      <c r="C45" t="s">
+        <v>870</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A46" s="23"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>940</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D49" t="s">
         <v>1493</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E49" s="9" t="s">
         <v>1494</v>
       </c>
-      <c r="E47" s="9" t="s">
+    </row>
+    <row r="50" spans="2:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B50" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B48" s="9" t="s">
+      <c r="D50" t="s">
         <v>1497</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E50" s="9" t="s">
         <v>1498</v>
       </c>
-      <c r="E48" s="9" t="s">
+    </row>
+    <row r="51" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="49" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
+      <c r="E51" s="9" t="s">
         <v>1500</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>1501</v>
       </c>
     </row>
   </sheetData>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96606830-F0C3-466C-A37E-9CEB04D5A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0A395-4397-4E74-84EB-59616FA78C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1056" yWindow="396" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="0" windowWidth="17280" windowHeight="12360" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="2003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="2018">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -18744,6 +18744,85 @@
   <si>
     <t>被部长问了吗？</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二度と～ない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつの間にか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつのまにか、あたりはすっかり暗くなってしまいました</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知不觉间，四周已经陷入了一片黑暗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会不…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ないっはずがない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>による</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>パソコンや携帯電話の見過ぎによる目の疲れが原因で、頭が痛くなることまあるそうだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因长时间注视电脑、手机造成的眼睛疲劳，可能是导致头痛的原因。</t>
+  </si>
+  <si>
+    <t>失敗をすることは誰にでもある、大切なのはどうして失敗をするしてしまったのか考えて、同じ失敗を繰り返さないようにすることだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论是谁都会遭遇失败，重要的是我们要去思考为何会失败，避免重蹈覆辙</t>
+  </si>
+  <si>
+    <t>のも</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名詞/形容词/形容动词/动词简体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」+のも、~のも</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子供を連れて行くのも、親だけで出かけるのも難しいから</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为不论是带孩子还是不带孩子出门都比较困难</t>
   </si>
 </sst>
 </file>
@@ -19247,7 +19326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -19348,6 +19427,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -19372,8 +19454,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19679,10 +19761,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0DD02-A2A4-4913-87F3-FF074BB46E2F}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C1:C32"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19992,345 +20074,359 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>1346</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>1348</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>1349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>1735</v>
+        <v>1652</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>1347</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>1653</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>1735</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1808</v>
+      </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1656</v>
-      </c>
+        <v>1736</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1943</v>
-      </c>
+        <v>1654</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="E27" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52" t="s">
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="51"/>
+      <c r="B30" s="52" t="s">
         <v>1783</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>1216</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E30" s="37" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B30" s="52" t="s">
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B31" s="52" t="s">
         <v>1784</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>1733</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E31" s="37" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>1730</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E33" s="37" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C33" s="1" t="s">
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C34" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>1311</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E34" s="37" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>1809</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>1811</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>1812</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E35" s="37" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+    <row r="36" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>1188</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C36" s="37" t="s">
         <v>1189</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D36" s="37" t="s">
         <v>1194</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1193</v>
       </c>
       <c r="E36" s="37" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>1271</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B39" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>1265</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E39" s="37" t="s">
         <v>1266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1633</v>
+        <v>1522</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1635</v>
+        <v>1523</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1634</v>
+        <v>1524</v>
       </c>
       <c r="D41" t="s">
-        <v>1631</v>
+        <v>1525</v>
       </c>
       <c r="E41" t="s">
-        <v>1632</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1619</v>
+        <v>1633</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1621</v>
+        <v>1635</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1626</v>
+        <v>1634</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>1620</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>1629</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C44" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1627</v>
       </c>
       <c r="E44" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>1891</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1894</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>1895</v>
+        <v>1628</v>
       </c>
       <c r="D45" t="s">
-        <v>1899</v>
+        <v>1627</v>
       </c>
       <c r="E45" t="s">
-        <v>1900</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1894</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D46" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="E46" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>1893</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>1902</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>1904</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>1901</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>1903</v>
       </c>
     </row>
@@ -20345,7 +20441,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20435,6 +20531,12 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>1965</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2013</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -20943,10 +21045,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0935F-84C6-400A-BD4C-D1BEE4D7E2F4}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C1:C20"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -21237,30 +21339,28 @@
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E21" s="65"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>1749</v>
       </c>
-      <c r="B21" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>1696</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="E22" t="s">
         <v>1756</v>
@@ -21271,23 +21371,37 @@
         <v>1696</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="E23" t="s">
         <v>1756</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>1990</v>
-      </c>
       <c r="B24" t="s">
         <v>1696</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>1989</v>
       </c>
     </row>
@@ -22923,8 +23037,8 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A1:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -23912,7 +24026,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="56" t="s">
         <v>1997</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -25082,10 +25196,10 @@
       <c r="D1" s="11" t="s">
         <v>1954</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="59"/>
+      <c r="F1" s="60"/>
       <c r="I1" s="36" t="s">
         <v>1118</v>
       </c>
@@ -25105,7 +25219,7 @@
       <c r="C2" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="59" t="s">
         <v>1237</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -25114,7 +25228,7 @@
       <c r="F2" s="11" t="s">
         <v>1107</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="59" t="s">
         <v>1240</v>
       </c>
       <c r="H2" s="41" t="s">
@@ -25126,7 +25240,7 @@
       <c r="J2" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="59" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -25137,14 +25251,14 @@
       <c r="C3" s="43" t="s">
         <v>1098</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="36" t="s">
         <v>1222</v>
       </c>
@@ -25154,7 +25268,7 @@
       <c r="J3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="6" t="s">
         <v>1233</v>
       </c>
@@ -25178,14 +25292,14 @@
       <c r="C4" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="6" t="s">
         <v>1105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="36" t="s">
         <v>1223</v>
       </c>
@@ -25195,16 +25309,16 @@
       <c r="J4" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>1955</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="60" t="s">
         <v>1125</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="60"/>
       <c r="I6" s="36" t="s">
         <v>1119</v>
       </c>
@@ -25222,7 +25336,7 @@
       <c r="C7" s="43" t="s">
         <v>1121</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="59" t="s">
         <v>1238</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -25231,7 +25345,7 @@
       <c r="F7" s="11" t="s">
         <v>1129</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="59" t="s">
         <v>1241</v>
       </c>
       <c r="H7" s="41" t="s">
@@ -25243,7 +25357,7 @@
       <c r="J7" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="K7" s="59" t="s">
         <v>1244</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -25269,14 +25383,14 @@
       <c r="C8" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="6" t="s">
         <v>1127</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="G8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="10" t="s">
         <v>1225</v>
       </c>
@@ -25286,7 +25400,7 @@
       <c r="J8" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="6" t="s">
         <v>1148</v>
       </c>
@@ -25304,10 +25418,10 @@
       <c r="D10" s="11" t="s">
         <v>1956</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="60" t="s">
         <v>1117</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="60"/>
       <c r="I10" s="36" t="s">
         <v>1120</v>
       </c>
@@ -25325,7 +25439,7 @@
       <c r="C11" s="44" t="s">
         <v>1134</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="59" t="s">
         <v>1239</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -25334,7 +25448,7 @@
       <c r="F11" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="59" t="s">
         <v>1242</v>
       </c>
       <c r="H11" s="41" t="s">
@@ -25346,7 +25460,7 @@
       <c r="J11" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="59" t="s">
         <v>1666</v>
       </c>
       <c r="L11" s="6" t="s">
@@ -25372,14 +25486,14 @@
       <c r="C12" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="6" t="s">
         <v>1228</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="10" t="s">
         <v>1227</v>
       </c>
@@ -25389,7 +25503,7 @@
       <c r="J12" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
@@ -25469,15 +25583,15 @@
       <c r="A2" s="10" t="s">
         <v>1163</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>1169</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62" t="s">
         <v>1168</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="38" t="s">
         <v>1171</v>
       </c>
@@ -25493,25 +25607,25 @@
       <c r="A4" s="10" t="s">
         <v>1161</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>1185</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="63" t="s">
         <v>1184</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -27809,11 +27923,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF9327D-313E-42DC-975B-8EB30ECB4DE0}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -27915,197 +28029,212 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>1521</v>
-      </c>
+      <c r="A8"/>
       <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>1385</v>
+        <v>2009</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2010</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1384</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="15" t="s">
-        <v>1186</v>
+      <c r="A9" t="s">
+        <v>1521</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>758</v>
+        <v>1383</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>986</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="15"/>
-      <c r="C11" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
       <c r="C12" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="15"/>
+      <c r="C13" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="15" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
         <v>1512</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>1516</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="9"/>
+      <c r="C16" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
         <v>1770</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>1519</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9"/>
-      <c r="B18" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1771</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="9" t="s">
-        <v>1373</v>
-      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C21" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
         <v>1667</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>1669</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>1670</v>
       </c>
     </row>
@@ -28117,10 +28246,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028B95A2-C7CB-4D2C-9F00-BE8EDC23D65E}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28291,7 +28420,7 @@
       <c r="B13" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="57" t="s">
         <v>1257</v>
       </c>
       <c r="D13" s="31" t="s">
@@ -28304,7 +28433,7 @@
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="31"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="56"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="31" t="s">
         <v>942</v>
       </c>
@@ -28416,32 +28545,40 @@
         <v>1826</v>
       </c>
       <c r="B23" t="s">
-        <v>1696</v>
+        <v>1487</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1833</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1828</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>1827</v>
-      </c>
       <c r="B24" t="s">
         <v>1696</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>1829</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>1830</v>
       </c>
     </row>
@@ -28619,8 +28756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6952ADA-DA23-487F-8259-3506EB692067}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28755,7 +28892,7 @@
       <c r="B9" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="58" t="s">
         <v>762</v>
       </c>
       <c r="D9" s="31" t="s">
@@ -28764,14 +28901,14 @@
     </row>
     <row r="10" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
-      <c r="C10" s="57"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="31" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="C11" s="57"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="31" t="s">
         <v>945</v>
       </c>
@@ -28964,10 +29101,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3C2C0-A529-45AF-9E19-6A70A7319ED0}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29195,81 +29332,80 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" s="23"/>
-      <c r="B18" s="9" t="s">
-        <v>1905</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1906</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1689</v>
+      <c r="C18" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2005</v>
       </c>
       <c r="E18" t="s">
-        <v>1690</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="23"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>1905</v>
+      </c>
       <c r="C19" t="s">
-        <v>1918</v>
+        <v>1906</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="23"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="23"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="1" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B21" s="9" t="s">
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" s="9" t="s">
         <v>1480</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>1482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" s="9"/>
-      <c r="C22" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" s="9"/>
+      <c r="C24" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" s="9" t="s">
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="9" t="s">
         <v>1762</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>1759</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B25" s="9"/>
-      <c r="C25" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1766</v>
       </c>
       <c r="E25" t="s">
         <v>1760</v>
@@ -29278,10 +29414,10 @@
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="9"/>
       <c r="C26" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D26" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E26" t="s">
         <v>1760</v>
@@ -29290,334 +29426,346 @@
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D27" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E27" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B28" s="9" t="s">
-        <v>1672</v>
-      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1769</v>
+        <v>1765</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1768</v>
       </c>
       <c r="E28" t="s">
-        <v>1674</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="9" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" s="9" t="s">
         <v>1963</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>1207</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
         <v>1964</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>1211</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>1205</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>1206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B31" s="9" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="9" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B33" s="9" t="s">
         <v>1962</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>1960</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>1422</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" t="s">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
         <v>1957</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>1958</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B34" s="9" t="s">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B35" s="9" t="s">
         <v>1212</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>1208</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B35" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>861</v>
+        <v>1267</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>871</v>
+        <v>1282</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1426</v>
+        <v>1270</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1427</v>
+        <v>1213</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B37" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>870</v>
+      <c r="B37" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+        <v>1426</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B38" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B39" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1489</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1490</v>
-      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
         <v>1976</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>1979</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>1978</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="C41" s="1"/>
-    </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" s="49" t="s">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" s="49" t="s">
         <v>1261</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>1258</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>1259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A43" s="23"/>
-      <c r="B43" t="s">
-        <v>875</v>
-      </c>
-      <c r="C43" t="s">
-        <v>871</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="23"/>
-      <c r="B44"/>
-      <c r="C44"/>
+      <c r="B44" t="s">
+        <v>875</v>
+      </c>
+      <c r="C44" t="s">
+        <v>871</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="23"/>
-      <c r="B45" t="s">
-        <v>876</v>
-      </c>
-      <c r="C45" t="s">
-        <v>870</v>
-      </c>
+      <c r="B45"/>
+      <c r="C45"/>
       <c r="D45" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>939</v>
+        <v>881</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="23"/>
-      <c r="B46"/>
-      <c r="C46"/>
+      <c r="B46" t="s">
+        <v>876</v>
+      </c>
+      <c r="C46" t="s">
+        <v>870</v>
+      </c>
       <c r="D46" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A47" s="23"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>940</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D48" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
         <v>1491</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>1493</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B50" s="9" t="s">
+    <row r="51" spans="2:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B51" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>1497</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
+    <row r="52" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>1499</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E52" s="9" t="s">
         <v>1500</v>
       </c>
     </row>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0A395-4397-4E74-84EB-59616FA78C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C453755-53DE-434C-AE05-B5E2ACA660B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="0" windowWidth="17280" windowHeight="12360" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3936" yWindow="1344" windowWidth="17280" windowHeight="8964" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="2020">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -17977,9 +17977,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>半年経た「けいた」ないうちにｍ交通事故死者は5000人を突破「とっぱ」した</t>
-  </si>
-  <si>
     <t>还没到半年，交通事故的死者已经突破了5000人</t>
   </si>
   <si>
@@ -18823,6 +18820,16 @@
   </si>
   <si>
     <t>因为不论是带孩子还是不带孩子出门都比较困难</t>
+  </si>
+  <si>
+    <t>留学している息子からのメールに毎日楽しく過ごしていると書かれていて安心した</t>
+  </si>
+  <si>
+    <t>留学的儿子发来的邮件里写着每天都过得很开心，我就放心了。</t>
+  </si>
+  <si>
+    <t>半年経た「けいた」ないうちに交通事故死者は5000人を突破「とっぱ」した</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -19326,7 +19333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -19439,10 +19446,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -19453,9 +19460,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19763,7 +19767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0DD02-A2A4-4913-87F3-FF074BB46E2F}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="D3" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -20075,16 +20079,16 @@
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>2014</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>2015</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
         <v>2016</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20142,10 +20146,10 @@
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1942</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1943</v>
       </c>
       <c r="D28" t="s">
         <v>1663</v>
@@ -20488,10 +20492,10 @@
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C5" s="12"/>
     </row>
@@ -20505,21 +20509,21 @@
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D7" t="s">
         <v>1980</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>310</v>
@@ -20527,16 +20531,16 @@
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D9" t="s">
         <v>2012</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -21148,19 +21152,19 @@
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1857</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E8" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21168,10 +21172,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E9" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21243,19 +21247,19 @@
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B15" t="s">
         <v>1857</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1657</v>
       </c>
       <c r="E15" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21263,13 +21267,13 @@
         <v>1857</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E16" t="s">
         <v>1940</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21291,19 +21295,19 @@
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B18" t="s">
         <v>1696</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D18" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E18" t="s">
         <v>1974</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -21328,26 +21332,26 @@
         <v>1857</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D20" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E20" s="54" t="s">
         <v>1934</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B21" t="s">
         <v>1857</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="E21" s="65"/>
+        <v>2007</v>
+      </c>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
@@ -21396,13 +21400,13 @@
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B25" t="s">
         <v>1696</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
   </sheetData>
@@ -21687,13 +21691,13 @@
         <v>1857</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E17" t="s">
         <v>1932</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -21763,7 +21767,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1452</v>
@@ -21785,13 +21789,13 @@
         <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>1992</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="9" t="s">
         <v>1993</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -22683,7 +22687,7 @@
         <v>1581</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1583</v>
@@ -22696,10 +22700,10 @@
       <c r="A7" s="13"/>
       <c r="C7" s="55"/>
       <c r="D7" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E7" t="s">
         <v>1983</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -22740,16 +22744,16 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1985</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>1986</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>1987</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1988</v>
       </c>
     </row>
   </sheetData>
@@ -24027,16 +24031,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B66" s="56" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>1997</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>1998</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>1999</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
@@ -24914,7 +24918,7 @@
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1286</v>
@@ -24934,17 +24938,17 @@
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>1857</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F53" t="s">
         <v>1926</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -25194,12 +25198,12 @@
         <v>1219</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>1954</v>
-      </c>
-      <c r="E1" s="60" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E1" s="61" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="60"/>
+      <c r="F1" s="61"/>
       <c r="I1" s="36" t="s">
         <v>1118</v>
       </c>
@@ -25251,14 +25255,14 @@
       <c r="C3" s="43" t="s">
         <v>1098</v>
       </c>
-      <c r="D3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="36" t="s">
         <v>1222</v>
       </c>
@@ -25268,7 +25272,7 @@
       <c r="J3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="6" t="s">
         <v>1233</v>
       </c>
@@ -25292,14 +25296,14 @@
       <c r="C4" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6" t="s">
         <v>1105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="G4" s="60"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="36" t="s">
         <v>1223</v>
       </c>
@@ -25309,16 +25313,16 @@
       <c r="J4" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="K4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E6" s="60" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E6" s="61" t="s">
         <v>1125</v>
       </c>
-      <c r="F6" s="60"/>
+      <c r="F6" s="61"/>
       <c r="I6" s="36" t="s">
         <v>1119</v>
       </c>
@@ -25383,14 +25387,14 @@
       <c r="C8" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="6" t="s">
         <v>1127</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="10" t="s">
         <v>1225</v>
       </c>
@@ -25400,7 +25404,7 @@
       <c r="J8" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="6" t="s">
         <v>1148</v>
       </c>
@@ -25416,12 +25420,12 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
-        <v>1956</v>
-      </c>
-      <c r="E10" s="60" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E10" s="61" t="s">
         <v>1117</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="61"/>
       <c r="I10" s="36" t="s">
         <v>1120</v>
       </c>
@@ -25486,14 +25490,14 @@
       <c r="C12" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="6" t="s">
         <v>1228</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="10" t="s">
         <v>1227</v>
       </c>
@@ -25503,7 +25507,7 @@
       <c r="J12" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="K12" s="61"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
@@ -25515,11 +25519,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -25527,6 +25526,11 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25590,8 +25594,8 @@
       <c r="D2" s="62" t="s">
         <v>1168</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="38" t="s">
         <v>1171</v>
       </c>
@@ -25621,10 +25625,10 @@
       <c r="A5" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -28019,13 +28023,13 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="C7" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D7" t="s">
         <v>1928</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1929</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -28034,13 +28038,13 @@
         <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D8" t="s">
         <v>2009</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="9" t="s">
         <v>2010</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -28548,7 +28552,7 @@
         <v>1487</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28816,13 +28820,13 @@
         <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1967</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>1968</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1969</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28856,19 +28860,19 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>1857</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D7" t="s">
         <v>1945</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1946</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
@@ -29101,10 +29105,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3C2C0-A529-45AF-9E19-6A70A7319ED0}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29163,58 +29167,54 @@
         <v>186</v>
       </c>
       <c r="D4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E4" t="s">
         <v>1995</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E5" t="s">
         <v>2001</v>
       </c>
-      <c r="E5" t="s">
-        <v>2002</v>
-      </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" s="9" t="s">
         <v>1320</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>1322</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="9"/>
-      <c r="C7" s="1"/>
-      <c r="D7" t="s">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" s="9"/>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
         <v>1758</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>1324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B8" s="9" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -29222,202 +29222,204 @@
         <v>1615</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1616</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B10" s="9"/>
-      <c r="C10" s="1"/>
-    </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="23" t="s">
         <v>1260</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>1527</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>1531</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>1533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
-      <c r="B13" s="9" t="s">
-        <v>1913</v>
-      </c>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
-        <v>1914</v>
+        <v>1528</v>
       </c>
       <c r="D13" t="s">
-        <v>1915</v>
+        <v>1529</v>
       </c>
       <c r="E13" t="s">
-        <v>1916</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="9" t="s">
-        <v>1910</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1907</v>
+        <v>1913</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1914</v>
       </c>
       <c r="D14" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="E14" t="s">
-        <v>1688</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>1910</v>
+      </c>
       <c r="C15" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>1907</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1688</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="23"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="1" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1911</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1912</v>
-      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="23"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="23"/>
+      <c r="B18" s="9" t="s">
         <v>1920</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>1921</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E18" t="s">
         <v>1922</v>
       </c>
-      <c r="E17" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C19" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>2004</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E19" t="s">
         <v>2005</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" s="23"/>
-      <c r="B19" s="9" t="s">
-        <v>1905</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1906</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="23"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>1905</v>
+      </c>
       <c r="C20" t="s">
-        <v>1918</v>
+        <v>1906</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" s="23"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="1" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" s="9" t="s">
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B23" s="9" t="s">
         <v>1480</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>1482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B23" s="9"/>
-      <c r="C23" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="9"/>
+      <c r="C25" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B25" s="9" t="s">
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
         <v>1762</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>1759</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" s="9"/>
-      <c r="C26" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1766</v>
       </c>
       <c r="E26" t="s">
         <v>1760</v>
@@ -29426,10 +29428,10 @@
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D27" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E27" t="s">
         <v>1760</v>
@@ -29438,334 +29440,346 @@
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D28" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E28" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" s="9" t="s">
-        <v>1672</v>
-      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1769</v>
+        <v>1765</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1768</v>
       </c>
       <c r="E29" t="s">
-        <v>1674</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="9" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B31" s="9" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
         <v>1963</v>
       </c>
-      <c r="C30" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>1211</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>1205</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>1206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B32" s="9" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="9" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D33" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" s="9" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D34" t="s">
         <v>1422</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" t="s">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>1957</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B35" s="9" t="s">
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B36" s="9" t="s">
         <v>1212</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>1208</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>861</v>
+        <v>1267</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>871</v>
+        <v>1282</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1426</v>
+        <v>1270</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1427</v>
+        <v>1213</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B38" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>870</v>
+      <c r="B38" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+        <v>1426</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B40" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1489</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1490</v>
-      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A43" s="49" t="s">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A44" s="49" t="s">
         <v>1261</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>1258</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>1259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A44" s="23"/>
-      <c r="B44" t="s">
-        <v>875</v>
-      </c>
-      <c r="C44" t="s">
-        <v>871</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="23"/>
-      <c r="B45"/>
-      <c r="C45"/>
+      <c r="B45" t="s">
+        <v>875</v>
+      </c>
+      <c r="C45" t="s">
+        <v>871</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="23"/>
-      <c r="B46" t="s">
-        <v>876</v>
-      </c>
-      <c r="C46" t="s">
-        <v>870</v>
-      </c>
+      <c r="B46"/>
+      <c r="C46"/>
       <c r="D46" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>939</v>
+        <v>881</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="23"/>
-      <c r="B47"/>
-      <c r="C47"/>
+      <c r="B47" t="s">
+        <v>876</v>
+      </c>
+      <c r="C47" t="s">
+        <v>870</v>
+      </c>
       <c r="D47" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A48" s="23"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>940</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D49" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
         <v>1491</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>1493</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B51" s="9" t="s">
+    <row r="52" spans="2:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B52" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>1497</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E52" s="9" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
+    <row r="53" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>1499</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E53" s="9" t="s">
         <v>1500</v>
       </c>
     </row>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C453755-53DE-434C-AE05-B5E2ACA660B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE842A-657C-4D45-8B78-4C6D53E92A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="1344" windowWidth="17280" windowHeight="8964" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="2038">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -18829,6 +18829,77 @@
   </si>
   <si>
     <t>半年経た「けいた」ないうちに交通事故死者は5000人を突破「とっぱ」した</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「」って</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「」なんか／など</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんか／など</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほど～はない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの先生ほどわかやすく教えてくれる先生はいないと思う</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我认为没有比这个老师讲得更浅显易懂的老师了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果…就好了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…といい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ってみるといいです</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果去就好了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐藤さんには、絶対に音楽家になるという強い意志「いし」があるようだ。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐藤似乎有成为音乐家的强烈愿望。</t>
+  </si>
+  <si>
+    <t>到了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…+になる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日になって熱が下がって「さがって」いたらいいです</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到了明天要是发热下降的话是可以的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -19446,10 +19517,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -23041,8 +23112,8 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A1:C61"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -24076,10 +24147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="F46" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -24904,126 +24975,155 @@
       <c r="D49" s="1" t="s">
         <v>1720</v>
       </c>
+      <c r="E49" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2033</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>1331</v>
+        <v>2020</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1719</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A51" s="15"/>
       <c r="B51" s="1" t="s">
-        <v>1923</v>
+        <v>2023</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>2022</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>1598</v>
+        <v>1331</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B54" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B55" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>1857</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" t="s">
+      <c r="D55" s="1"/>
+      <c r="E55" t="s">
         <v>1925</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F55" t="s">
         <v>1926</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A54" s="15" t="s">
+    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A56" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" t="s">
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" t="s">
         <v>429</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F56" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A55" s="15"/>
-      <c r="B55" s="1" t="s">
+    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A57" s="15"/>
+      <c r="B57" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E57" t="s">
         <v>430</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F57" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A56" s="18" t="s">
+    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A58" s="18" t="s">
         <v>1382</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E58" t="s">
         <v>1378</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F58" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A57" s="18"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" t="s">
+    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A59" s="18"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" t="s">
         <v>1376</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F59" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A58" s="15"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" t="s">
+    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A60" s="15"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" t="s">
         <v>1380</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F60" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A59" s="15"/>
+    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A61" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -25200,10 +25300,10 @@
       <c r="D1" s="11" t="s">
         <v>1953</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>1116</v>
       </c>
-      <c r="F1" s="61"/>
+      <c r="F1" s="60"/>
       <c r="I1" s="36" t="s">
         <v>1118</v>
       </c>
@@ -25255,14 +25355,14 @@
       <c r="C3" s="43" t="s">
         <v>1098</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="36" t="s">
         <v>1222</v>
       </c>
@@ -25272,7 +25372,7 @@
       <c r="J3" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="6" t="s">
         <v>1233</v>
       </c>
@@ -25296,14 +25396,14 @@
       <c r="C4" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="6" t="s">
         <v>1105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="36" t="s">
         <v>1223</v>
       </c>
@@ -25313,16 +25413,16 @@
       <c r="J4" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="K4" s="61"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>1954</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="60" t="s">
         <v>1125</v>
       </c>
-      <c r="F6" s="61"/>
+      <c r="F6" s="60"/>
       <c r="I6" s="36" t="s">
         <v>1119</v>
       </c>
@@ -25387,14 +25487,14 @@
       <c r="C8" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="6" t="s">
         <v>1127</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="G8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="10" t="s">
         <v>1225</v>
       </c>
@@ -25404,7 +25504,7 @@
       <c r="J8" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="6" t="s">
         <v>1148</v>
       </c>
@@ -25422,10 +25522,10 @@
       <c r="D10" s="11" t="s">
         <v>1955</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="60" t="s">
         <v>1117</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="60"/>
       <c r="I10" s="36" t="s">
         <v>1120</v>
       </c>
@@ -25490,14 +25590,14 @@
       <c r="C12" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="6" t="s">
         <v>1228</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="10" t="s">
         <v>1227</v>
       </c>
@@ -25507,7 +25607,7 @@
       <c r="J12" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
@@ -25519,6 +25619,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -25526,11 +25631,6 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25594,8 +25694,8 @@
       <c r="D2" s="62" t="s">
         <v>1168</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="38" t="s">
         <v>1171</v>
       </c>
@@ -25625,10 +25725,10 @@
       <c r="A5" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -28250,10 +28350,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028B95A2-C7CB-4D2C-9F00-BE8EDC23D65E}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28361,41 +28461,50 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
         <v>1536</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>1534</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>1537</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>1288</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1299</v>
+        <v>1291</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28403,192 +28512,200 @@
         <v>1286</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1838</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>1840</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" s="32" t="s">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" s="32" t="s">
         <v>943</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C14" s="57" t="s">
         <v>1257</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D14" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E14" s="31" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" s="31"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="31" t="s">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="31"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="31" t="s">
         <v>942</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E15" s="31" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
         <v>1360</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>1472</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>1487</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C17" s="1" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C19" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>1478</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>1479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1489</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1774</v>
+        <v>1486</v>
       </c>
       <c r="B20" t="s">
         <v>1487</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1777</v>
+        <v>1488</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1489</v>
       </c>
       <c r="E20" t="s">
-        <v>1778</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>1774</v>
+      </c>
       <c r="B21" t="s">
         <v>1487</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C22" s="1" t="s">
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C23" s="1" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>1826</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>1487</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1833</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1828</v>
-      </c>
-    </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>1827</v>
-      </c>
       <c r="B25" t="s">
         <v>1696</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>1829</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>1830</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28758,10 +28875,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6952ADA-DA23-487F-8259-3506EB692067}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28860,243 +28977,260 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>1943</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B8" s="18" t="s">
         <v>1857</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>1944</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>1945</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+    <row r="9" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B9" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C9" s="28" t="s">
         <v>727</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>730</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C10" s="58" t="s">
         <v>762</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D10" s="31" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="31" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="C11" s="58"/>
       <c r="D11" s="31" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="31" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
-      <c r="C13" s="1" t="s">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" s="9"/>
+      <c r="C14" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1365</v>
-      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>1792</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>1798</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
         <v>1801</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1796</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1799</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>1509</v>
+        <v>1795</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>1794</v>
+        <v>1509</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
+      <c r="B20" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1577</v>
+        <v>1272</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C22" t="s">
-        <v>1578</v>
+      <c r="C22" s="1" t="s">
+        <v>1273</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1580</v>
+        <v>1274</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>1605</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>1696</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>1609</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>1610</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29105,10 +29239,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3C2C0-A529-45AF-9E19-6A70A7319ED0}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29620,166 +29754,182 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>1486</v>
+      <c r="B41" s="9" t="s">
+        <v>2034</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1489</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1490</v>
-      </c>
+        <v>2035</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
         <v>1975</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>1978</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>1977</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="C43" s="1"/>
-    </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A44" s="49" t="s">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" s="49" t="s">
         <v>1261</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>1258</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>1259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" s="23"/>
-      <c r="B45" t="s">
-        <v>875</v>
-      </c>
-      <c r="C45" t="s">
-        <v>871</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="23"/>
-      <c r="B46"/>
-      <c r="C46"/>
+      <c r="B46" t="s">
+        <v>875</v>
+      </c>
+      <c r="C46" t="s">
+        <v>871</v>
+      </c>
       <c r="D46" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="23"/>
-      <c r="B47" t="s">
-        <v>876</v>
-      </c>
-      <c r="C47" t="s">
-        <v>870</v>
-      </c>
+      <c r="B47"/>
+      <c r="C47"/>
       <c r="D47" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>939</v>
+        <v>881</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="23"/>
-      <c r="B48"/>
-      <c r="C48"/>
+      <c r="B48" t="s">
+        <v>876</v>
+      </c>
+      <c r="C48" t="s">
+        <v>870</v>
+      </c>
       <c r="D48" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A49" s="23"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
         <v>1462</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C50" s="25" t="s">
         <v>1460</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>1466</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
+    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
         <v>1461</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C51" s="25" t="s">
         <v>1459</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>1464</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
         <v>1491</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>1493</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E52" s="9" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B52" s="9" t="s">
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B53" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>1497</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E53" s="9" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
+    <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
         <v>1499</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E54" s="9" t="s">
         <v>1500</v>
       </c>
     </row>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE842A-657C-4D45-8B78-4C6D53E92A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05EF917-4AC0-4B7E-9F44-57EADFA66ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="14928" windowHeight="11304" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="2038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="2041">
   <si>
     <t>…は…です</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5032,50 +5032,6 @@
   </si>
   <si>
     <t>将来、私はJava開発者になる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>将来、我</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>变</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>成Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>者</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -18901,6 +18857,40 @@
   <si>
     <t>到了明天要是发热下降的话是可以的</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的心情变得沉重了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+の+だろう</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>だから、退屈を感じた一部の生物、或は生物似たなんかが、何らの方法で時間の扉「とびら」を開けたのだろう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此，一部分感到无聊的生物——或者说类似生物的存在——可能通过某种方式打开了时间之门吧。</t>
   </si>
 </sst>
 </file>
@@ -19517,10 +19507,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -19838,8 +19828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0DD02-A2A4-4913-87F3-FF074BB46E2F}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19867,58 +19857,58 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>1661</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>1283</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1285</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>1209</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1310</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9"/>
@@ -19926,583 +19916,583 @@
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>1717</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>1404</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>1406</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>1434</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D12" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>1408</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E14" t="s">
         <v>1358</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E15" t="s">
         <v>1354</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E16" t="s">
         <v>1356</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>1505</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D18" t="s">
         <v>1540</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>1541</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1508</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>2013</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>2014</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
         <v>2015</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2016</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D23" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E23" t="s">
         <v>1348</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>1652</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E27" t="s">
         <v>1655</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1941</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>1942</v>
-      </c>
       <c r="D28" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E28" t="s">
         <v>1663</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="51"/>
       <c r="B30" s="52" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E30" s="37" t="s">
         <v>1214</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="52" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E31" s="37" t="s">
         <v>1733</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>1730</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C34" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D34" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E34" s="37" t="s">
         <v>1311</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" t="s">
         <v>1811</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" s="37" t="s">
         <v>1812</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C36" s="37" t="s">
         <v>1188</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C36" s="37" t="s">
+      <c r="D36" s="37" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E36" s="37" t="s">
         <v>1189</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C37" t="s">
         <v>1191</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>1192</v>
       </c>
-      <c r="D37" t="s">
-        <v>1193</v>
-      </c>
       <c r="E37" s="37" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D38" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E38" t="s">
         <v>1217</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E39" s="37" t="s">
         <v>1265</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" t="s">
         <v>1524</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>1525</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1634</v>
-      </c>
       <c r="D42" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E42" t="s">
         <v>1631</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>1625</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>1623</v>
-      </c>
       <c r="D44" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E44" t="s">
         <v>1629</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C45" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D45" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E45" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>1894</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>1895</v>
-      </c>
       <c r="D46" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E46" t="s">
         <v>1899</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D47" t="s">
         <v>1896</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>1897</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E48" t="s">
         <v>1902</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1901</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1903</v>
       </c>
     </row>
   </sheetData>
@@ -20528,73 +20518,73 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1739</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1741</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>1847</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D7" t="s">
         <v>1979</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>310</v>
@@ -20602,55 +20592,55 @@
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D9" t="s">
         <v>2011</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>1747</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C11" t="s">
         <v>1819</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1820</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C12" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D12" t="s">
         <v>1822</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1823</v>
       </c>
     </row>
   </sheetData>
@@ -20693,19 +20683,19 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20713,75 +20703,75 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" t="s">
+        <v>682</v>
+      </c>
+      <c r="E4" t="s">
         <v>683</v>
-      </c>
-      <c r="E4" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>807</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E5" t="s">
         <v>808</v>
-      </c>
-      <c r="E5" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="28" t="s">
         <v>713</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="E6" t="s">
         <v>714</v>
-      </c>
-      <c r="E6" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" t="s">
         <v>716</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>717</v>
-      </c>
-      <c r="E7" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20790,19 +20780,19 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D9" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="E9" t="s">
         <v>820</v>
-      </c>
-      <c r="E9" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20810,54 +20800,54 @@
         <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D10" t="s">
         <v>834</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>835</v>
-      </c>
-      <c r="E10" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>720</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D11" s="28" t="s">
+      <c r="E11" t="s">
         <v>721</v>
-      </c>
-      <c r="E11" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="C12" s="23" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D13" t="s">
         <v>837</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>838</v>
-      </c>
-      <c r="E13" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20866,36 +20856,36 @@
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>848</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D15" t="s">
+        <v>850</v>
+      </c>
+      <c r="E15" t="s">
         <v>849</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>853</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D15" t="s">
-        <v>851</v>
-      </c>
-      <c r="E15" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>1675</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="C16" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" t="s">
         <v>1678</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -20909,10 +20899,10 @@
         <v>439</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -20920,7 +20910,7 @@
         <v>426</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -20934,7 +20924,7 @@
         <v>448</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20942,7 +20932,7 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>445</v>
@@ -20967,149 +20957,149 @@
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E22" t="s">
         <v>662</v>
-      </c>
-      <c r="E22" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B23" t="s">
         <v>1335</v>
       </c>
-      <c r="B23" t="s">
-        <v>1336</v>
-      </c>
       <c r="C23" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E23" t="s">
         <v>1338</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D24" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E24" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E25" t="s">
         <v>1440</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E26" t="s">
         <v>1442</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E27" t="s">
         <v>1444</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C28" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E28" t="s">
         <v>1447</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" t="s">
         <v>856</v>
-      </c>
-      <c r="E29" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="9" t="s">
         <v>1315</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E31" t="s">
         <v>1318</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E33" t="s">
         <v>1575</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1576</v>
       </c>
     </row>
   </sheetData>
@@ -21120,10 +21110,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0935F-84C6-400A-BD4C-D1BEE4D7E2F4}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -21171,24 +21161,24 @@
         <v>650</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="14"/>
       <c r="C4" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>465</v>
@@ -21200,42 +21190,42 @@
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="C6" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="C7" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E8" t="s">
         <v>1947</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1952</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21243,241 +21233,254 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E9" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1569</v>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="25" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2040</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>1592</v>
+      <c r="A11" s="1" t="s">
+        <v>1565</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="D13" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="D12" s="1" t="s">
+      <c r="E13" t="s">
         <v>1595</v>
       </c>
-      <c r="E12" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="C15" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D15" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="C14" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
         <v>1603</v>
       </c>
-      <c r="E14" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="B15" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D17" t="s">
         <v>1937</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="E17" t="s">
         <v>1939</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1938</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D19" t="s">
         <v>1972</v>
       </c>
-      <c r="B18" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
         <v>1973</v>
       </c>
-      <c r="E18" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E20" t="s">
         <v>1701</v>
       </c>
-      <c r="E19" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1935</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E21" s="54" t="s">
         <v>1933</v>
       </c>
-      <c r="E20" s="54" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>2006</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1749</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1751</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1753</v>
       </c>
       <c r="E23" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" t="s">
         <v>1755</v>
       </c>
-      <c r="E24" t="s">
-        <v>1756</v>
-      </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>1989</v>
-      </c>
       <c r="B25" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>1988</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1987</v>
       </c>
     </row>
   </sheetData>
@@ -21576,13 +21579,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>68</v>
@@ -21591,18 +21594,18 @@
         <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>69</v>
@@ -21611,32 +21614,32 @@
         <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>50</v>
@@ -21645,20 +21648,20 @@
         <v>444</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="D10" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>443</v>
@@ -21708,7 +21711,7 @@
         <v>95</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -21734,41 +21737,41 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="40" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E15" t="s">
         <v>1590</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="40"/>
       <c r="D16" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E16" t="s">
         <v>1588</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="40" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E17" t="s">
         <v>1931</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1930</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -21779,7 +21782,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>134</v>
@@ -21796,7 +21799,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>131</v>
@@ -21807,52 +21810,52 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>1454</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>1452</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>1456</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -21860,80 +21863,80 @@
         <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>1991</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="9" t="s">
         <v>1992</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>1993</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>1562</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
   </sheetData>
@@ -21981,27 +21984,27 @@
         <v>388</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -22015,80 +22018,80 @@
         <v>389</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" t="s">
         <v>1612</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>1638</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D9" t="s">
         <v>1683</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1" t="s">
         <v>1684</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1685</v>
       </c>
     </row>
   </sheetData>
@@ -22242,7 +22245,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>551</v>
@@ -22306,7 +22309,7 @@
         <v>413</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -22326,7 +22329,7 @@
         <v>476</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>469</v>
@@ -22351,10 +22354,10 @@
         <v>476</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -22362,7 +22365,7 @@
         <v>499</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -22376,7 +22379,7 @@
         <v>481</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>473</v>
@@ -22401,7 +22404,7 @@
         <v>476</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -22420,7 +22423,7 @@
         <v>481</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>472</v>
@@ -22477,7 +22480,7 @@
         <v>518</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>527</v>
@@ -22509,7 +22512,7 @@
         <v>518</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>523</v>
@@ -22529,7 +22532,7 @@
         <v>518</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>539</v>
@@ -22549,7 +22552,7 @@
         <v>518</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>537</v>
@@ -22722,7 +22725,7 @@
         <v>508</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D3" t="s">
         <v>509</v>
@@ -22741,13 +22744,13 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D5" t="s">
         <v>1816</v>
       </c>
-      <c r="D5" t="s">
-        <v>1817</v>
-      </c>
       <c r="E5" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -22755,76 +22758,76 @@
         <v>507</v>
       </c>
       <c r="B6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E6" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="C7" s="55"/>
       <c r="D7" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E7" t="s">
         <v>1982</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E8" t="s">
         <v>1584</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E9" t="s">
         <v>1725</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E10" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1984</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>1985</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>1986</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1987</v>
       </c>
     </row>
   </sheetData>
@@ -22855,13 +22858,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>575</v>
@@ -22870,7 +22873,7 @@
         <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -22878,36 +22881,36 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>812</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>581</v>
@@ -22916,24 +22919,24 @@
         <v>582</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>580</v>
@@ -22942,24 +22945,24 @@
         <v>576</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>574</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>578</v>
@@ -22968,50 +22971,50 @@
         <v>579</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>573</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>577</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>572</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>145</v>
@@ -23020,85 +23023,85 @@
         <v>583</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>784</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="9" t="s">
         <v>791</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>1416</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="47"/>
       <c r="D13" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>1418</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="47"/>
       <c r="D14" s="23" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="47"/>
       <c r="C15" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D15" t="s">
         <v>1412</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>1413</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1414</v>
       </c>
     </row>
   </sheetData>
@@ -23112,8 +23115,8 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A67"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A32:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -23145,7 +23148,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>378</v>
@@ -23162,7 +23165,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>374</v>
@@ -23196,13 +23199,13 @@
         <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>375</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -23213,146 +23216,146 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D9" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E9" t="s">
         <v>1868</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D10" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E10" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D11" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E11" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>1858</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>1859</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D13" t="s">
+        <v>934</v>
+      </c>
+      <c r="E13" t="s">
         <v>935</v>
-      </c>
-      <c r="E13" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -23369,7 +23372,7 @@
         <v>368</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -23380,16 +23383,16 @@
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>372</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -23406,13 +23409,13 @@
         <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>894</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -23423,13 +23426,13 @@
         <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -23441,43 +23444,43 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="17" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>49</v>
@@ -23489,19 +23492,19 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>50</v>
@@ -23510,7 +23513,7 @@
         <v>646</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>75</v>
@@ -23518,13 +23521,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>53</v>
@@ -23533,10 +23536,10 @@
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>54</v>
@@ -23545,16 +23548,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>76</v>
@@ -23562,13 +23565,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>51</v>
@@ -23580,10 +23583,10 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>52</v>
@@ -23612,10 +23615,10 @@
         <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>58</v>
@@ -23624,10 +23627,10 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="15"/>
       <c r="B33" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>59</v>
@@ -23653,10 +23656,10 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="15"/>
       <c r="B35" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>60</v>
@@ -23665,10 +23668,10 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="15"/>
       <c r="B36" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>61</v>
@@ -23676,115 +23679,115 @@
     </row>
     <row r="37" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="18" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1681</v>
-      </c>
       <c r="D37" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>1678</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="18"/>
       <c r="B38" s="6"/>
       <c r="D38" s="54" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E38" t="s">
         <v>1878</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="18" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D39" t="s">
         <v>1875</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>1876</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="18" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>1880</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" t="s">
         <v>1881</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" s="9" t="s">
         <v>1882</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="9" t="s">
         <v>1706</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="18" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1884</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1885</v>
-      </c>
       <c r="D42" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E42" t="s">
         <v>1889</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="18"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D43" t="s">
         <v>1886</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>1887</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>63</v>
@@ -23798,13 +23801,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>122</v>
@@ -23815,7 +23818,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>121</v>
@@ -23823,13 +23826,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="17" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>87</v>
@@ -23837,41 +23840,41 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B50" s="33" t="s">
         <v>50</v>
@@ -23891,7 +23894,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>47</v>
@@ -23908,7 +23911,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>48</v>
@@ -23944,46 +23947,46 @@
         <v>115</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E55" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D56" t="s">
+        <v>908</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>434</v>
@@ -23995,55 +23998,55 @@
         <v>436</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="59" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>1546</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="60" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D61" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
@@ -24051,13 +24054,13 @@
         <v>328</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E62" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
@@ -24065,78 +24068,78 @@
         <v>328</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E63" t="s">
         <v>1556</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E64" t="s">
         <v>1590</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B65" s="40"/>
       <c r="D65" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E65" t="s">
         <v>1588</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B66" s="56" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>1997</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>1998</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>1999</v>
       </c>
     </row>
     <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>1607</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="68" spans="1:5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E68" t="s">
         <v>1609</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1610</v>
       </c>
     </row>
   </sheetData>
@@ -24149,8 +24152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -24383,7 +24386,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>586</v>
@@ -24400,7 +24403,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24417,7 +24420,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -24431,7 +24434,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>622</v>
@@ -24521,7 +24524,7 @@
         <v>394</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>634</v>
@@ -24538,7 +24541,7 @@
         <v>394</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -24556,7 +24559,7 @@
         <v>394</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>635</v>
@@ -24573,7 +24576,7 @@
         <v>394</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -24866,7 +24869,7 @@
     </row>
     <row r="42" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>63</v>
@@ -24875,12 +24878,12 @@
         <v>411</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>394</v>
@@ -24891,7 +24894,7 @@
     </row>
     <row r="44" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
@@ -24902,153 +24905,153 @@
     </row>
     <row r="45" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="15" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>1328</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="15" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E49" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F49" t="s">
         <v>2032</v>
-      </c>
-      <c r="F49" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>2020</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="15"/>
       <c r="B51" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F55" t="s">
         <v>1925</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -25081,22 +25084,22 @@
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A58" s="18" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E58" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F58" t="s">
         <v>1378</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -25104,10 +25107,10 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F59" t="s">
         <v>1376</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -25116,10 +25119,10 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F60" t="s">
         <v>1380</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -25168,95 +25171,95 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>1646</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="9" t="s">
         <v>1643</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>1649</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>1650</v>
       </c>
     </row>
   </sheetData>
@@ -25295,335 +25298,330 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>1953</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F1" s="60"/>
+        <v>1952</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F1" s="61"/>
       <c r="I1" s="36" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>1220</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>1221</v>
-      </c>
       <c r="I2" s="37" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K2" s="59" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D3" s="60"/>
+        <v>1097</v>
+      </c>
+      <c r="D3" s="61"/>
       <c r="E3" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G3" s="60"/>
+        <v>1107</v>
+      </c>
+      <c r="G3" s="61"/>
       <c r="H3" s="36" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1111</v>
-      </c>
-      <c r="K3" s="60"/>
+        <v>1110</v>
+      </c>
+      <c r="K3" s="61"/>
       <c r="L3" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>1233</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>1234</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>1236</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>1101</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D4" s="60"/>
+        <v>1098</v>
+      </c>
+      <c r="D4" s="61"/>
       <c r="E4" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G4" s="60"/>
+        <v>1108</v>
+      </c>
+      <c r="G4" s="61"/>
       <c r="H4" s="36" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="K4" s="60"/>
+        <v>1112</v>
+      </c>
+      <c r="K4" s="61"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
-        <v>1954</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F6" s="60"/>
+        <v>1953</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F6" s="61"/>
       <c r="I6" s="36" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>1129</v>
       </c>
-      <c r="G7" s="59" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>1130</v>
-      </c>
       <c r="J7" s="11" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K7" s="59" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>1145</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>1146</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D8" s="61"/>
+        <v>1121</v>
+      </c>
+      <c r="D8" s="60"/>
       <c r="E8" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="10" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1133</v>
-      </c>
-      <c r="K8" s="61"/>
+        <v>1132</v>
+      </c>
+      <c r="K8" s="60"/>
       <c r="L8" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>1148</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>1149</v>
-      </c>
       <c r="N8" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F10" s="60"/>
+        <v>1954</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F10" s="61"/>
       <c r="I10" s="36" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>1229</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>1226</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>1230</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K11" s="59" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="M11" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>1151</v>
-      </c>
       <c r="O11" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D12" s="61"/>
+        <v>1135</v>
+      </c>
+      <c r="D12" s="60"/>
       <c r="E12" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G12" s="61"/>
+        <v>1139</v>
+      </c>
+      <c r="G12" s="60"/>
       <c r="H12" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K12" s="61"/>
+        <v>1138</v>
+      </c>
+      <c r="K12" s="60"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -25631,6 +25629,11 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25656,89 +25659,89 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1159</v>
-      </c>
       <c r="D1" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1166</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+        <v>1167</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="38" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>1171</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>1172</v>
-      </c>
       <c r="I2" s="36" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C4" s="62"/>
       <c r="D4" s="63" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+        <v>1163</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -25746,45 +25749,45 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>1175</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>1176</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>1178</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1181</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>1182</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1183</v>
       </c>
     </row>
   </sheetData>
@@ -26647,7 +26650,7 @@
         <v>258</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>89</v>
@@ -26669,7 +26672,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>275</v>
@@ -26683,19 +26686,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>310</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -26703,7 +26706,7 @@
         <v>315</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -26711,7 +26714,7 @@
         <v>317</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -26728,7 +26731,7 @@
         <v>380</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -26736,123 +26739,123 @@
         <v>320</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>1074</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
       <c r="B10" s="19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>1072</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="18" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>1080</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="18" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1069</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="18" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>1085</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>1006</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>1009</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -26866,10 +26869,10 @@
         <v>323</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -26881,7 +26884,7 @@
         <v>324</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -26898,7 +26901,7 @@
         <v>313</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -26931,7 +26934,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>302</v>
@@ -26948,54 +26951,54 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="15"/>
       <c r="C24" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="15"/>
       <c r="C25" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="15"/>
       <c r="C26" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>1020</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>286</v>
@@ -27012,24 +27015,24 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="18" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="D28" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>276</v>
@@ -27041,12 +27044,12 @@
         <v>277</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>276</v>
@@ -27058,7 +27061,7 @@
         <v>278</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -27075,7 +27078,7 @@
         <v>282</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -27083,7 +27086,7 @@
         <v>281</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -27091,13 +27094,13 @@
         <v>283</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>383</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
@@ -27108,7 +27111,7 @@
         <v>286</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>287</v>
@@ -27119,25 +27122,25 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C35" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="15"/>
       <c r="C36" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>381</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
@@ -27161,78 +27164,78 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D43" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="9" t="s">
         <v>1089</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D45" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>1091</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
@@ -27280,17 +27283,17 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -27298,10 +27301,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -27413,105 +27416,105 @@
         <v>346</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>347</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F13" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>992</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -27525,8 +27528,8 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -27654,7 +27657,7 @@
         <v>403</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -27685,86 +27688,86 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>649</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="31" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="31" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>863</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D19" s="31" t="s">
+      <c r="E19" t="s">
         <v>864</v>
-      </c>
-      <c r="E19" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20"/>
@@ -27780,7 +27783,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -27808,19 +27811,19 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>659</v>
+        <v>815</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>2037</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -27828,13 +27831,13 @@
         <v>657</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>588</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>602</v>
@@ -27928,13 +27931,13 @@
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="45" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>457</v>
@@ -27945,7 +27948,7 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>50</v>
@@ -27954,7 +27957,7 @@
         <v>458</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>601</v>
@@ -27962,7 +27965,7 @@
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="46" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>50</v>
@@ -27971,7 +27974,7 @@
         <v>448</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>600</v>
@@ -27982,41 +27985,41 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>1468</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>1469</v>
       </c>
     </row>
   </sheetData>
@@ -28057,79 +28060,79 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>1693</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E3" t="s">
         <v>1855</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
       <c r="C4" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="C5" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E5" t="s">
         <v>1851</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="C6" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D6" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E6" t="s">
         <v>1853</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="C7" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D7" t="s">
         <v>1927</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1928</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -28138,35 +28141,35 @@
         <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D8" t="s">
         <v>2008</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="9" t="s">
         <v>2009</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>1383</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>328</v>
@@ -28178,107 +28181,107 @@
         <v>379</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
       <c r="C12" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
       <c r="C13" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E13" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D15" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E15" t="s">
         <v>1516</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="C16" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D17" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E17" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -28286,7 +28289,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -28297,49 +28300,49 @@
         <v>328</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D19" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E19" t="s">
         <v>1771</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
         <v>1668</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>1669</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -28376,179 +28379,179 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1293</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1299</v>
-      </c>
       <c r="D5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>1304</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>1300</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>2025</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2024</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>2026</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D8" t="s">
         <v>1536</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1537</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D10" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="32" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28556,151 +28559,151 @@
       <c r="B15" s="15"/>
       <c r="C15" s="57"/>
       <c r="D15" s="31" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>1255</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1472</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D18" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E18" t="s">
         <v>1476</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D19" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E19" t="s">
         <v>1478</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B20" t="s">
         <v>1486</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
         <v>1488</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>1489</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="B21" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1775</v>
-      </c>
       <c r="D21" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E21" t="s">
         <v>1777</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
         <v>1780</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C23" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B24" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D25" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E25" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B26" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D26" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E26" t="s">
         <v>1829</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1830</v>
       </c>
     </row>
   </sheetData>
@@ -28741,114 +28744,114 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>1392</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="C4" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1835</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>1836</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>1276</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="C8" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>1367</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28856,15 +28859,15 @@
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
   </sheetData>
@@ -28878,7 +28881,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A20" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28903,19 +28906,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>726</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>725</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>727</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" t="s">
         <v>728</v>
-      </c>
-      <c r="E2" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28923,13 +28926,13 @@
         <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28937,217 +28940,217 @@
         <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1966</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>1967</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1968</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>1787</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="9" t="s">
         <v>1788</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="18"/>
       <c r="C6" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D6" t="s">
         <v>1790</v>
       </c>
-      <c r="D6" t="s">
-        <v>1791</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>2028</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>2029</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>2030</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>2031</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1943</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>1944</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1945</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D9" t="s">
+        <v>729</v>
+      </c>
+      <c r="E9" t="s">
         <v>730</v>
-      </c>
-      <c r="E9" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="C11" s="58"/>
       <c r="D11" s="31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="C12" s="58"/>
       <c r="D12" s="31" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>1398</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="C14" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>1793</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>1802</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -29160,10 +29163,10 @@
         <v>518</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1400</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1401</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>545</v>
@@ -29171,61 +29174,61 @@
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="37" t="s">
         <v>1274</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C23" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" t="s">
         <v>1579</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>1607</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E25" t="s">
         <v>1609</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1610</v>
       </c>
     </row>
   </sheetData>
@@ -29241,8 +29244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC3C2C0-A529-45AF-9E19-6A70A7319ED0}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29270,29 +29273,29 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="49" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1386</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -29301,82 +29304,82 @@
         <v>186</v>
       </c>
       <c r="D4" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E4" t="s">
         <v>1994</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1995</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E5" t="s">
         <v>2000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2001</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E6" t="s">
         <v>2017</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
         <v>1321</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="9" t="s">
         <v>1322</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="9"/>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E8" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D9" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E9" t="s">
         <v>1759</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="9" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E10" t="s">
         <v>1616</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -29385,69 +29388,69 @@
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="23" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E12" t="s">
         <v>1532</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
       <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D13" t="s">
         <v>1528</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1529</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="9" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1913</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
         <v>1914</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>1915</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
       <c r="B15" s="9" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C15" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E15" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="23"/>
       <c r="B16" s="9"/>
       <c r="C16" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -29455,346 +29458,346 @@
       <c r="A17" s="23"/>
       <c r="B17" s="53"/>
       <c r="C17" s="1" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D17" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E17" t="s">
         <v>1911</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="23"/>
       <c r="B18" s="9" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1920</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E18" t="s">
         <v>1921</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2019</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>2003</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" t="s">
         <v>2004</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2005</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="23"/>
       <c r="B20" s="9" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C20" t="s">
         <v>1905</v>
       </c>
-      <c r="C20" t="s">
-        <v>1906</v>
-      </c>
       <c r="D20" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E20" t="s">
         <v>1689</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="9"/>
       <c r="C21" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="9" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D24" t="s">
         <v>1483</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>1484</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="9" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D26" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E26" t="s">
         <v>1759</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D27" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E27" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D28" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E28" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D29" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E29" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="9" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E30" t="s">
         <v>1673</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1769</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="9" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E31" t="s">
         <v>1203</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C32" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D32" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E32" t="s">
         <v>1205</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="9" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E33" t="s">
         <v>1424</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" s="9" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D34" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E34" t="s">
         <v>1422</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>1956</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1957</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" s="9" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C36" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E36" t="s">
         <v>1268</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>1426</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1427</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B40" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>1429</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1430</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" s="9" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>2034</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>2035</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="9" t="s">
         <v>2036</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>2037</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D42" t="s">
         <v>1488</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>1489</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>1975</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>1978</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>1976</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -29802,34 +29805,34 @@
     </row>
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="49" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>1262</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D45" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E45" t="s">
         <v>1258</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="23"/>
       <c r="B46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C46" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -29837,25 +29840,25 @@
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="23"/>
       <c r="B48" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C48" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -29863,74 +29866,74 @@
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>1462</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D51" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>1464</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" t="s">
         <v>1492</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" s="9" t="s">
         <v>1493</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B53" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D53" t="s">
         <v>1496</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" s="9" t="s">
         <v>1497</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>1499</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/文法（ぶんぽう）/汉语语法.xlsx
+++ b/文法（ぶんぽう）/汉语语法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05EF917-4AC0-4B7E-9F44-57EADFA66ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C870FB-4A3D-424E-9002-C560AE5D2E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14928" windowHeight="11304" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恋人「こい」" sheetId="4" state="hidden" r:id="rId1"/>
@@ -13781,33 +13781,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>中国の空気は日本の空気</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のほう</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>汚いです</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>もしも</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18891,6 +18864,33 @@
   </si>
   <si>
     <t>因此，一部分感到无聊的生物——或者说类似生物的存在——可能通过某种方式打开了时间之门吧。</t>
+  </si>
+  <si>
+    <r>
+      <t>中国の空気は日本の空気</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のほうが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>汚いです</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -19507,10 +19507,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -19828,7 +19828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0DD02-A2A4-4913-87F3-FF074BB46E2F}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -19857,24 +19857,24 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>1660</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1282</v>
@@ -19923,73 +19923,73 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>1716</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>1403</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>1405</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>1433</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -20003,15 +20003,15 @@
         <v>1341</v>
       </c>
       <c r="D12" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>1407</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1195</v>
@@ -20025,212 +20025,212 @@
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E14" t="s">
         <v>1357</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E15" t="s">
         <v>1353</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E16" t="s">
         <v>1355</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>1504</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D18" t="s">
         <v>1539</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>1540</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1507</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>2012</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>2013</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
         <v>2014</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>972</v>
       </c>
       <c r="D23" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E23" t="s">
         <v>1347</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>1651</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E27" t="s">
         <v>1654</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1940</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>1941</v>
-      </c>
       <c r="D28" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E28" t="s">
         <v>1662</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="51"/>
       <c r="B30" s="52" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1213</v>
@@ -20244,35 +20244,35 @@
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="52" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E31" s="37" t="s">
         <v>1732</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>1729</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -20288,19 +20288,19 @@
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" t="s">
         <v>1810</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" s="37" t="s">
         <v>1811</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="37" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -20367,132 +20367,132 @@
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" t="s">
         <v>1523</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>1524</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1633</v>
-      </c>
       <c r="D42" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E42" t="s">
         <v>1630</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>1624</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>1622</v>
-      </c>
       <c r="D44" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E44" t="s">
         <v>1628</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C45" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D45" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E45" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>1893</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>1894</v>
-      </c>
       <c r="D46" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E46" t="s">
         <v>1898</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D47" t="s">
         <v>1895</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>1896</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E48" t="s">
         <v>1901</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1902</v>
       </c>
     </row>
   </sheetData>
@@ -20518,73 +20518,73 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1738</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1740</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>1846</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D7" t="s">
         <v>1978</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1979</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>310</v>
@@ -20592,55 +20592,55 @@
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D9" t="s">
         <v>2010</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>1746</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C11" t="s">
         <v>1818</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1819</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C12" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D12" t="s">
         <v>1821</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1822</v>
       </c>
     </row>
   </sheetData>
@@ -20873,19 +20873,19 @@
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>1674</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="C16" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" t="s">
         <v>1677</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -20993,46 +20993,46 @@
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E25" t="s">
         <v>1439</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E26" t="s">
         <v>1441</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E27" t="s">
         <v>1443</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C28" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E28" t="s">
         <v>1446</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21079,27 +21079,27 @@
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>1572</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E33" t="s">
         <v>1574</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1575</v>
       </c>
     </row>
   </sheetData>
@@ -21213,19 +21213,19 @@
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E8" t="s">
         <v>1946</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1951</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21233,65 +21233,65 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E9" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="25" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D10" t="s">
         <v>2038</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>2039</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>1567</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>1593</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E13" t="s">
         <v>1594</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21299,55 +21299,55 @@
         <v>328</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E14" t="s">
         <v>1600</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D15" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E15" t="s">
         <v>1602</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1935</v>
       </c>
-      <c r="B16" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1936</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E16" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E17" t="s">
         <v>1938</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1939</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -21355,132 +21355,132 @@
         <v>1067</v>
       </c>
       <c r="B18" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D18" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E18" t="s">
         <v>1698</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D19" t="s">
         <v>1971</v>
       </c>
-      <c r="B19" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1970</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>1972</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B20" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E20" t="s">
         <v>1700</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D21" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E21" s="54" t="s">
         <v>1932</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>2005</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2006</v>
       </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="B23" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1749</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E23" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E24" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E25" t="s">
         <v>1754</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B26" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
   </sheetData>
@@ -21494,7 +21494,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -21737,41 +21737,41 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="40" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E15" t="s">
         <v>1589</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="40"/>
       <c r="D16" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E16" t="s">
         <v>1587</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="40" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E17" t="s">
         <v>1930</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -21782,7 +21782,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>134</v>
@@ -21810,52 +21810,52 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>1453</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>1451</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>1455</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -21863,80 +21863,80 @@
         <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>1990</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="9" t="s">
         <v>1991</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>1561</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
   </sheetData>
@@ -21949,8 +21949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6605E0D7-54D1-4304-94C5-D79C1ECC1119}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -22001,7 +22001,7 @@
         <v>666</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1343</v>
+        <v>2040</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>663</v>
@@ -22026,36 +22026,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" t="s">
         <v>1611</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>1637</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -22079,19 +22079,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D9" t="s">
         <v>1682</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1" t="s">
         <v>1683</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1684</v>
       </c>
     </row>
   </sheetData>
@@ -22725,7 +22725,7 @@
         <v>508</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D3" t="s">
         <v>509</v>
@@ -22744,13 +22744,13 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D5" t="s">
         <v>1815</v>
       </c>
-      <c r="D5" t="s">
-        <v>1816</v>
-      </c>
       <c r="E5" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -22758,76 +22758,76 @@
         <v>507</v>
       </c>
       <c r="B6" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="C7" s="55"/>
       <c r="D7" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E7" t="s">
         <v>1981</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E8" t="s">
         <v>1583</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E9" t="s">
         <v>1724</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E10" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1983</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>1984</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>1985</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1986</v>
       </c>
     </row>
   </sheetData>
@@ -23056,52 +23056,52 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>1415</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="47"/>
       <c r="D13" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>1417</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="47"/>
       <c r="D14" s="23" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="47"/>
       <c r="C15" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D15" t="s">
         <v>1411</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>1412</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1413</v>
       </c>
     </row>
   </sheetData>
@@ -23165,7 +23165,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>374</v>
@@ -23261,70 +23261,70 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D9" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E9" t="s">
         <v>1867</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D10" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E10" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D11" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E11" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1856</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>1858</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -23447,7 +23447,7 @@
         <v>967</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>800</v>
@@ -23462,7 +23462,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>801</v>
@@ -23477,7 +23477,7 @@
         <v>968</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>918</v>
@@ -23492,7 +23492,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>919</v>
@@ -23524,7 +23524,7 @@
         <v>898</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>920</v>
@@ -23536,7 +23536,7 @@
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>921</v>
@@ -23551,7 +23551,7 @@
         <v>822</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>922</v>
@@ -23568,7 +23568,7 @@
         <v>823</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>923</v>
@@ -23583,7 +23583,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>924</v>
@@ -23615,7 +23615,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>925</v>
@@ -23627,7 +23627,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="15"/>
       <c r="B33" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>926</v>
@@ -23656,7 +23656,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="15"/>
       <c r="B35" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>927</v>
@@ -23668,7 +23668,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="15"/>
       <c r="B36" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>928</v>
@@ -23679,110 +23679,110 @@
     </row>
     <row r="37" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1680</v>
-      </c>
       <c r="D37" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>1677</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="18"/>
       <c r="B38" s="6"/>
       <c r="D38" s="54" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E38" t="s">
         <v>1877</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="18" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D39" t="s">
         <v>1874</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>1875</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="18" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>1879</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" t="s">
         <v>1880</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" s="9" t="s">
         <v>1881</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="9" t="s">
         <v>1705</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="18" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1884</v>
-      </c>
       <c r="D42" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E42" t="s">
         <v>1888</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="18"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D43" t="s">
         <v>1885</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>1886</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -24003,50 +24003,50 @@
     </row>
     <row r="59" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>1545</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="60" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D61" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E61" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
@@ -24054,13 +24054,13 @@
         <v>328</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E62" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
@@ -24068,78 +24068,78 @@
         <v>328</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E63" t="s">
         <v>1555</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E64" t="s">
         <v>1589</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B65" s="40"/>
       <c r="D65" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E65" t="s">
         <v>1587</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B66" s="56" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>1997</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>1606</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="68" spans="1:5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E68" t="s">
         <v>1608</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1609</v>
       </c>
     </row>
   </sheetData>
@@ -24970,42 +24970,42 @@
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E49" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F49" t="s">
         <v>2031</v>
-      </c>
-      <c r="F49" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="15"/>
       <c r="B51" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -25016,12 +25016,12 @@
         <v>1285</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1285</v>
@@ -25030,28 +25030,28 @@
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F55" t="s">
         <v>1924</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -25084,22 +25084,22 @@
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A58" s="18" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E58" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F58" t="s">
         <v>1377</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -25107,10 +25107,10 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F59" t="s">
         <v>1375</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -25119,10 +25119,10 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F60" t="s">
         <v>1379</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -25230,36 +25230,36 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="9" t="s">
         <v>1642</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>1648</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>1649</v>
       </c>
     </row>
   </sheetData>
@@ -25301,12 +25301,12 @@
         <v>1218</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>1952</v>
-      </c>
-      <c r="E1" s="61" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>1115</v>
       </c>
-      <c r="F1" s="61"/>
+      <c r="F1" s="60"/>
       <c r="I1" s="36" t="s">
         <v>1117</v>
       </c>
@@ -25358,14 +25358,14 @@
       <c r="C3" s="43" t="s">
         <v>1097</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="6" t="s">
         <v>1103</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1107</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="36" t="s">
         <v>1221</v>
       </c>
@@ -25375,7 +25375,7 @@
       <c r="J3" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="6" t="s">
         <v>1232</v>
       </c>
@@ -25399,14 +25399,14 @@
       <c r="C4" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="36" t="s">
         <v>1222</v>
       </c>
@@ -25416,16 +25416,16 @@
       <c r="J4" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="K4" s="61"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
-        <v>1953</v>
-      </c>
-      <c r="E6" s="61" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E6" s="60" t="s">
         <v>1124</v>
       </c>
-      <c r="F6" s="61"/>
+      <c r="F6" s="60"/>
       <c r="I6" s="36" t="s">
         <v>1118</v>
       </c>
@@ -25490,14 +25490,14 @@
       <c r="C8" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="6" t="s">
         <v>1126</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="G8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="10" t="s">
         <v>1224</v>
       </c>
@@ -25507,7 +25507,7 @@
       <c r="J8" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="6" t="s">
         <v>1147</v>
       </c>
@@ -25523,12 +25523,12 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
-        <v>1954</v>
-      </c>
-      <c r="E10" s="61" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E10" s="60" t="s">
         <v>1116</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="60"/>
       <c r="I10" s="36" t="s">
         <v>1119</v>
       </c>
@@ -25568,7 +25568,7 @@
         <v>1137</v>
       </c>
       <c r="K11" s="59" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>1151</v>
@@ -25593,14 +25593,14 @@
       <c r="C12" s="6" t="s">
         <v>1135</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="6" t="s">
         <v>1227</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="10" t="s">
         <v>1226</v>
       </c>
@@ -25610,18 +25610,23 @@
       <c r="J12" s="11" t="s">
         <v>1138</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>1226</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -25629,11 +25634,6 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25697,8 +25697,8 @@
       <c r="D2" s="62" t="s">
         <v>1167</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="38" t="s">
         <v>1170</v>
       </c>
@@ -25728,10 +25728,10 @@
       <c r="A5" s="10" t="s">
         <v>1163</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -27823,7 +27823,7 @@
         <v>815</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28007,19 +28007,19 @@
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>1467</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>1468</v>
       </c>
     </row>
   </sheetData>
@@ -28060,31 +28060,31 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>1692</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D3" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E3" t="s">
         <v>1854</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -28102,13 +28102,13 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="C5" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E5" t="s">
         <v>1850</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -28117,22 +28117,22 @@
         <v>1247</v>
       </c>
       <c r="D6" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E6" t="s">
         <v>1852</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="C7" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D7" t="s">
         <v>1926</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1927</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -28141,30 +28141,30 @@
         <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D8" t="s">
         <v>2007</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="9" t="s">
         <v>2008</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>2009</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>1382</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -28244,44 +28244,44 @@
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D15" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E15" t="s">
         <v>1515</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="C16" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D17" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E17" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -28289,7 +28289,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -28300,49 +28300,49 @@
         <v>328</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D19" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E19" t="s">
         <v>1770</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
         <v>1667</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>1668</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1669</v>
       </c>
     </row>
   </sheetData>
@@ -28464,36 +28464,36 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>2025</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>2026</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D8" t="s">
         <v>1535</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1536</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28523,18 +28523,18 @@
         <v>1285</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28569,7 +28569,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1254</v>
@@ -28580,130 +28580,130 @@
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1471</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D18" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E18" t="s">
         <v>1475</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D19" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E19" t="s">
         <v>1477</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B20" t="s">
         <v>1485</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
         <v>1487</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>1488</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>1773</v>
       </c>
-      <c r="B21" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1774</v>
-      </c>
       <c r="D21" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E21" t="s">
         <v>1776</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
         <v>1779</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C23" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B24" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D25" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E25" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B26" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D26" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E26" t="s">
         <v>1828</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1829</v>
       </c>
     </row>
   </sheetData>
@@ -28750,37 +28750,37 @@
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>1391</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="C4" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1834</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>1835</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -28802,7 +28802,7 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>992</v>
@@ -28839,19 +28839,19 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>1366</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -28859,15 +28859,15 @@
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
   </sheetData>
@@ -28926,10 +28926,10 @@
         <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E3" t="s">
         <v>728</v>
@@ -28940,76 +28940,76 @@
         <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1965</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>1966</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1967</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1785</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>1786</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="9" t="s">
         <v>1787</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="18"/>
       <c r="C6" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D6" t="s">
         <v>1789</v>
       </c>
-      <c r="D6" t="s">
-        <v>1790</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>2027</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>2028</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>2029</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>1943</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1944</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
@@ -29056,101 +29056,101 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>1397</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="C14" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>1363</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>1792</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>1801</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -29163,10 +29163,10 @@
         <v>518</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1399</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1400</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>545</v>
@@ -29191,44 +29191,44 @@
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C23" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" t="s">
         <v>1578</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>1606</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E25" t="s">
         <v>1608</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1609</v>
       </c>
     </row>
   </sheetData>
@@ -29273,7 +29273,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="49" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1319</v>
@@ -29282,20 +29282,20 @@
         <v>186</v>
       </c>
       <c r="D2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1385</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -29304,30 +29304,30 @@
         <v>186</v>
       </c>
       <c r="D4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E4" t="s">
         <v>1993</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E5" t="s">
         <v>1999</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E6" t="s">
         <v>2016</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -29348,7 +29348,7 @@
       <c r="B8" s="9"/>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E8" t="s">
         <v>1323</v>
@@ -29356,30 +29356,30 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D9" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E9" t="s">
         <v>1758</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="9" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E10" t="s">
         <v>1615</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -29391,66 +29391,66 @@
         <v>1259</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E12" t="s">
         <v>1531</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
       <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D13" t="s">
         <v>1527</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1528</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="9" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
         <v>1913</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>1914</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
       <c r="B15" s="9" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C15" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E15" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="23"/>
       <c r="B16" s="9"/>
       <c r="C16" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -29458,163 +29458,163 @@
       <c r="A17" s="23"/>
       <c r="B17" s="53"/>
       <c r="C17" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D17" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E17" t="s">
         <v>1910</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1911</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="23"/>
       <c r="B18" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1919</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E18" t="s">
         <v>1920</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2018</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1921</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>2002</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" t="s">
         <v>2003</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="23"/>
       <c r="B20" s="9" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C20" t="s">
         <v>1904</v>
       </c>
-      <c r="C20" t="s">
-        <v>1905</v>
-      </c>
       <c r="D20" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E20" t="s">
         <v>1688</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="23"/>
       <c r="B21" s="9"/>
       <c r="C21" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="9" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D24" t="s">
         <v>1482</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>1483</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="9" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D26" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E26" t="s">
         <v>1758</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D27" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E27" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D28" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E28" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D29" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E29" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="9" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E30" t="s">
         <v>1672</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="9" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C31" t="s">
         <v>1206</v>
@@ -29628,7 +29628,7 @@
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C32" t="s">
         <v>1210</v>
@@ -29642,40 +29642,40 @@
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="9" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D33" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E33" t="s">
         <v>1423</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" s="9" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D34" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E34" t="s">
         <v>1421</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>1955</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -29716,10 +29716,10 @@
         <v>870</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>1425</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1426</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -29732,7 +29732,7 @@
         <v>869</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>873</v>
@@ -29742,62 +29742,62 @@
     </row>
     <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B40" s="9" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>1428</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1429</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" s="9" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>2033</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>2034</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="9" t="s">
         <v>2035</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>2036</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D42" t="s">
         <v>1487</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>1488</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>1977</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>1975</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -29874,66 +29874,66 @@
     </row>
     <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>1461</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D51" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>1463</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" t="s">
         <v>1491</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" s="9" t="s">
         <v>1492</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B53" s="9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D53" t="s">
         <v>1495</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" s="9" t="s">
         <v>1496</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>1498</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>1499</v>
       </c>
     </row>
   </sheetData>
